--- a/src/data/database.xlsx
+++ b/src/data/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\Desktop\USB BackUp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\DABAD\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DFFA59-A0B3-4603-AF28-50483758B6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15318393-D04A-4925-9291-13C5CEF427FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -792,9 +792,6 @@
     <t>Ratatouille</t>
   </si>
   <si>
-    <t>Monster University</t>
-  </si>
-  <si>
     <t>Dan Scanion</t>
   </si>
   <si>
@@ -1279,6 +1276,9 @@
   </si>
   <si>
     <t>Sam Mendes</t>
+  </si>
+  <si>
+    <t>Monsters University</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1461,7 +1461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1666,8 +1666,8 @@
   <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1712,7 +1712,7 @@
         <v>2019</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1734,13 +1734,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C4" s="5">
         <v>2018</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1748,13 +1748,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C5" s="5">
         <v>2019</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C6" s="5">
         <v>1988</v>
@@ -1787,13 +1787,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C8" s="5">
         <v>2018</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1815,13 +1815,13 @@
         <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10" s="5">
         <v>2009</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1843,13 +1843,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="5">
         <v>1973</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1913,13 +1913,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C17" s="5">
         <v>2007</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1927,13 +1927,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18" s="5">
         <v>1970</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1983,13 +1983,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C22" s="5">
         <v>2019</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2011,13 +2011,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="5">
         <v>2005</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2039,13 +2039,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C26" s="5">
         <v>2006</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2067,7 +2067,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -2081,13 +2081,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="5">
         <v>2013</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2095,13 +2095,13 @@
         <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30" s="5">
         <v>2004</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2109,13 +2109,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C31" s="5">
         <v>1972</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2123,13 +2123,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C32" s="5">
         <v>2018</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2151,13 +2151,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" s="5">
         <v>2010</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2165,13 +2165,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" s="5">
         <v>2013</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2179,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C36" s="5">
         <v>2010</v>
@@ -2193,13 +2193,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C37" s="5">
         <v>2012</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2207,13 +2207,13 @@
         <v>7</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C38" s="5">
         <v>2011</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2221,13 +2221,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C39" s="5">
         <v>2003</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2249,13 +2249,13 @@
         <v>50</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C41" s="5">
         <v>2008</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2291,13 +2291,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C44" s="5">
         <v>1971</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2333,7 +2333,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C47" s="5">
         <v>2014</v>
@@ -2403,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C52" s="5">
         <v>2018</v>
@@ -2417,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C53" s="5">
         <v>2018</v>
@@ -2431,13 +2431,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C54" s="5">
         <v>2016</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2473,7 +2473,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C57" s="5">
         <v>2019</v>
@@ -2501,7 +2501,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C59" s="5">
         <v>2019</v>
@@ -2529,13 +2529,13 @@
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C61" s="5">
         <v>1997</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2557,7 +2557,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C63" s="5">
         <v>2013</v>
@@ -2571,13 +2571,13 @@
         <v>50</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C64" s="5">
         <v>2016</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2711,13 +2711,13 @@
         <v>50</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C74" s="5">
         <v>2018</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2739,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C76" s="5">
         <v>2006</v>
@@ -2750,7 +2750,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C77" s="5">
         <v>2007</v>
@@ -2761,7 +2761,7 @@
         <v>7</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C78" s="5">
         <v>2008</v>
@@ -2772,7 +2772,7 @@
         <v>7</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C79" s="5">
         <v>2008</v>
@@ -2783,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C80" s="5">
         <v>2010</v>
@@ -2794,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C81" s="5">
         <v>2011</v>
@@ -2805,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C82" s="5">
         <v>2011</v>
@@ -2816,7 +2816,7 @@
         <v>7</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C83" s="5">
         <v>2012</v>
@@ -2827,13 +2827,13 @@
         <v>7</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C84" s="5">
         <v>2019</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2939,13 +2939,13 @@
         <v>7</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C92" s="5">
         <v>2018</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2995,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C96" s="5">
         <v>2019</v>
@@ -3023,13 +3023,13 @@
         <v>7</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C98" s="5">
         <v>2017</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3107,7 +3107,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C104" s="5">
         <v>2017</v>
@@ -3135,7 +3135,7 @@
         <v>50</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C106" s="5">
         <v>2019</v>
@@ -3149,13 +3149,13 @@
         <v>50</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C107" s="5">
         <v>2017</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3177,13 +3177,13 @@
         <v>7</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C109" s="5">
         <v>2019</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3191,13 +3191,13 @@
         <v>50</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C110" s="5">
         <v>2012</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3205,13 +3205,13 @@
         <v>50</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C111" s="5">
         <v>2016</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3247,7 +3247,7 @@
         <v>7</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C114" s="5">
         <v>2018</v>
@@ -3261,7 +3261,7 @@
         <v>7</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C115" s="5">
         <v>2015</v>
@@ -3275,13 +3275,13 @@
         <v>7</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C116" s="5">
         <v>2015</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3331,13 +3331,13 @@
         <v>7</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C120" s="5">
         <v>2018</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3345,13 +3345,13 @@
         <v>7</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C121" s="5">
         <v>2015</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3373,13 +3373,13 @@
         <v>7</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>254</v>
+        <v>416</v>
       </c>
       <c r="C123" s="5">
         <v>2013</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3387,13 +3387,13 @@
         <v>7</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C124" s="5">
         <v>2018</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3507,13 +3507,13 @@
         <v>50</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C133" s="5">
         <v>2013</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3549,13 +3549,13 @@
         <v>7</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C136" s="5">
         <v>2018</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3563,13 +3563,13 @@
         <v>7</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C137" s="5">
         <v>2019</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3619,13 +3619,13 @@
         <v>7</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C141" s="5">
         <v>2018</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3675,13 +3675,13 @@
         <v>7</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C145" s="5">
         <v>1968</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3717,7 +3717,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C148" s="5">
         <v>2008</v>
@@ -3801,13 +3801,13 @@
         <v>50</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C154" s="5">
         <v>2011</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3843,13 +3843,13 @@
         <v>7</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C157" s="5">
         <v>2004</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3871,13 +3871,13 @@
         <v>7</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C159" s="5">
         <v>2016</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3885,13 +3885,13 @@
         <v>7</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C160" s="5">
         <v>1992</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3899,13 +3899,13 @@
         <v>7</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C161" s="5">
         <v>1993</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3913,13 +3913,13 @@
         <v>7</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C162" s="5">
         <v>2012</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3927,13 +3927,13 @@
         <v>7</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C163" s="5">
         <v>2015</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3997,13 +3997,13 @@
         <v>7</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C168" s="5">
         <v>2018</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -4081,13 +4081,13 @@
         <v>7</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C174" s="5">
         <v>2017</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -4095,13 +4095,13 @@
         <v>7</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C175" s="5">
         <v>2016</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4109,13 +4109,13 @@
         <v>7</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C176" s="5">
         <v>1941</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4123,7 +4123,7 @@
         <v>7</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C177" s="5">
         <v>2015</v>
@@ -4221,7 +4221,7 @@
         <v>50</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C184" s="5">
         <v>2014</v>
@@ -4235,13 +4235,13 @@
         <v>7</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C185" s="5">
         <v>2019</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -4249,13 +4249,13 @@
         <v>7</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C186" s="5">
         <v>2018</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -4263,13 +4263,13 @@
         <v>50</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C187" s="5">
         <v>2010</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -4277,7 +4277,7 @@
         <v>7</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C188" s="5">
         <v>2018</v>
@@ -4305,13 +4305,13 @@
         <v>50</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C190" s="5">
         <v>2014</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4347,13 +4347,13 @@
         <v>7</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C193" s="5">
         <v>2002</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4361,13 +4361,13 @@
         <v>7</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C194" s="5">
         <v>2018</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4473,13 +4473,13 @@
         <v>50</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C202" s="5">
         <v>2010</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4557,13 +4557,13 @@
         <v>50</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C208" s="5">
         <v>2018</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4571,13 +4571,13 @@
         <v>7</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C209" s="5">
         <v>2017</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4585,13 +4585,13 @@
         <v>7</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C210" s="5">
         <v>2007</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4613,13 +4613,13 @@
         <v>7</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C212" s="5">
         <v>2004</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4697,13 +4697,13 @@
         <v>7</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C218" s="5">
         <v>2016</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4711,13 +4711,13 @@
         <v>7</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C219" s="5">
         <v>2010</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4753,7 +4753,7 @@
         <v>7</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C222" s="5">
         <v>2019</v>
@@ -4767,7 +4767,7 @@
         <v>7</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C223" s="5">
         <v>2018</v>
@@ -4781,13 +4781,13 @@
         <v>7</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C224" s="5">
         <v>2018</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4865,13 +4865,13 @@
         <v>7</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C230" s="5">
         <v>2018</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4879,13 +4879,13 @@
         <v>50</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C231" s="5">
         <v>2018</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4893,13 +4893,13 @@
         <v>7</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C232" s="5">
         <v>2017</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -5019,7 +5019,7 @@
         <v>50</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C241" s="5">
         <v>2019</v>
@@ -5048,8 +5048,8 @@
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G268">
-    <sortCondition ref="D1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H242">
+    <sortCondition ref="H1:H242"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/src/data/database.xlsx
+++ b/src/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\DABAD\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A7AA0B6-0084-4426-A73C-13E7330732D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E485BA-F752-4221-868E-131C7FEB89E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -789,9 +789,6 @@
     <t>Ratatouille</t>
   </si>
   <si>
-    <t>Monster University</t>
-  </si>
-  <si>
     <t>Dan Scanion</t>
   </si>
   <si>
@@ -984,9 +981,6 @@
     <t>Guillermo del Toro</t>
   </si>
   <si>
-    <t>Mission: Impossible - Rouge Nation</t>
-  </si>
-  <si>
     <t>The Farewell</t>
   </si>
   <si>
@@ -1482,9 +1476,6 @@
     <t>Simon Kinberg</t>
   </si>
   <si>
-    <t>Shark Tales</t>
-  </si>
-  <si>
     <t>Rob Letterman, Bibo Bergeron, Vicky Jenson</t>
   </si>
   <si>
@@ -1536,9 +1527,6 @@
     <t>Wim Wenders</t>
   </si>
   <si>
-    <t>Legend of Tarzan</t>
-  </si>
-  <si>
     <t>The Light Between Oceans</t>
   </si>
   <si>
@@ -1654,6 +1642,18 @@
   </si>
   <si>
     <t>James Kent</t>
+  </si>
+  <si>
+    <t>Mission: Impossible - Rogue Nation</t>
+  </si>
+  <si>
+    <t>The Legend of Tarzan</t>
+  </si>
+  <si>
+    <t>Monsters University</t>
+  </si>
+  <si>
+    <t>Shark Tale</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1842,7 +1842,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2047,8 +2047,8 @@
   <dimension ref="A1:J318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G321" sqref="G321"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2066,7 +2066,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>49</v>
@@ -2107,21 +2107,21 @@
         <v>2019</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D3" s="5">
         <v>2001</v>
@@ -2130,12 +2130,12 @@
         <v>72</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
@@ -2150,89 +2150,89 @@
         <v>65</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D5" s="5">
         <v>2018</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D6" s="5">
         <v>2019</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D8" s="5">
         <v>1988</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
@@ -2247,21 +2247,21 @@
         <v>72</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D10" s="5">
         <v>2018</v>
@@ -2270,32 +2270,32 @@
         <v>179</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D11" s="5">
         <v>2018</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>7</v>
@@ -2310,52 +2310,52 @@
         <v>176</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D13" s="5">
         <v>2018</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D14" s="5">
         <v>2009</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>7</v>
@@ -2370,58 +2370,58 @@
         <v>129</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D16" s="5">
         <v>2016</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D17" s="5">
         <v>1973</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>49</v>
@@ -2436,12 +2436,12 @@
         <v>34</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>7</v>
@@ -2456,12 +2456,12 @@
         <v>38</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>7</v>
@@ -2476,12 +2476,12 @@
         <v>30</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>49</v>
@@ -2496,55 +2496,55 @@
         <v>242</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D22" s="5">
         <v>2007</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D23" s="5">
         <v>1970</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>7</v>
@@ -2559,32 +2559,32 @@
         <v>212</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D25" s="5">
         <v>2020</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>49</v>
@@ -2599,12 +2599,12 @@
         <v>117</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>7</v>
@@ -2619,55 +2619,55 @@
         <v>170</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D28" s="5">
         <v>2019</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D29" s="5">
         <v>2019</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>7</v>
@@ -2682,52 +2682,52 @@
         <v>210</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D31" s="5">
         <v>2005</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D32" s="5">
         <v>2014</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>49</v>
@@ -2742,35 +2742,35 @@
         <v>198</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D34" s="5">
         <v>2006</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>7</v>
@@ -2785,18 +2785,18 @@
         <v>244</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D36" s="5">
         <v>2019</v>
@@ -2805,18 +2805,18 @@
         <v>12</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D37" s="5">
         <v>2018</v>
@@ -2825,118 +2825,118 @@
         <v>63</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D38" s="5">
         <v>2013</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D39" s="5">
         <v>2004</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D40" s="5">
         <v>1972</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D41" s="5">
         <v>2018</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D42" s="5">
         <v>1989</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>7</v>
@@ -2951,64 +2951,64 @@
         <v>52</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D44" s="5">
         <v>2010</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D45" s="5">
         <v>2013</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D46" s="5">
         <v>2010</v>
@@ -3017,84 +3017,84 @@
         <v>160</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D47" s="5">
         <v>2012</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D48" s="5">
         <v>2011</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D49" s="5">
         <v>2003</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>7</v>
@@ -3109,35 +3109,35 @@
         <v>162</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D51" s="5">
         <v>2008</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>7</v>
@@ -3152,32 +3152,32 @@
         <v>86</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D53" s="5">
         <v>2010</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>7</v>
@@ -3192,35 +3192,35 @@
         <v>36</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D55" s="5">
         <v>1971</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>7</v>
@@ -3235,12 +3235,12 @@
         <v>55</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>7</v>
@@ -3255,18 +3255,18 @@
         <v>179</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D58" s="5">
         <v>2014</v>
@@ -3275,12 +3275,12 @@
         <v>170</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>7</v>
@@ -3295,15 +3295,15 @@
         <v>15</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>7</v>
@@ -3318,15 +3318,15 @@
         <v>15</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>7</v>
@@ -3341,15 +3341,15 @@
         <v>15</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>7</v>
@@ -3364,21 +3364,21 @@
         <v>153</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D63" s="5">
         <v>2018</v>
@@ -3387,21 +3387,21 @@
         <v>153</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D64" s="5">
         <v>2018</v>
@@ -3410,32 +3410,32 @@
         <v>234</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D65" s="5">
         <v>2016</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>7</v>
@@ -3450,32 +3450,32 @@
         <v>32</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D67" s="5">
         <v>2019</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>7</v>
@@ -3490,21 +3490,21 @@
         <v>251</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D69" s="5">
         <v>2019</v>
@@ -3513,15 +3513,15 @@
         <v>251</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>7</v>
@@ -3536,18 +3536,18 @@
         <v>67</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D71" s="5">
         <v>2019</v>
@@ -3556,15 +3556,15 @@
         <v>69</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>7</v>
@@ -3579,32 +3579,32 @@
         <v>188</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D73" s="5">
         <v>1997</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>7</v>
@@ -3619,18 +3619,18 @@
         <v>192</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D75" s="5">
         <v>2013</v>
@@ -3639,32 +3639,32 @@
         <v>149</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D76" s="5">
         <v>2016</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>7</v>
@@ -3679,32 +3679,32 @@
         <v>82</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D78" s="5">
         <v>2020</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>7</v>
@@ -3719,15 +3719,15 @@
         <v>146</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>7</v>
@@ -3742,15 +3742,15 @@
         <v>153</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>7</v>
@@ -3765,15 +3765,15 @@
         <v>153</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>7</v>
@@ -3788,15 +3788,15 @@
         <v>151</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>7</v>
@@ -3811,15 +3811,15 @@
         <v>153</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>7</v>
@@ -3834,15 +3834,15 @@
         <v>153</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>7</v>
@@ -3857,15 +3857,15 @@
         <v>146</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>7</v>
@@ -3880,35 +3880,35 @@
         <v>149</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D87" s="5">
         <v>2018</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>49</v>
@@ -3923,259 +3923,259 @@
         <v>174</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D89" s="5">
         <v>2006</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D90" s="5">
         <v>2007</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D91" s="5">
         <v>2008</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D92" s="5">
         <v>2008</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D93" s="5">
         <v>2010</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D94" s="5">
         <v>2011</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D95" s="5">
         <v>2011</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D96" s="5">
         <v>2012</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D97" s="5">
         <v>2013</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D98" s="5">
         <v>2019</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D99" s="5">
         <v>2017</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>7</v>
@@ -4190,18 +4190,18 @@
         <v>181</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D101" s="5">
         <v>2010</v>
@@ -4210,12 +4210,12 @@
         <v>129</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>7</v>
@@ -4230,15 +4230,15 @@
         <v>91</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>7</v>
@@ -4253,15 +4253,15 @@
         <v>91</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>7</v>
@@ -4276,15 +4276,15 @@
         <v>91</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>7</v>
@@ -4299,32 +4299,32 @@
         <v>248</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D106" s="5">
         <v>2018</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>7</v>
@@ -4339,15 +4339,15 @@
         <v>164</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>7</v>
@@ -4362,32 +4362,32 @@
         <v>238</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D109" s="5">
         <v>2018</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>7</v>
@@ -4402,12 +4402,12 @@
         <v>202</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>7</v>
@@ -4422,15 +4422,15 @@
         <v>23</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>7</v>
@@ -4445,21 +4445,21 @@
         <v>22</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D113" s="5">
         <v>2019</v>
@@ -4468,32 +4468,32 @@
         <v>119</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D114" s="5">
         <v>2019</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>7</v>
@@ -4508,38 +4508,38 @@
         <v>133</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D116" s="5">
         <v>2017</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>7</v>
@@ -4554,12 +4554,12 @@
         <v>187</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>7</v>
@@ -4574,15 +4574,15 @@
         <v>91</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>7</v>
@@ -4597,15 +4597,15 @@
         <v>102</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>7</v>
@@ -4620,15 +4620,15 @@
         <v>105</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>49</v>
@@ -4643,41 +4643,41 @@
         <v>104</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D122" s="5">
         <v>2017</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D123" s="5">
         <v>2017</v>
@@ -4686,15 +4686,15 @@
         <v>84</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>7</v>
@@ -4709,21 +4709,21 @@
         <v>84</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D125" s="5">
         <v>2019</v>
@@ -4732,35 +4732,35 @@
         <v>98</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D126" s="5">
         <v>2017</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>232</v>
@@ -4772,58 +4772,58 @@
         <v>234</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D128" s="5">
         <v>2019</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D129" s="5">
         <v>2019</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="D130" s="5">
         <v>2016</v>
@@ -4832,52 +4832,52 @@
         <v>153</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D131" s="5">
         <v>2012</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D132" s="5">
         <v>2016</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>7</v>
@@ -4892,12 +4892,12 @@
         <v>34</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>7</v>
@@ -4912,38 +4912,38 @@
         <v>98</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D135" s="5">
         <v>2004</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D136" s="5">
         <v>2019</v>
@@ -4952,110 +4952,110 @@
         <v>200</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D137" s="5">
         <v>2015</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D138" s="5">
         <v>2014</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D139" s="5">
         <v>2008</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D140" s="5">
         <v>1964</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D141" s="5">
         <v>2018</v>
@@ -5064,21 +5064,21 @@
         <v>238</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D142" s="5">
         <v>2015</v>
@@ -5087,38 +5087,38 @@
         <v>166</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D143" s="5">
         <v>2015</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>7</v>
@@ -5133,15 +5133,15 @@
         <v>26</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>7</v>
@@ -5156,15 +5156,15 @@
         <v>27</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>7</v>
@@ -5179,58 +5179,58 @@
         <v>214</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D147" s="5">
         <v>2018</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>318</v>
+        <v>538</v>
       </c>
       <c r="D148" s="5">
         <v>2015</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>7</v>
@@ -5245,75 +5245,75 @@
         <v>208</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>253</v>
+        <v>540</v>
       </c>
       <c r="D150" s="5">
         <v>2013</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D151" s="5">
         <v>2018</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D152" s="5">
         <v>1990</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>7</v>
@@ -5328,12 +5328,12 @@
         <v>29</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>7</v>
@@ -5348,12 +5348,12 @@
         <v>221</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>7</v>
@@ -5368,12 +5368,12 @@
         <v>46</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>49</v>
@@ -5388,12 +5388,12 @@
         <v>57</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>7</v>
@@ -5408,12 +5408,12 @@
         <v>53</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>7</v>
@@ -5425,15 +5425,15 @@
         <v>2013</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>7</v>
@@ -5448,15 +5448,15 @@
         <v>135</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>7</v>
@@ -5471,35 +5471,35 @@
         <v>135</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D161" s="5">
         <v>2013</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>49</v>
@@ -5514,12 +5514,12 @@
         <v>47</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>7</v>
@@ -5534,259 +5534,259 @@
         <v>225</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D164" s="5">
         <v>2003</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D165" s="5">
         <v>2004</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D166" s="5">
         <v>2005</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D167" s="5">
         <v>2006</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D168" s="5">
         <v>2008</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D169" s="5">
         <v>2008</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D170" s="5">
         <v>2009</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D171" s="5">
         <v>2010</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D172" s="5">
         <v>2012</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D173" s="5">
         <v>2018</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D174" s="5">
         <v>2019</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>49</v>
@@ -5801,12 +5801,12 @@
         <v>172</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>7</v>
@@ -5821,15 +5821,15 @@
         <v>146</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>7</v>
@@ -5844,38 +5844,38 @@
         <v>160</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D178" s="5">
         <v>2018</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>7</v>
@@ -5890,15 +5890,15 @@
         <v>25</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>7</v>
@@ -5913,15 +5913,15 @@
         <v>12</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>7</v>
@@ -5936,58 +5936,58 @@
         <v>24</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D182" s="5">
         <v>1987</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D183" s="5">
         <v>1968</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>7</v>
@@ -6002,12 +6002,12 @@
         <v>61</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>49</v>
@@ -6022,18 +6022,18 @@
         <v>183</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D186" s="5">
         <v>2008</v>
@@ -6042,15 +6042,15 @@
         <v>63</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>7</v>
@@ -6065,15 +6065,15 @@
         <v>42</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>7</v>
@@ -6088,15 +6088,15 @@
         <v>91</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>7</v>
@@ -6111,12 +6111,12 @@
         <v>21</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>7</v>
@@ -6131,18 +6131,18 @@
         <v>250</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D191" s="5">
         <v>2018</v>
@@ -6151,12 +6151,12 @@
         <v>91</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>7</v>
@@ -6171,55 +6171,55 @@
         <v>139</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D193" s="5">
         <v>2019</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D194" s="5">
         <v>2011</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>7</v>
@@ -6234,12 +6234,12 @@
         <v>204</v>
       </c>
       <c r="F195" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>7</v>
@@ -6254,52 +6254,52 @@
         <v>88</v>
       </c>
       <c r="F196" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="D197" s="5">
         <v>2004</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D198" s="5">
         <v>2004</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F198" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>7</v>
@@ -6314,18 +6314,18 @@
         <v>144</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D200" s="5">
         <v>2015</v>
@@ -6334,150 +6334,150 @@
         <v>176</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D201" s="5">
         <v>2016</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D202" s="5">
         <v>1952</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D203" s="5">
         <v>1992</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D204" s="5">
         <v>1993</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D205" s="5">
         <v>2012</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D206" s="5">
         <v>2015</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F206" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>7</v>
@@ -6492,15 +6492,15 @@
         <v>110</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>7</v>
@@ -6515,15 +6515,15 @@
         <v>110</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>7</v>
@@ -6538,15 +6538,15 @@
         <v>110</v>
       </c>
       <c r="F209" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>7</v>
@@ -6561,38 +6561,38 @@
         <v>115</v>
       </c>
       <c r="F210" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D211" s="5">
         <v>2018</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>7</v>
@@ -6607,205 +6607,205 @@
         <v>69</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D213" s="5">
         <v>1999</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G213" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D214" s="5">
         <v>2000</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F214" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D215" s="5">
         <v>2001</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D216" s="5">
         <v>2005</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D217" s="5">
         <v>2007</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D218" s="5">
         <v>2008</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D219" s="5">
         <v>2009</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D220" s="5">
         <v>2011</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G220" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D221" s="5">
         <v>2019</v>
@@ -6814,15 +6814,15 @@
         <v>96</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>49</v>
@@ -6837,15 +6837,15 @@
         <v>96</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G222" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>49</v>
@@ -6860,84 +6860,84 @@
         <v>98</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D224" s="5">
         <v>2006</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G224" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D225" s="5">
         <v>2008</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D226" s="5">
         <v>2010</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G226" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>7</v>
@@ -6952,38 +6952,38 @@
         <v>24</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G227" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D228" s="5">
         <v>2012</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>7</v>
@@ -6998,98 +6998,98 @@
         <v>206</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D230" s="5">
         <v>2017</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D231" s="5">
         <v>2017</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D232" s="5">
         <v>2016</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D233" s="5">
         <v>1941</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D234" s="5">
         <v>2015</v>
@@ -7098,18 +7098,18 @@
         <v>228</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D235" s="5">
         <v>2020</v>
@@ -7118,12 +7118,12 @@
         <v>129</v>
       </c>
       <c r="F235" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>7</v>
@@ -7138,12 +7138,12 @@
         <v>74</v>
       </c>
       <c r="F236" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>7</v>
@@ -7158,32 +7158,32 @@
         <v>80</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D238" s="5">
         <v>2019</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>7</v>
@@ -7198,15 +7198,15 @@
         <v>112</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G239" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>7</v>
@@ -7221,41 +7221,41 @@
         <v>112</v>
       </c>
       <c r="F240" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G240" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D241" s="5">
         <v>1998</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F241" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D242" s="5">
         <v>2009</v>
@@ -7264,18 +7264,18 @@
         <v>188</v>
       </c>
       <c r="F242" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D243" s="5">
         <v>2006</v>
@@ -7284,15 +7284,15 @@
         <v>72</v>
       </c>
       <c r="F243" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G243" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>7</v>
@@ -7307,15 +7307,15 @@
         <v>129</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G244" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B245" s="7" t="s">
         <v>7</v>
@@ -7330,21 +7330,21 @@
         <v>129</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B246" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D246" s="5">
         <v>2014</v>
@@ -7353,78 +7353,78 @@
         <v>187</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D247" s="5">
         <v>2019</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F247" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B248" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D248" s="5">
         <v>2018</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D249" s="5">
         <v>2010</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F249" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D250" s="5">
         <v>2018</v>
@@ -7433,12 +7433,12 @@
         <v>216</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B251" s="7" t="s">
         <v>7</v>
@@ -7453,32 +7453,32 @@
         <v>223</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B252" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D252" s="5">
         <v>2014</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F252" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>49</v>
@@ -7493,12 +7493,12 @@
         <v>236</v>
       </c>
       <c r="F253" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>7</v>
@@ -7513,38 +7513,38 @@
         <v>200</v>
       </c>
       <c r="F254" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D255" s="5">
         <v>2020</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F255" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D256" s="5">
         <v>2006</v>
@@ -7553,52 +7553,52 @@
         <v>218</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D257" s="5">
         <v>2002</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F257" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B258" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D258" s="5">
         <v>2018</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F258" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>7</v>
@@ -7613,15 +7613,15 @@
         <v>47</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B260" s="7" t="s">
         <v>7</v>
@@ -7636,15 +7636,15 @@
         <v>139</v>
       </c>
       <c r="F260" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G260" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>7</v>
@@ -7659,15 +7659,15 @@
         <v>139</v>
       </c>
       <c r="F261" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G261" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>7</v>
@@ -7682,15 +7682,15 @@
         <v>139</v>
       </c>
       <c r="F262" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G262" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B263" s="7" t="s">
         <v>7</v>
@@ -7705,35 +7705,35 @@
         <v>240</v>
       </c>
       <c r="F263" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D264" s="5">
         <v>2019</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F264" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>7</v>
@@ -7748,12 +7748,12 @@
         <v>172</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>7</v>
@@ -7768,72 +7768,72 @@
         <v>218</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B267" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D267" s="5">
         <v>2010</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F267" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D268" s="5">
         <v>2007</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F268" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D269" s="5">
         <v>2016</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F269" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B270" s="7" t="s">
         <v>7</v>
@@ -7848,15 +7848,15 @@
         <v>91</v>
       </c>
       <c r="F270" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G270" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>49</v>
@@ -7871,12 +7871,12 @@
         <v>170</v>
       </c>
       <c r="F271" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B272" s="7" t="s">
         <v>7</v>
@@ -7891,15 +7891,15 @@
         <v>166</v>
       </c>
       <c r="F272" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G272" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B273" s="7" t="s">
         <v>7</v>
@@ -7914,12 +7914,12 @@
         <v>55</v>
       </c>
       <c r="F273" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>7</v>
@@ -7934,38 +7934,38 @@
         <v>227</v>
       </c>
       <c r="F274" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B275" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D275" s="5">
         <v>2018</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F275" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B276" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D276" s="5">
         <v>2015</v>
@@ -7974,55 +7974,55 @@
         <v>214</v>
       </c>
       <c r="F276" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G276" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D277" s="5">
         <v>2017</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F277" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B278" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D278" s="5">
         <v>2007</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F278" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B279" s="7" t="s">
         <v>7</v>
@@ -8037,32 +8037,32 @@
         <v>230</v>
       </c>
       <c r="F279" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D280" s="5">
         <v>2004</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F280" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B281" s="7" t="s">
         <v>7</v>
@@ -8077,32 +8077,32 @@
         <v>194</v>
       </c>
       <c r="F281" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B282" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D282" s="5">
         <v>1998</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F282" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>7</v>
@@ -8117,12 +8117,12 @@
         <v>190</v>
       </c>
       <c r="F283" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B284" s="7" t="s">
         <v>49</v>
@@ -8137,15 +8137,15 @@
         <v>119</v>
       </c>
       <c r="F284" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G284" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B285" s="7" t="s">
         <v>49</v>
@@ -8160,12 +8160,12 @@
         <v>168</v>
       </c>
       <c r="F285" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B286" s="7" t="s">
         <v>7</v>
@@ -8180,55 +8180,55 @@
         <v>78</v>
       </c>
       <c r="F286" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B287" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D287" s="5">
         <v>2016</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F287" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G287" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B288" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D288" s="5">
         <v>2010</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F288" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>7</v>
@@ -8243,15 +8243,15 @@
         <v>69</v>
       </c>
       <c r="F289" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B290" s="7" t="s">
         <v>7</v>
@@ -8266,18 +8266,18 @@
         <v>216</v>
       </c>
       <c r="F290" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B291" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D291" s="5">
         <v>2019</v>
@@ -8286,18 +8286,18 @@
         <v>67</v>
       </c>
       <c r="F291" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D292" s="5">
         <v>2018</v>
@@ -8306,35 +8306,35 @@
         <v>59</v>
       </c>
       <c r="F292" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G292" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B293" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D293" s="5">
         <v>2018</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F293" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B294" s="7" t="s">
         <v>7</v>
@@ -8349,55 +8349,55 @@
         <v>44</v>
       </c>
       <c r="F294" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B295" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D295" s="5">
         <v>2017</v>
       </c>
       <c r="E295" s="9" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F295" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G295" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B296" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D296" s="5">
         <v>2019</v>
       </c>
       <c r="E296" s="9" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F296" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B297" s="7" t="s">
         <v>7</v>
@@ -8412,32 +8412,32 @@
         <v>40</v>
       </c>
       <c r="F297" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D298" s="5">
         <v>2019</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F298" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B299" s="7" t="s">
         <v>49</v>
@@ -8452,18 +8452,18 @@
         <v>234</v>
       </c>
       <c r="F299" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="B300" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D300" s="5">
         <v>2016</v>
@@ -8472,12 +8472,12 @@
         <v>32</v>
       </c>
       <c r="F300" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B301" s="7" t="s">
         <v>7</v>
@@ -8492,98 +8492,98 @@
         <v>76</v>
       </c>
       <c r="F301" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B302" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D302" s="5">
         <v>2018</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F302" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B303" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D303" s="5">
         <v>2018</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F303" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D304" s="5">
         <v>2017</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F304" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G304" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D305" s="5">
         <v>2020</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F305" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B306" s="7" t="s">
         <v>7</v>
@@ -8598,12 +8598,12 @@
         <v>63</v>
       </c>
       <c r="F306" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B307" s="7" t="s">
         <v>7</v>
@@ -8618,15 +8618,15 @@
         <v>121</v>
       </c>
       <c r="F307" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G307" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B308" s="7" t="s">
         <v>7</v>
@@ -8641,15 +8641,15 @@
         <v>121</v>
       </c>
       <c r="F308" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G308" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B309" s="7" t="s">
         <v>7</v>
@@ -8664,38 +8664,38 @@
         <v>121</v>
       </c>
       <c r="F309" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G309" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B310" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D310" s="5">
         <v>2019</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F310" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G310" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B311" s="7" t="s">
         <v>7</v>
@@ -8710,15 +8710,15 @@
         <v>121</v>
       </c>
       <c r="F311" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G311" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>7</v>
@@ -8733,15 +8733,15 @@
         <v>84</v>
       </c>
       <c r="F312" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G312" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B313" s="7" t="s">
         <v>7</v>
@@ -8756,55 +8756,55 @@
         <v>125</v>
       </c>
       <c r="F313" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G313" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B314" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D314" s="5">
         <v>2015</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F314" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B315" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D315" s="5">
         <v>2012</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F315" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B316" s="7" t="s">
         <v>7</v>
@@ -8819,21 +8819,21 @@
         <v>59</v>
       </c>
       <c r="F316" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G316" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B317" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D317" s="5">
         <v>2019</v>
@@ -8842,15 +8842,15 @@
         <v>59</v>
       </c>
       <c r="F317" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G317" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B318" s="7" t="s">
         <v>7</v>
@@ -8865,7 +8865,7 @@
         <v>246</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/database.xlsx
+++ b/src/data/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\DABAD\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E485BA-F752-4221-868E-131C7FEB89E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBE93F9-83F4-4E56-8290-686D2F795E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="554">
   <si>
     <t>Title</t>
   </si>
@@ -1654,6 +1654,42 @@
   </si>
   <si>
     <t>Shark Tale</t>
+  </si>
+  <si>
+    <t>House of Gucci</t>
+  </si>
+  <si>
+    <t>Judas and the Black Messiah</t>
+  </si>
+  <si>
+    <t>Shaka King</t>
+  </si>
+  <si>
+    <t>Rocketman</t>
+  </si>
+  <si>
+    <t>Lady Bird</t>
+  </si>
+  <si>
+    <t>Greta Gerwig</t>
+  </si>
+  <si>
+    <t>Bad Times at the El Royale</t>
+  </si>
+  <si>
+    <t>Drew Goddard</t>
+  </si>
+  <si>
+    <t>Hans Zimmer: Live in Prague</t>
+  </si>
+  <si>
+    <t>John Williams: Live in Vienna</t>
+  </si>
+  <si>
+    <t>Tim Van Someren</t>
+  </si>
+  <si>
+    <t>Michael Beyer</t>
   </si>
 </sst>
 </file>
@@ -2044,11 +2080,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J318"/>
+  <dimension ref="A1:J325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C331" sqref="C331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,19 +2397,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>131</v>
+        <v>548</v>
       </c>
       <c r="D15" s="5">
-        <v>2005</v>
+        <v>2018</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>129</v>
+        <v>549</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2381,19 +2414,22 @@
         <v>416</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>522</v>
+        <v>131</v>
       </c>
       <c r="D16" s="5">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>516</v>
+        <v>129</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2401,22 +2437,19 @@
         <v>416</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>282</v>
+        <v>522</v>
       </c>
       <c r="D17" s="5">
-        <v>1973</v>
+        <v>2016</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>281</v>
+        <v>516</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2424,19 +2457,22 @@
         <v>416</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="D18" s="5">
-        <v>2017</v>
+        <v>1973</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2444,16 +2480,16 @@
         <v>416</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="D19" s="5">
         <v>2017</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>420</v>
@@ -2467,13 +2503,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D20" s="5">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>420</v>
@@ -2484,16 +2520,16 @@
         <v>416</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="D21" s="5">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>420</v>
@@ -2504,16 +2540,16 @@
         <v>416</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>332</v>
+        <v>241</v>
       </c>
       <c r="D22" s="5">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>333</v>
+        <v>242</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>420</v>
@@ -2527,19 +2563,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="D23" s="5">
-        <v>1970</v>
+        <v>2007</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2550,16 +2583,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="D24" s="5">
-        <v>2014</v>
+        <v>1970</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2567,16 +2603,16 @@
         <v>416</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>486</v>
+        <v>211</v>
       </c>
       <c r="D25" s="5">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>487</v>
+        <v>212</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>420</v>
@@ -2590,13 +2626,13 @@
         <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>116</v>
+        <v>486</v>
       </c>
       <c r="D26" s="5">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>117</v>
+        <v>487</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>420</v>
@@ -2607,21 +2643,18 @@
         <v>416</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="D27" s="5">
-        <v>1982</v>
+        <v>2018</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G27" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -2633,15 +2666,18 @@
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>427</v>
+        <v>177</v>
       </c>
       <c r="D28" s="5">
-        <v>2019</v>
+        <v>1982</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>428</v>
+        <v>170</v>
       </c>
       <c r="F28" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -2653,13 +2689,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="D29" s="5">
         <v>2019</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>420</v>
@@ -2673,13 +2709,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>209</v>
+        <v>401</v>
       </c>
       <c r="D30" s="5">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>210</v>
+        <v>402</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>420</v>
@@ -2693,13 +2729,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="D31" s="5">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>420</v>
@@ -2710,16 +2746,16 @@
         <v>416</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>494</v>
+        <v>271</v>
       </c>
       <c r="D32" s="5">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>496</v>
+        <v>272</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>420</v>
@@ -2733,13 +2769,13 @@
         <v>49</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>197</v>
+        <v>494</v>
       </c>
       <c r="D33" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>198</v>
+        <v>496</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>420</v>
@@ -2750,21 +2786,18 @@
         <v>416</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>409</v>
+        <v>197</v>
       </c>
       <c r="D34" s="5">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>410</v>
+        <v>198</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G34" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -2776,15 +2809,18 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>243</v>
+        <v>409</v>
       </c>
       <c r="D35" s="5">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="F35" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -2796,13 +2832,13 @@
         <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>491</v>
+        <v>243</v>
       </c>
       <c r="D36" s="5">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>420</v>
@@ -2816,13 +2852,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>322</v>
+        <v>491</v>
       </c>
       <c r="D37" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>420</v>
@@ -2836,18 +2872,15 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c r="D38" s="5">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G38" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -2856,18 +2889,21 @@
         <v>416</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="D39" s="5">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="F39" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -2876,22 +2912,19 @@
         <v>416</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D40" s="5">
-        <v>1972</v>
+        <v>2004</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2902,16 +2935,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D41" s="5">
-        <v>2018</v>
+        <v>1972</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2922,13 +2958,13 @@
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>536</v>
+        <v>283</v>
       </c>
       <c r="D42" s="5">
-        <v>1989</v>
+        <v>2018</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>429</v>
+        <v>284</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>420</v>
@@ -2942,13 +2978,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>50</v>
+        <v>536</v>
       </c>
       <c r="D43" s="5">
-        <v>1978</v>
+        <v>1989</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>52</v>
+        <v>429</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>420</v>
@@ -2962,18 +2998,15 @@
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="D44" s="5">
-        <v>2010</v>
+        <v>1978</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G44" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -2985,10 +3018,10 @@
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D45" s="5">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>259</v>
@@ -3008,13 +3041,13 @@
         <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="D46" s="5">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>422</v>
@@ -3031,13 +3064,13 @@
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D47" s="5">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>422</v>
@@ -3054,10 +3087,10 @@
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D48" s="5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>330</v>
@@ -3077,13 +3110,13 @@
         <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>408</v>
+        <v>329</v>
       </c>
       <c r="D49" s="5">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>422</v>
@@ -3100,19 +3133,19 @@
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>161</v>
+        <v>408</v>
       </c>
       <c r="D50" s="5">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>162</v>
+        <v>407</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -3120,19 +3153,22 @@
         <v>416</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>387</v>
+        <v>161</v>
       </c>
       <c r="D51" s="5">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>389</v>
+        <v>162</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -3140,16 +3176,16 @@
         <v>416</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>85</v>
+        <v>387</v>
       </c>
       <c r="D52" s="5">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>420</v>
@@ -3163,13 +3199,13 @@
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>436</v>
+        <v>85</v>
       </c>
       <c r="D53" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>268</v>
+        <v>86</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>420</v>
@@ -3183,13 +3219,13 @@
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>35</v>
+        <v>436</v>
       </c>
       <c r="D54" s="5">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>420</v>
@@ -3203,19 +3239,16 @@
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>278</v>
+        <v>35</v>
       </c>
       <c r="D55" s="5">
-        <v>1971</v>
+        <v>2015</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -3226,16 +3259,19 @@
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>54</v>
+        <v>278</v>
       </c>
       <c r="D56" s="5">
-        <v>1982</v>
+        <v>1971</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -3246,13 +3282,13 @@
         <v>7</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="D57" s="5">
-        <v>2014</v>
+        <v>1982</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>420</v>
@@ -3263,16 +3299,16 @@
         <v>416</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>349</v>
+        <v>178</v>
       </c>
       <c r="D58" s="5">
         <v>2014</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>420</v>
@@ -3283,22 +3319,19 @@
         <v>416</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>14</v>
+        <v>349</v>
       </c>
       <c r="D59" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -3309,10 +3342,10 @@
         <v>7</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60" s="5">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>15</v>
@@ -3332,10 +3365,10 @@
         <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>15</v>
@@ -3355,13 +3388,13 @@
         <v>7</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="D62" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>422</v>
@@ -3378,10 +3411,10 @@
         <v>7</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>397</v>
+        <v>157</v>
       </c>
       <c r="D63" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>153</v>
@@ -3401,16 +3434,19 @@
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="D64" s="5">
         <v>2018</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -3421,13 +3457,13 @@
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D65" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>420</v>
@@ -3441,59 +3477,56 @@
         <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D67" s="5">
         <v>2015</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E67" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="F67" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D68" s="5">
         <v>2019</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E68" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D68" s="5">
-        <v>2013</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>251</v>
-      </c>
       <c r="F68" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -3501,13 +3534,13 @@
         <v>416</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="D69" s="5">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>251</v>
@@ -3524,19 +3557,22 @@
         <v>416</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="D70" s="5">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3544,22 +3580,19 @@
         <v>416</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>366</v>
+        <v>66</v>
       </c>
       <c r="D71" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3567,19 +3600,22 @@
         <v>416</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="D72" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -3590,13 +3626,13 @@
         <v>7</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>346</v>
+        <v>186</v>
       </c>
       <c r="D73" s="5">
-        <v>1997</v>
+        <v>2014</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>348</v>
+        <v>188</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>420</v>
@@ -3610,13 +3646,13 @@
         <v>7</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>191</v>
+        <v>346</v>
       </c>
       <c r="D74" s="5">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>192</v>
+        <v>348</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>420</v>
@@ -3630,13 +3666,13 @@
         <v>7</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>367</v>
+        <v>191</v>
       </c>
       <c r="D75" s="5">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>420</v>
@@ -3647,16 +3683,16 @@
         <v>417</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="D76" s="5">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>308</v>
+        <v>149</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>420</v>
@@ -3667,16 +3703,16 @@
         <v>417</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="D77" s="5">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>420</v>
@@ -3690,13 +3726,13 @@
         <v>7</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="D78" s="5">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>420</v>
@@ -3707,22 +3743,19 @@
         <v>417</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>147</v>
+        <v>550</v>
       </c>
       <c r="D79" s="5">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>146</v>
+        <v>552</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3733,19 +3766,16 @@
         <v>7</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>155</v>
+        <v>439</v>
       </c>
       <c r="D80" s="5">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>153</v>
+        <v>441</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3756,13 +3786,13 @@
         <v>7</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D81" s="5">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>422</v>
@@ -3779,13 +3809,13 @@
         <v>7</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D82" s="5">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>422</v>
@@ -3802,10 +3832,10 @@
         <v>7</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D83" s="5">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>153</v>
@@ -3825,13 +3855,13 @@
         <v>7</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D84" s="5">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>422</v>
@@ -3848,13 +3878,13 @@
         <v>7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D85" s="5">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>422</v>
@@ -3871,13 +3901,13 @@
         <v>7</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D86" s="5">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>422</v>
@@ -3891,19 +3921,22 @@
         <v>416</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>356</v>
+        <v>145</v>
       </c>
       <c r="D87" s="5">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>357</v>
+        <v>146</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3911,19 +3944,22 @@
         <v>416</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D88" s="5">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3931,22 +3967,19 @@
         <v>416</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="D89" s="5">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>424</v>
+        <v>357</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3954,22 +3987,19 @@
         <v>416</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="D90" s="5">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>424</v>
+        <v>174</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3980,10 +4010,10 @@
         <v>7</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D91" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>424</v>
@@ -4003,10 +4033,10 @@
         <v>7</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D92" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>424</v>
@@ -4026,10 +4056,10 @@
         <v>7</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D93" s="5">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>424</v>
@@ -4049,10 +4079,10 @@
         <v>7</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D94" s="5">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>424</v>
@@ -4072,10 +4102,10 @@
         <v>7</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D95" s="5">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>424</v>
@@ -4095,10 +4125,10 @@
         <v>7</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D96" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>424</v>
@@ -4110,7 +4140,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>416</v>
       </c>
@@ -4118,19 +4148,19 @@
         <v>7</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>523</v>
+        <v>341</v>
       </c>
       <c r="D97" s="5">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>524</v>
+        <v>424</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -4141,35 +4171,41 @@
         <v>7</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="D98" s="5">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="D99" s="5">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="F99" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G99" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -4181,13 +4217,13 @@
         <v>7</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>180</v>
+        <v>542</v>
       </c>
       <c r="D100" s="5">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>420</v>
@@ -4198,16 +4234,16 @@
         <v>416</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>527</v>
+        <v>377</v>
       </c>
       <c r="D101" s="5">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>129</v>
+        <v>378</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>420</v>
@@ -4218,22 +4254,19 @@
         <v>416</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>94</v>
+        <v>484</v>
       </c>
       <c r="D102" s="5">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>91</v>
+        <v>485</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -4244,19 +4277,16 @@
         <v>7</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D103" s="5">
-        <v>1989</v>
+        <v>2011</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -4264,22 +4294,19 @@
         <v>416</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>92</v>
+        <v>527</v>
       </c>
       <c r="D104" s="5">
-        <v>1984</v>
+        <v>2010</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -4290,16 +4317,19 @@
         <v>7</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>247</v>
+        <v>94</v>
       </c>
       <c r="D105" s="5">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -4310,16 +4340,19 @@
         <v>7</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>435</v>
+        <v>93</v>
       </c>
       <c r="D106" s="5">
-        <v>2018</v>
+        <v>1989</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>437</v>
+        <v>91</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -4330,13 +4363,13 @@
         <v>7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="D107" s="5">
-        <v>2015</v>
+        <v>1984</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>422</v>
@@ -4353,13 +4386,13 @@
         <v>7</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D108" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>420</v>
@@ -4373,13 +4406,13 @@
         <v>7</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="D109" s="5">
         <v>2018</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>301</v>
+        <v>437</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>420</v>
@@ -4393,16 +4426,19 @@
         <v>7</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="D110" s="5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -4413,19 +4449,16 @@
         <v>7</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="D111" s="5">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -4436,19 +4469,16 @@
         <v>7</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="D112" s="5">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -4459,13 +4489,13 @@
         <v>7</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="D113" s="5">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>420</v>
@@ -4479,13 +4509,13 @@
         <v>49</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="D114" s="5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>515</v>
+        <v>553</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>420</v>
@@ -4499,19 +4529,19 @@
         <v>7</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="D115" s="5">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -4522,19 +4552,19 @@
         <v>7</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="D116" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -4545,13 +4575,13 @@
         <v>7</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>185</v>
+        <v>400</v>
       </c>
       <c r="D117" s="5">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>420</v>
@@ -4562,22 +4592,19 @@
         <v>416</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>99</v>
+        <v>513</v>
       </c>
       <c r="D118" s="5">
-        <v>1993</v>
+        <v>2019</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>91</v>
+        <v>515</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -4588,19 +4615,19 @@
         <v>7</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="D119" s="5">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -4611,19 +4638,16 @@
         <v>7</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>103</v>
+        <v>543</v>
       </c>
       <c r="D120" s="5">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>105</v>
+        <v>544</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -4631,22 +4655,22 @@
         <v>416</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="D121" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -4654,16 +4678,16 @@
         <v>416</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>514</v>
+        <v>185</v>
       </c>
       <c r="D122" s="5">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>516</v>
+        <v>187</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>420</v>
@@ -4677,19 +4701,19 @@
         <v>7</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="D123" s="5">
-        <v>2017</v>
+        <v>1993</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -4700,19 +4724,19 @@
         <v>7</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D124" s="5">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -4720,19 +4744,22 @@
         <v>416</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>350</v>
+        <v>103</v>
       </c>
       <c r="D125" s="5">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -4743,16 +4770,19 @@
         <v>49</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>289</v>
+        <v>106</v>
       </c>
       <c r="D126" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>290</v>
+        <v>104</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -4760,16 +4790,16 @@
         <v>416</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>488</v>
+        <v>49</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>232</v>
+        <v>514</v>
       </c>
       <c r="D127" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>234</v>
+        <v>516</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>420</v>
@@ -4783,15 +4813,18 @@
         <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>510</v>
+        <v>314</v>
       </c>
       <c r="D128" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>376</v>
+        <v>84</v>
       </c>
       <c r="F128" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -4803,15 +4836,18 @@
         <v>7</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>398</v>
+        <v>83</v>
       </c>
       <c r="D129" s="5">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>399</v>
+        <v>84</v>
       </c>
       <c r="F129" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G129" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -4823,13 +4859,13 @@
         <v>49</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>539</v>
+        <v>350</v>
       </c>
       <c r="D130" s="5">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>420</v>
@@ -4843,13 +4879,13 @@
         <v>49</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D131" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>420</v>
@@ -4860,16 +4896,16 @@
         <v>416</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>49</v>
+        <v>488</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>309</v>
+        <v>232</v>
       </c>
       <c r="D132" s="5">
         <v>2016</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>420</v>
@@ -4883,13 +4919,13 @@
         <v>7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>33</v>
+        <v>546</v>
       </c>
       <c r="D133" s="5">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>34</v>
+        <v>547</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>420</v>
@@ -4903,13 +4939,13 @@
         <v>7</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>184</v>
+        <v>510</v>
       </c>
       <c r="D134" s="5">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>98</v>
+        <v>376</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>420</v>
@@ -4923,13 +4959,13 @@
         <v>7</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="D135" s="5">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="F135" s="10" t="s">
         <v>420</v>
@@ -4940,16 +4976,16 @@
         <v>416</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>528</v>
+        <v>295</v>
       </c>
       <c r="D136" s="5">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>420</v>
@@ -4963,18 +4999,15 @@
         <v>49</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>530</v>
+        <v>309</v>
       </c>
       <c r="D137" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>535</v>
+        <v>310</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G137" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -4986,18 +5019,15 @@
         <v>7</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>490</v>
+        <v>33</v>
       </c>
       <c r="D138" s="5">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>492</v>
+        <v>34</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G138" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5009,18 +5039,15 @@
         <v>7</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>438</v>
+        <v>184</v>
       </c>
       <c r="D139" s="5">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>440</v>
+        <v>98</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G139" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5032,19 +5059,16 @@
         <v>7</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="D140" s="5">
-        <v>1964</v>
+        <v>2004</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G140" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -5055,19 +5079,16 @@
         <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>325</v>
+        <v>528</v>
       </c>
       <c r="D141" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -5075,16 +5096,16 @@
         <v>416</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="D142" s="5">
         <v>2015</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>166</v>
+        <v>535</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>422</v>
@@ -5101,13 +5122,13 @@
         <v>7</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>256</v>
+        <v>490</v>
       </c>
       <c r="D143" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>257</v>
+        <v>492</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>422</v>
@@ -5124,19 +5145,19 @@
         <v>7</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>8</v>
+        <v>438</v>
       </c>
       <c r="D144" s="5">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>26</v>
+        <v>440</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -5147,13 +5168,13 @@
         <v>7</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>9</v>
+        <v>489</v>
       </c>
       <c r="D145" s="5">
-        <v>2005</v>
+        <v>1964</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>27</v>
+        <v>493</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>422</v>
@@ -5170,16 +5191,19 @@
         <v>7</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
       <c r="D146" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -5190,13 +5214,13 @@
         <v>7</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>285</v>
+        <v>396</v>
       </c>
       <c r="D147" s="5">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>422</v>
@@ -5213,13 +5237,13 @@
         <v>7</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>538</v>
+        <v>256</v>
       </c>
       <c r="D148" s="5">
         <v>2015</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="F148" s="10" t="s">
         <v>422</v>
@@ -5236,16 +5260,19 @@
         <v>7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>207</v>
+        <v>8</v>
       </c>
       <c r="D149" s="5">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -5256,19 +5283,19 @@
         <v>7</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>540</v>
+        <v>9</v>
       </c>
       <c r="D150" s="5">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="F150" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -5279,13 +5306,13 @@
         <v>7</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>371</v>
+        <v>213</v>
       </c>
       <c r="D151" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>372</v>
+        <v>214</v>
       </c>
       <c r="F151" s="10" t="s">
         <v>420</v>
@@ -5299,15 +5326,18 @@
         <v>7</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>450</v>
+        <v>285</v>
       </c>
       <c r="D152" s="5">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>449</v>
+        <v>286</v>
       </c>
       <c r="F152" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G152" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5319,15 +5349,18 @@
         <v>7</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>28</v>
+        <v>538</v>
       </c>
       <c r="D153" s="5">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="F153" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G153" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5339,13 +5372,13 @@
         <v>7</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D154" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>420</v>
@@ -5359,15 +5392,18 @@
         <v>7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>45</v>
+        <v>540</v>
       </c>
       <c r="D155" s="5">
-        <v>1976</v>
+        <v>2013</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="F155" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G155" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5376,16 +5412,16 @@
         <v>416</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>51</v>
+        <v>371</v>
       </c>
       <c r="D156" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>57</v>
+        <v>372</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>420</v>
@@ -5399,13 +5435,13 @@
         <v>7</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="D157" s="5">
-        <v>1974</v>
+        <v>1990</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>53</v>
+        <v>449</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>420</v>
@@ -5419,13 +5455,13 @@
         <v>7</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="D158" s="5">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>507</v>
+        <v>29</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>420</v>
@@ -5439,18 +5475,15 @@
         <v>7</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="D159" s="5">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G159" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5462,18 +5495,15 @@
         <v>7</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D160" s="5">
-        <v>2009</v>
+        <v>1976</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G160" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5485,13 +5515,13 @@
         <v>49</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>369</v>
+        <v>51</v>
       </c>
       <c r="D161" s="5">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>370</v>
+        <v>57</v>
       </c>
       <c r="F161" s="10" t="s">
         <v>420</v>
@@ -5502,16 +5532,16 @@
         <v>416</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D162" s="5">
-        <v>2018</v>
+        <v>1974</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F162" s="10" t="s">
         <v>420</v>
@@ -5525,13 +5555,13 @@
         <v>7</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="D163" s="5">
-        <v>1975</v>
+        <v>2013</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>225</v>
+        <v>507</v>
       </c>
       <c r="F163" s="10" t="s">
         <v>420</v>
@@ -5545,19 +5575,19 @@
         <v>7</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>468</v>
+        <v>134</v>
       </c>
       <c r="D164" s="5">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>477</v>
+        <v>135</v>
       </c>
       <c r="F164" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5568,19 +5598,19 @@
         <v>7</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>469</v>
+        <v>136</v>
       </c>
       <c r="D165" s="5">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>477</v>
+        <v>135</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5588,22 +5618,19 @@
         <v>416</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>470</v>
+        <v>369</v>
       </c>
       <c r="D166" s="5">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>477</v>
+        <v>370</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G166" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5611,22 +5638,19 @@
         <v>416</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>471</v>
+        <v>48</v>
       </c>
       <c r="D167" s="5">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>477</v>
+        <v>47</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5637,19 +5661,16 @@
         <v>7</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>472</v>
+        <v>224</v>
       </c>
       <c r="D168" s="5">
-        <v>2008</v>
+        <v>1975</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>477</v>
+        <v>225</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G168" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5660,10 +5681,10 @@
         <v>7</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D169" s="5">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>477</v>
@@ -5683,10 +5704,10 @@
         <v>7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D170" s="5">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>477</v>
@@ -5706,10 +5727,10 @@
         <v>7</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D171" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>477</v>
@@ -5729,10 +5750,10 @@
         <v>7</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D172" s="5">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>477</v>
@@ -5752,16 +5773,19 @@
         <v>7</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
       <c r="D173" s="5">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>390</v>
+        <v>477</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G173" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5772,16 +5796,19 @@
         <v>7</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>319</v>
+        <v>473</v>
       </c>
       <c r="D174" s="5">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>320</v>
+        <v>477</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5789,19 +5816,22 @@
         <v>416</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>171</v>
+        <v>474</v>
       </c>
       <c r="D175" s="5">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>172</v>
+        <v>477</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G175" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5812,13 +5842,13 @@
         <v>7</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>158</v>
+        <v>475</v>
       </c>
       <c r="D176" s="5">
         <v>2010</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>146</v>
+        <v>477</v>
       </c>
       <c r="F176" s="10" t="s">
         <v>422</v>
@@ -5835,13 +5865,13 @@
         <v>7</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>159</v>
+        <v>476</v>
       </c>
       <c r="D177" s="5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>160</v>
+        <v>477</v>
       </c>
       <c r="F177" s="10" t="s">
         <v>422</v>
@@ -5858,18 +5888,15 @@
         <v>7</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>267</v>
+        <v>388</v>
       </c>
       <c r="D178" s="5">
         <v>2018</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G178" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5881,19 +5908,16 @@
         <v>7</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="D179" s="5">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G179" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -5901,22 +5925,19 @@
         <v>416</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="D180" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G180" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -5927,13 +5948,13 @@
         <v>7</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="D181" s="5">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="F181" s="10" t="s">
         <v>422</v>
@@ -5950,16 +5971,19 @@
         <v>7</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>430</v>
+        <v>159</v>
       </c>
       <c r="D182" s="5">
-        <v>1987</v>
+        <v>2013</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>431</v>
+        <v>160</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G182" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -5970,19 +5994,19 @@
         <v>7</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D183" s="5">
-        <v>1968</v>
+        <v>2018</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F183" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -5993,16 +6017,19 @@
         <v>7</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D184" s="5">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G184" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -6010,19 +6037,22 @@
         <v>416</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="D185" s="5">
         <v>2015</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G185" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -6033,19 +6063,19 @@
         <v>7</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>411</v>
+        <v>13</v>
       </c>
       <c r="D186" s="5">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F186" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -6056,18 +6086,15 @@
         <v>7</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="D187" s="5">
-        <v>2014</v>
+        <v>1987</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>42</v>
+        <v>431</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G187" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6079,13 +6106,13 @@
         <v>7</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="D188" s="5">
-        <v>1981</v>
+        <v>1968</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="F188" s="10" t="s">
         <v>422</v>
@@ -6102,13 +6129,13 @@
         <v>7</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D189" s="5">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F189" s="10" t="s">
         <v>420</v>
@@ -6119,16 +6146,16 @@
         <v>416</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="D190" s="5">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="F190" s="10" t="s">
         <v>420</v>
@@ -6139,18 +6166,21 @@
         <v>416</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>521</v>
+        <v>411</v>
       </c>
       <c r="D191" s="5">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F191" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G191" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6162,15 +6192,18 @@
         <v>7</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="D192" s="5">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="F192" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G192" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6179,19 +6212,22 @@
         <v>416</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>501</v>
+        <v>90</v>
       </c>
       <c r="D193" s="5">
-        <v>2019</v>
+        <v>1981</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>502</v>
+        <v>91</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G193" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -6199,21 +6235,18 @@
         <v>416</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="D194" s="5">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>344</v>
+        <v>21</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G194" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6225,13 +6258,13 @@
         <v>7</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="D195" s="5">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="F195" s="10" t="s">
         <v>420</v>
@@ -6242,22 +6275,22 @@
         <v>416</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>87</v>
+        <v>521</v>
       </c>
       <c r="D196" s="5">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F196" s="10" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>416</v>
       </c>
@@ -6265,13 +6298,13 @@
         <v>7</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>541</v>
+        <v>140</v>
       </c>
       <c r="D197" s="5">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>482</v>
+        <v>139</v>
       </c>
       <c r="F197" s="10" t="s">
         <v>420</v>
@@ -6282,16 +6315,16 @@
         <v>416</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>354</v>
+        <v>501</v>
       </c>
       <c r="D198" s="5">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>353</v>
+        <v>502</v>
       </c>
       <c r="F198" s="10" t="s">
         <v>420</v>
@@ -6302,18 +6335,21 @@
         <v>416</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>143</v>
+        <v>343</v>
       </c>
       <c r="D199" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>144</v>
+        <v>344</v>
       </c>
       <c r="F199" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G199" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6325,18 +6361,15 @@
         <v>7</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>442</v>
+        <v>545</v>
       </c>
       <c r="D200" s="5">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G200" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6348,18 +6381,15 @@
         <v>7</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="D201" s="5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G201" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6371,19 +6401,19 @@
         <v>7</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>432</v>
+        <v>87</v>
       </c>
       <c r="D202" s="5">
-        <v>1952</v>
+        <v>2011</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>434</v>
+        <v>88</v>
       </c>
       <c r="F202" s="10" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>416</v>
       </c>
@@ -6391,19 +6421,16 @@
         <v>7</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>403</v>
+        <v>541</v>
       </c>
       <c r="D203" s="5">
-        <v>1992</v>
+        <v>2004</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G203" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -6414,19 +6441,16 @@
         <v>7</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="D204" s="5">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G204" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -6437,18 +6461,15 @@
         <v>7</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>412</v>
+        <v>143</v>
       </c>
       <c r="D205" s="5">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>414</v>
+        <v>144</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G205" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6460,13 +6481,13 @@
         <v>7</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="D206" s="5">
         <v>2015</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>414</v>
+        <v>176</v>
       </c>
       <c r="F206" s="10" t="s">
         <v>422</v>
@@ -6483,19 +6504,19 @@
         <v>7</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="D207" s="5">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="F207" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -6506,19 +6527,16 @@
         <v>7</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>108</v>
+        <v>432</v>
       </c>
       <c r="D208" s="5">
-        <v>2004</v>
+        <v>1952</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>110</v>
+        <v>434</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G208" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -6529,13 +6547,13 @@
         <v>7</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="D209" s="5">
-        <v>2007</v>
+        <v>1992</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>110</v>
+        <v>404</v>
       </c>
       <c r="F209" s="10" t="s">
         <v>422</v>
@@ -6552,19 +6570,19 @@
         <v>7</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>114</v>
+        <v>405</v>
       </c>
       <c r="D210" s="5">
-        <v>2017</v>
+        <v>1993</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>115</v>
+        <v>406</v>
       </c>
       <c r="F210" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -6575,19 +6593,19 @@
         <v>7</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="D211" s="5">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="F211" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6598,19 +6616,19 @@
         <v>7</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>68</v>
+        <v>413</v>
       </c>
       <c r="D212" s="5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>69</v>
+        <v>414</v>
       </c>
       <c r="F212" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -6621,13 +6639,13 @@
         <v>7</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>460</v>
+        <v>107</v>
       </c>
       <c r="D213" s="5">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="F213" s="10" t="s">
         <v>422</v>
@@ -6644,13 +6662,13 @@
         <v>7</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>461</v>
+        <v>108</v>
       </c>
       <c r="D214" s="5">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="F214" s="10" t="s">
         <v>422</v>
@@ -6667,13 +6685,13 @@
         <v>7</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>462</v>
+        <v>109</v>
       </c>
       <c r="D215" s="5">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="F215" s="10" t="s">
         <v>422</v>
@@ -6690,19 +6708,19 @@
         <v>7</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>463</v>
+        <v>114</v>
       </c>
       <c r="D216" s="5">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>313</v>
+        <v>115</v>
       </c>
       <c r="F216" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6713,13 +6731,13 @@
         <v>7</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>464</v>
+        <v>362</v>
       </c>
       <c r="D217" s="5">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="F217" s="10" t="s">
         <v>422</v>
@@ -6736,13 +6754,13 @@
         <v>7</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>465</v>
+        <v>68</v>
       </c>
       <c r="D218" s="5">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c r="F218" s="10" t="s">
         <v>422</v>
@@ -6759,10 +6777,10 @@
         <v>7</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D219" s="5">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="E219" s="9" t="s">
         <v>313</v>
@@ -6782,10 +6800,10 @@
         <v>7</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D220" s="5">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E220" s="9" t="s">
         <v>313</v>
@@ -6802,22 +6820,22 @@
         <v>416</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="D221" s="5">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F221" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -6825,16 +6843,16 @@
         <v>416</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>95</v>
+        <v>463</v>
       </c>
       <c r="D222" s="5">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F222" s="10" t="s">
         <v>422</v>
@@ -6848,16 +6866,16 @@
         <v>416</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>97</v>
+        <v>464</v>
       </c>
       <c r="D223" s="5">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="F223" s="10" t="s">
         <v>422</v>
@@ -6874,13 +6892,13 @@
         <v>7</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D224" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>459</v>
+        <v>313</v>
       </c>
       <c r="F224" s="10" t="s">
         <v>422</v>
@@ -6897,13 +6915,13 @@
         <v>7</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D225" s="5">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="F225" s="10" t="s">
         <v>422</v>
@@ -6920,13 +6938,13 @@
         <v>7</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="D226" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="F226" s="10" t="s">
         <v>422</v>
@@ -6940,22 +6958,22 @@
         <v>416</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>231</v>
+        <v>483</v>
       </c>
       <c r="D227" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F227" s="10" t="s">
         <v>422</v>
       </c>
       <c r="G227" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -6963,16 +6981,16 @@
         <v>416</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>456</v>
+        <v>95</v>
       </c>
       <c r="D228" s="5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>457</v>
+        <v>96</v>
       </c>
       <c r="F228" s="10" t="s">
         <v>422</v>
@@ -6981,24 +6999,27 @@
         <v>422</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="D229" s="5">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G229" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -7009,16 +7030,19 @@
         <v>7</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>299</v>
+        <v>458</v>
       </c>
       <c r="D230" s="5">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>300</v>
+        <v>459</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G230" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -7029,16 +7053,19 @@
         <v>7</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="D231" s="5">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>498</v>
+        <v>284</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G231" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -7049,16 +7076,19 @@
         <v>7</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>287</v>
+        <v>455</v>
       </c>
       <c r="D232" s="5">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G232" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -7069,16 +7099,19 @@
         <v>7</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>345</v>
+        <v>231</v>
       </c>
       <c r="D233" s="5">
-        <v>1941</v>
+        <v>2014</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>347</v>
+        <v>24</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G233" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -7089,19 +7122,22 @@
         <v>7</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>379</v>
+        <v>456</v>
       </c>
       <c r="D234" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>228</v>
+        <v>457</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="G234" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>416</v>
       </c>
@@ -7109,13 +7145,13 @@
         <v>7</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
       <c r="D235" s="5">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="F235" s="10" t="s">
         <v>420</v>
@@ -7129,13 +7165,13 @@
         <v>7</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="D236" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="F236" s="10" t="s">
         <v>420</v>
@@ -7149,13 +7185,13 @@
         <v>7</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="D237" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>80</v>
+        <v>498</v>
       </c>
       <c r="F237" s="10" t="s">
         <v>420</v>
@@ -7169,13 +7205,13 @@
         <v>7</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>533</v>
+        <v>287</v>
       </c>
       <c r="D238" s="5">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>537</v>
+        <v>288</v>
       </c>
       <c r="F238" s="10" t="s">
         <v>420</v>
@@ -7189,19 +7225,16 @@
         <v>7</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>111</v>
+        <v>345</v>
       </c>
       <c r="D239" s="5">
-        <v>2012</v>
+        <v>1941</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G239" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -7212,19 +7245,16 @@
         <v>7</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>113</v>
+        <v>379</v>
       </c>
       <c r="D240" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="F240" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G240" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -7232,16 +7262,16 @@
         <v>416</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="D241" s="5">
-        <v>1998</v>
+        <v>2020</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>393</v>
+        <v>129</v>
       </c>
       <c r="F241" s="10" t="s">
         <v>420</v>
@@ -7255,13 +7285,13 @@
         <v>7</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>532</v>
+        <v>73</v>
       </c>
       <c r="D242" s="5">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="F242" s="10" t="s">
         <v>420</v>
@@ -7275,18 +7305,15 @@
         <v>7</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="D243" s="5">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F243" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G243" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7298,19 +7325,16 @@
         <v>7</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>128</v>
+        <v>533</v>
       </c>
       <c r="D244" s="5">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>129</v>
+        <v>537</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G244" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -7321,13 +7345,13 @@
         <v>7</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D245" s="5">
         <v>2012</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F245" s="10" t="s">
         <v>422</v>
@@ -7341,19 +7365,22 @@
         <v>416</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>273</v>
+        <v>113</v>
       </c>
       <c r="D246" s="5">
         <v>2014</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G246" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -7361,16 +7388,16 @@
         <v>416</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>317</v>
+        <v>453</v>
       </c>
       <c r="D247" s="5">
-        <v>2019</v>
+        <v>1998</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>318</v>
+        <v>393</v>
       </c>
       <c r="F247" s="10" t="s">
         <v>420</v>
@@ -7384,13 +7411,13 @@
         <v>7</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>385</v>
+        <v>532</v>
       </c>
       <c r="D248" s="5">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>386</v>
+        <v>188</v>
       </c>
       <c r="F248" s="10" t="s">
         <v>420</v>
@@ -7401,18 +7428,21 @@
         <v>416</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>297</v>
+        <v>480</v>
       </c>
       <c r="D249" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="F249" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G249" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7424,16 +7454,19 @@
         <v>7</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>380</v>
+        <v>128</v>
       </c>
       <c r="D250" s="5">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G250" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -7444,16 +7477,19 @@
         <v>7</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="D251" s="5">
-        <v>1985</v>
+        <v>2012</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G251" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -7464,13 +7500,13 @@
         <v>49</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="D252" s="5">
         <v>2014</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="F252" s="10" t="s">
         <v>420</v>
@@ -7481,16 +7517,16 @@
         <v>416</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>235</v>
+        <v>317</v>
       </c>
       <c r="D253" s="5">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>236</v>
+        <v>318</v>
       </c>
       <c r="F253" s="10" t="s">
         <v>420</v>
@@ -7504,13 +7540,13 @@
         <v>7</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>199</v>
+        <v>385</v>
       </c>
       <c r="D254" s="5">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>200</v>
+        <v>386</v>
       </c>
       <c r="F254" s="10" t="s">
         <v>420</v>
@@ -7524,13 +7560,13 @@
         <v>49</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>503</v>
+        <v>297</v>
       </c>
       <c r="D255" s="5">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>399</v>
+        <v>298</v>
       </c>
       <c r="F255" s="10" t="s">
         <v>420</v>
@@ -7544,13 +7580,13 @@
         <v>7</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="D256" s="5">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F256" s="10" t="s">
         <v>420</v>
@@ -7564,13 +7600,13 @@
         <v>7</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>351</v>
+        <v>222</v>
       </c>
       <c r="D257" s="5">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>352</v>
+        <v>223</v>
       </c>
       <c r="F257" s="10" t="s">
         <v>420</v>
@@ -7581,16 +7617,16 @@
         <v>416</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="D258" s="5">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>395</v>
+        <v>301</v>
       </c>
       <c r="F258" s="10" t="s">
         <v>420</v>
@@ -7601,22 +7637,19 @@
         <v>416</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="D259" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G259" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7627,19 +7660,16 @@
         <v>7</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D260" s="5">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="F260" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G260" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7647,22 +7677,19 @@
         <v>416</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>141</v>
+        <v>503</v>
       </c>
       <c r="D261" s="5">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>139</v>
+        <v>399</v>
       </c>
       <c r="F261" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G261" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7673,19 +7700,16 @@
         <v>7</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>142</v>
+        <v>433</v>
       </c>
       <c r="D262" s="5">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="F262" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G262" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -7696,18 +7720,15 @@
         <v>7</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>239</v>
+        <v>351</v>
       </c>
       <c r="D263" s="5">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>240</v>
+        <v>352</v>
       </c>
       <c r="F263" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G263" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7719,13 +7740,13 @@
         <v>7</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="D264" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="F264" s="10" t="s">
         <v>420</v>
@@ -7739,16 +7760,19 @@
         <v>7</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="D265" s="5">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G265" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -7759,16 +7783,19 @@
         <v>7</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="D266" s="5">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G266" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -7776,19 +7803,22 @@
         <v>417</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>305</v>
+        <v>141</v>
       </c>
       <c r="D267" s="5">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="F267" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G267" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -7799,16 +7829,19 @@
         <v>7</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>447</v>
+        <v>142</v>
       </c>
       <c r="D268" s="5">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>446</v>
+        <v>139</v>
       </c>
       <c r="F268" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G268" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -7816,18 +7849,21 @@
         <v>417</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>499</v>
+        <v>239</v>
       </c>
       <c r="D269" s="5">
         <v>2016</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="F269" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G269" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7839,19 +7875,16 @@
         <v>7</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>100</v>
+        <v>443</v>
       </c>
       <c r="D270" s="5">
-        <v>1997</v>
+        <v>2019</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>91</v>
+        <v>445</v>
       </c>
       <c r="F270" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G270" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -7859,16 +7892,16 @@
         <v>417</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="D271" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F271" s="10" t="s">
         <v>420</v>
@@ -7882,18 +7915,15 @@
         <v>7</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="D272" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="F272" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G272" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7902,16 +7932,16 @@
         <v>417</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>56</v>
+        <v>305</v>
       </c>
       <c r="D273" s="5">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c r="F273" s="10" t="s">
         <v>420</v>
@@ -7925,13 +7955,13 @@
         <v>7</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="D274" s="5">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>227</v>
+        <v>446</v>
       </c>
       <c r="F274" s="10" t="s">
         <v>420</v>
@@ -7945,13 +7975,13 @@
         <v>49</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>323</v>
+        <v>539</v>
       </c>
       <c r="D275" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>324</v>
+        <v>153</v>
       </c>
       <c r="F275" s="10" t="s">
         <v>420</v>
@@ -7962,21 +7992,18 @@
         <v>417</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="D276" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>214</v>
+        <v>500</v>
       </c>
       <c r="F276" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G276" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7988,16 +8015,19 @@
         <v>7</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="D277" s="5">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>316</v>
+        <v>91</v>
       </c>
       <c r="F277" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G277" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -8005,16 +8035,16 @@
         <v>417</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="D278" s="5">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c r="F278" s="10" t="s">
         <v>420</v>
@@ -8028,19 +8058,22 @@
         <v>7</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="D279" s="5">
-        <v>1965</v>
+        <v>2014</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="F279" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="G279" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>417</v>
       </c>
@@ -8048,13 +8081,13 @@
         <v>7</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>311</v>
+        <v>56</v>
       </c>
       <c r="D280" s="5">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>312</v>
+        <v>55</v>
       </c>
       <c r="F280" s="10" t="s">
         <v>420</v>
@@ -8068,13 +8101,13 @@
         <v>7</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="D281" s="5">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="E281" s="9" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="F281" s="10" t="s">
         <v>420</v>
@@ -8085,16 +8118,16 @@
         <v>416</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>426</v>
+        <v>323</v>
       </c>
       <c r="D282" s="5">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>429</v>
+        <v>324</v>
       </c>
       <c r="F282" s="10" t="s">
         <v>420</v>
@@ -8108,15 +8141,18 @@
         <v>7</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>189</v>
+        <v>425</v>
       </c>
       <c r="D283" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="F283" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G283" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8125,21 +8161,18 @@
         <v>416</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>118</v>
+        <v>315</v>
       </c>
       <c r="D284" s="5">
         <v>2017</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>119</v>
+        <v>316</v>
       </c>
       <c r="F284" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G284" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8148,16 +8181,16 @@
         <v>416</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="D285" s="5">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="F285" s="10" t="s">
         <v>420</v>
@@ -8171,19 +8204,19 @@
         <v>7</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="D286" s="5">
-        <v>1986</v>
+        <v>1965</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="F286" s="10" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>416</v>
       </c>
@@ -8191,18 +8224,15 @@
         <v>7</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="D287" s="5">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="F287" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G287" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8214,13 +8244,13 @@
         <v>7</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>392</v>
+        <v>195</v>
       </c>
       <c r="D288" s="5">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>393</v>
+        <v>194</v>
       </c>
       <c r="F288" s="10" t="s">
         <v>420</v>
@@ -8234,19 +8264,16 @@
         <v>7</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>70</v>
+        <v>426</v>
       </c>
       <c r="D289" s="5">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="F289" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G289" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -8257,13 +8284,13 @@
         <v>7</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="D290" s="5">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="F290" s="10" t="s">
         <v>420</v>
@@ -8274,18 +8301,21 @@
         <v>416</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>355</v>
+        <v>118</v>
       </c>
       <c r="D291" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F291" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G291" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8294,21 +8324,18 @@
         <v>416</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>361</v>
+        <v>167</v>
       </c>
       <c r="D292" s="5">
         <v>2018</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="F292" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G292" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8320,13 +8347,13 @@
         <v>7</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="D293" s="5">
-        <v>2018</v>
+        <v>1986</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="F293" s="10" t="s">
         <v>420</v>
@@ -8340,15 +8367,18 @@
         <v>7</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="D294" s="5">
-        <v>1998</v>
+        <v>2016</v>
       </c>
       <c r="E294" s="9" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="F294" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G294" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8357,21 +8387,18 @@
         <v>416</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>518</v>
+        <v>392</v>
       </c>
       <c r="D295" s="5">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="E295" s="9" t="s">
-        <v>519</v>
+        <v>393</v>
       </c>
       <c r="F295" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G295" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8383,16 +8410,19 @@
         <v>7</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>529</v>
+        <v>70</v>
       </c>
       <c r="D296" s="5">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="E296" s="9" t="s">
-        <v>534</v>
+        <v>69</v>
       </c>
       <c r="F296" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G296" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -8403,13 +8433,13 @@
         <v>7</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="D297" s="5">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="F297" s="10" t="s">
         <v>420</v>
@@ -8423,13 +8453,13 @@
         <v>7</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>509</v>
+        <v>355</v>
       </c>
       <c r="D298" s="5">
         <v>2019</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>508</v>
+        <v>67</v>
       </c>
       <c r="F298" s="10" t="s">
         <v>420</v>
@@ -8440,18 +8470,21 @@
         <v>416</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>233</v>
+        <v>361</v>
       </c>
       <c r="D299" s="5">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="F299" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G299" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8463,13 +8496,13 @@
         <v>7</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="D300" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>32</v>
+        <v>382</v>
       </c>
       <c r="F300" s="10" t="s">
         <v>420</v>
@@ -8483,13 +8516,13 @@
         <v>7</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D301" s="5">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F301" s="10" t="s">
         <v>420</v>
@@ -8500,18 +8533,21 @@
         <v>416</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>373</v>
+        <v>518</v>
       </c>
       <c r="D302" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>374</v>
+        <v>519</v>
       </c>
       <c r="F302" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G302" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8520,16 +8556,16 @@
         <v>416</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>358</v>
+        <v>529</v>
       </c>
       <c r="D303" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>359</v>
+        <v>534</v>
       </c>
       <c r="F303" s="10" t="s">
         <v>420</v>
@@ -8543,19 +8579,16 @@
         <v>7</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="D304" s="5">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="F304" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G304" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
@@ -8563,22 +8596,19 @@
         <v>416</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D305" s="5">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>292</v>
+        <v>508</v>
       </c>
       <c r="F305" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G305" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
@@ -8586,16 +8616,16 @@
         <v>416</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="D306" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="F306" s="10" t="s">
         <v>420</v>
@@ -8609,19 +8639,16 @@
         <v>7</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>126</v>
+        <v>418</v>
       </c>
       <c r="D307" s="5">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="F307" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G307" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -8632,19 +8659,16 @@
         <v>7</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="D308" s="5">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F308" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G308" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -8655,19 +8679,16 @@
         <v>7</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>120</v>
+        <v>373</v>
       </c>
       <c r="D309" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>121</v>
+        <v>374</v>
       </c>
       <c r="F309" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G309" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -8675,22 +8696,19 @@
         <v>416</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>479</v>
+        <v>358</v>
       </c>
       <c r="D310" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>481</v>
+        <v>359</v>
       </c>
       <c r="F310" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G310" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -8701,13 +8719,13 @@
         <v>7</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>122</v>
+        <v>291</v>
       </c>
       <c r="D311" s="5">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="F311" s="10" t="s">
         <v>422</v>
@@ -8721,16 +8739,16 @@
         <v>416</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>123</v>
+        <v>512</v>
       </c>
       <c r="D312" s="5">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>84</v>
+        <v>292</v>
       </c>
       <c r="F312" s="10" t="s">
         <v>422</v>
@@ -8747,19 +8765,16 @@
         <v>7</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="D313" s="5">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="F313" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G313" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -8767,19 +8782,22 @@
         <v>416</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>517</v>
+        <v>126</v>
       </c>
       <c r="D314" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>520</v>
+        <v>121</v>
       </c>
       <c r="F314" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G314" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -8787,19 +8805,22 @@
         <v>416</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>525</v>
+        <v>127</v>
       </c>
       <c r="D315" s="5">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>526</v>
+        <v>121</v>
       </c>
       <c r="F315" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="G315" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -8810,13 +8831,13 @@
         <v>7</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="D316" s="5">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="E316" s="9" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="F316" s="10" t="s">
         <v>422</v>
@@ -8830,16 +8851,16 @@
         <v>416</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>360</v>
+        <v>479</v>
       </c>
       <c r="D317" s="5">
         <v>2019</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>59</v>
+        <v>481</v>
       </c>
       <c r="F317" s="10" t="s">
         <v>422</v>
@@ -8856,21 +8877,176 @@
         <v>7</v>
       </c>
       <c r="C318" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D318" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E318" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F318" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G318" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D319" s="5">
+        <v>2011</v>
+      </c>
+      <c r="E319" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F319" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G319" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D320" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E320" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F320" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G320" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D321" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E321" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="F321" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D322" s="5">
+        <v>2012</v>
+      </c>
+      <c r="E322" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="F322" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D323" s="5">
+        <v>2009</v>
+      </c>
+      <c r="E323" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F323" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G323" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D324" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E324" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F324" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G324" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D318" s="5">
+      <c r="D325" s="5">
         <v>2016</v>
       </c>
-      <c r="E318" s="9" t="s">
+      <c r="E325" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F318" s="10" t="s">
+      <c r="F325" s="10" t="s">
         <v>420</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J318">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J325">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>

--- a/src/data/database.xlsx
+++ b/src/data/database.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\DABAD\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE59750-6752-4F91-84BE-7B13D6D2457B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85476746-5D28-4BBD-AB99-F7E7658019AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="database" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$L$347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">database!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="602">
   <si>
     <t>Title</t>
   </si>
@@ -1795,6 +1795,45 @@
   </si>
   <si>
     <t>Allegiant</t>
+  </si>
+  <si>
+    <t>Free Guy</t>
+  </si>
+  <si>
+    <t>Killing Eve [Season 1]</t>
+  </si>
+  <si>
+    <t>Pheobe Waller Bridge</t>
+  </si>
+  <si>
+    <t>Killing Eve [Season 2]</t>
+  </si>
+  <si>
+    <t>Killing Eve [Season 3]</t>
+  </si>
+  <si>
+    <t>Killing Eve [Season 4]</t>
+  </si>
+  <si>
+    <t>Citizen Kane</t>
+  </si>
+  <si>
+    <t>Orson Welles</t>
+  </si>
+  <si>
+    <t>The Iron Lady</t>
+  </si>
+  <si>
+    <t>Ocean's Eleven</t>
+  </si>
+  <si>
+    <t>Ocean's Twelve</t>
+  </si>
+  <si>
+    <t>Ocean's Thirteen</t>
+  </si>
+  <si>
+    <t>Stephen Soderbergh</t>
   </si>
 </sst>
 </file>
@@ -2185,11 +2224,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L347"/>
+  <dimension ref="A1:L357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E280" sqref="E280"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2404,7 +2443,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>7</v>
@@ -2421,7 +2460,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
@@ -3338,25 +3377,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>254</v>
+        <v>595</v>
       </c>
       <c r="D43" s="5">
-        <v>2013</v>
+        <v>1941</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>255</v>
+        <v>596</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H43" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I43" s="10">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -3367,22 +3400,25 @@
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>559</v>
+        <v>254</v>
       </c>
       <c r="D44" s="5">
-        <v>1985</v>
+        <v>2013</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>560</v>
+        <v>255</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G44" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H44" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I44" s="10">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -3390,25 +3426,25 @@
         <v>416</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>293</v>
+        <v>559</v>
       </c>
       <c r="D45" s="5">
-        <v>2004</v>
+        <v>1985</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>294</v>
+        <v>560</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I45" s="10">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -3416,28 +3452,25 @@
         <v>416</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D46" s="5">
-        <v>1972</v>
+        <v>2004</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I46" s="10">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -3448,22 +3481,25 @@
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D47" s="5">
-        <v>2018</v>
+        <v>1972</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I47" s="10">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -3474,22 +3510,22 @@
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>535</v>
+        <v>283</v>
       </c>
       <c r="D48" s="5">
-        <v>1989</v>
+        <v>2018</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>429</v>
+        <v>284</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I48" s="10">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -3500,22 +3536,22 @@
         <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>50</v>
+        <v>535</v>
       </c>
       <c r="D49" s="5">
-        <v>1978</v>
+        <v>1989</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>52</v>
+        <v>429</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I49" s="10">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -3526,25 +3562,22 @@
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="D50" s="5">
-        <v>2010</v>
+        <v>1978</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H50" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I50" s="10">
-        <v>91</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -3555,10 +3588,10 @@
         <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D51" s="5">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>259</v>
@@ -3573,7 +3606,7 @@
         <v>420</v>
       </c>
       <c r="I51" s="10">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -3584,13 +3617,13 @@
         <v>7</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="D52" s="5">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>422</v>
@@ -3602,7 +3635,7 @@
         <v>420</v>
       </c>
       <c r="I52" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -3613,13 +3646,13 @@
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D53" s="5">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>422</v>
@@ -3631,7 +3664,7 @@
         <v>420</v>
       </c>
       <c r="I53" s="10">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -3642,10 +3675,10 @@
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D54" s="5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>330</v>
@@ -3660,7 +3693,7 @@
         <v>420</v>
       </c>
       <c r="I54" s="10">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -3671,13 +3704,13 @@
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>408</v>
+        <v>329</v>
       </c>
       <c r="D55" s="5">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>422</v>
@@ -3689,7 +3722,7 @@
         <v>420</v>
       </c>
       <c r="I55" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -3700,13 +3733,13 @@
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>161</v>
+        <v>408</v>
       </c>
       <c r="D56" s="5">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>162</v>
+        <v>407</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>422</v>
@@ -3715,10 +3748,10 @@
         <v>422</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I56" s="10">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -3726,25 +3759,28 @@
         <v>416</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>387</v>
+        <v>161</v>
       </c>
       <c r="D57" s="5">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>389</v>
+        <v>162</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I57" s="10">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -3752,16 +3788,16 @@
         <v>416</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>85</v>
+        <v>387</v>
       </c>
       <c r="D58" s="5">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>420</v>
@@ -3770,7 +3806,7 @@
         <v>420</v>
       </c>
       <c r="I58" s="10">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -3778,28 +3814,25 @@
         <v>416</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>558</v>
+        <v>85</v>
       </c>
       <c r="D59" s="5">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I59" s="10">
-        <v>155</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -3807,25 +3840,28 @@
         <v>416</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="D60" s="5">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I60" s="10">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -3836,13 +3872,13 @@
         <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>35</v>
+        <v>436</v>
       </c>
       <c r="D61" s="5">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>422</v>
@@ -3851,7 +3887,7 @@
         <v>420</v>
       </c>
       <c r="I61" s="10">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -3862,25 +3898,22 @@
         <v>7</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>278</v>
+        <v>35</v>
       </c>
       <c r="D62" s="5">
-        <v>1971</v>
+        <v>2015</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I62" s="10">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -3891,22 +3924,25 @@
         <v>7</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>586</v>
+        <v>278</v>
       </c>
       <c r="D63" s="5">
-        <v>2022</v>
+        <v>1971</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>587</v>
+        <v>279</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I63" s="10">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -3917,22 +3953,22 @@
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>54</v>
+        <v>586</v>
       </c>
       <c r="D64" s="5">
-        <v>1982</v>
+        <v>2022</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>55</v>
+        <v>587</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I64" s="10">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -3943,13 +3979,13 @@
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="D65" s="5">
-        <v>2014</v>
+        <v>1982</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>422</v>
@@ -3958,7 +3994,7 @@
         <v>420</v>
       </c>
       <c r="I65" s="10">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -3966,25 +4002,25 @@
         <v>416</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>349</v>
+        <v>178</v>
       </c>
       <c r="D66" s="5">
         <v>2014</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I66" s="10">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -3992,28 +4028,25 @@
         <v>416</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>14</v>
+        <v>349</v>
       </c>
       <c r="D67" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I67" s="10">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -4024,10 +4057,10 @@
         <v>7</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D68" s="5">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>15</v>
@@ -4042,7 +4075,7 @@
         <v>422</v>
       </c>
       <c r="I68" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -4053,10 +4086,10 @@
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>15</v>
@@ -4071,7 +4104,7 @@
         <v>422</v>
       </c>
       <c r="I69" s="10">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -4082,13 +4115,13 @@
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="D70" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>422</v>
@@ -4097,10 +4130,10 @@
         <v>422</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I70" s="10">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -4111,10 +4144,10 @@
         <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>397</v>
+        <v>157</v>
       </c>
       <c r="D71" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>153</v>
@@ -4129,7 +4162,7 @@
         <v>420</v>
       </c>
       <c r="I71" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -4140,22 +4173,25 @@
         <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="D72" s="5">
         <v>2018</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G72" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H72" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I72" s="10">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -4166,22 +4202,22 @@
         <v>7</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D73" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I73" s="10">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -4192,77 +4228,74 @@
         <v>7</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I74" s="10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D75" s="5">
         <v>2015</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E75" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I74" s="10">
+      <c r="F75" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I75" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="3" t="s">
+    <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D76" s="5">
         <v>2019</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E76" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I75" s="10">
+      <c r="F76" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I76" s="10">
         <v>340</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D76" s="5">
-        <v>2013</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="I76" s="10">
-        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -4273,25 +4306,22 @@
         <v>49</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>321</v>
+        <v>589</v>
       </c>
       <c r="D77" s="5">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I77" s="10">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -4302,22 +4332,25 @@
         <v>7</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="D78" s="5">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I78" s="10">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -4328,13 +4361,13 @@
         <v>49</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="D79" s="5">
         <v>2019</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>422</v>
@@ -4346,7 +4379,7 @@
         <v>422</v>
       </c>
       <c r="I79" s="10">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -4357,13 +4390,13 @@
         <v>7</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="D80" s="5">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>422</v>
@@ -4372,7 +4405,7 @@
         <v>420</v>
       </c>
       <c r="I80" s="10">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -4380,25 +4413,28 @@
         <v>416</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="D81" s="5">
-        <v>1997</v>
+        <v>2019</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>348</v>
+        <v>69</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I81" s="10">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -4409,13 +4445,13 @@
         <v>7</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D82" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>422</v>
@@ -4424,7 +4460,7 @@
         <v>420</v>
       </c>
       <c r="I82" s="10">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -4435,22 +4471,22 @@
         <v>7</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="D83" s="5">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I83" s="10">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -4458,16 +4494,16 @@
         <v>416</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>307</v>
+        <v>191</v>
       </c>
       <c r="D84" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>422</v>
@@ -4476,7 +4512,7 @@
         <v>420</v>
       </c>
       <c r="I84" s="10">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -4484,25 +4520,25 @@
         <v>416</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>568</v>
+        <v>367</v>
       </c>
       <c r="D85" s="5">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>393</v>
+        <v>149</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I85" s="10">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -4510,16 +4546,16 @@
         <v>416</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="D86" s="5">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>422</v>
@@ -4528,7 +4564,7 @@
         <v>420</v>
       </c>
       <c r="I86" s="10">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -4539,13 +4575,13 @@
         <v>49</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="D87" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>551</v>
+        <v>393</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>420</v>
@@ -4554,7 +4590,7 @@
         <v>420</v>
       </c>
       <c r="I87" s="10">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -4565,13 +4601,13 @@
         <v>7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="D88" s="5">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>422</v>
@@ -4580,7 +4616,7 @@
         <v>420</v>
       </c>
       <c r="I88" s="10">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -4588,28 +4624,25 @@
         <v>416</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>147</v>
+        <v>549</v>
       </c>
       <c r="D89" s="5">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>146</v>
+        <v>551</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I89" s="10">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -4620,71 +4653,68 @@
         <v>7</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>155</v>
+        <v>439</v>
       </c>
       <c r="D90" s="5">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>153</v>
+        <v>441</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I90" s="10">
-        <v>140</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D91" s="5">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="E91" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I91" s="10">
         <v>153</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="I91" s="10">
-        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D92" s="5">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>422</v>
@@ -4696,21 +4726,21 @@
         <v>422</v>
       </c>
       <c r="I92" s="10">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D93" s="5">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>153</v>
@@ -4725,24 +4755,24 @@
         <v>422</v>
       </c>
       <c r="I93" s="10">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D94" s="5">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>422</v>
@@ -4754,24 +4784,24 @@
         <v>422</v>
       </c>
       <c r="I94" s="10">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D95" s="5">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>422</v>
@@ -4788,19 +4818,19 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D96" s="5">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>422</v>
@@ -4812,88 +4842,91 @@
         <v>422</v>
       </c>
       <c r="I96" s="10">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>356</v>
+        <v>145</v>
       </c>
       <c r="D97" s="5">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>357</v>
+        <v>146</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I97" s="10">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D98" s="5">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I98" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="D99" s="5">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>424</v>
+        <v>357</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I99" s="10">
-        <v>40</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -4901,42 +4934,39 @@
         <v>416</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="D100" s="5">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>424</v>
+        <v>174</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I100" s="10">
-        <v>40</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D101" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>424</v>
@@ -4956,16 +4986,16 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D102" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>424</v>
@@ -4985,16 +5015,16 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D103" s="5">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>424</v>
@@ -5014,16 +5044,16 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D104" s="5">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>424</v>
@@ -5043,16 +5073,16 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D105" s="5">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>424</v>
@@ -5072,16 +5102,16 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D106" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>424</v>
@@ -5099,85 +5129,91 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>522</v>
+        <v>341</v>
       </c>
       <c r="D107" s="5">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>523</v>
+        <v>424</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I107" s="10">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>541</v>
+        <v>342</v>
       </c>
       <c r="D108" s="5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>170</v>
+        <v>424</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I108" s="10">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>377</v>
+        <v>522</v>
       </c>
       <c r="D109" s="5">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>378</v>
+        <v>523</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G109" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H109" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I109" s="10">
-        <v>107</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -5185,16 +5221,16 @@
         <v>416</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="D110" s="5">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>485</v>
+        <v>170</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>422</v>
@@ -5203,7 +5239,7 @@
         <v>420</v>
       </c>
       <c r="I110" s="10">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -5214,13 +5250,13 @@
         <v>7</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="D111" s="5">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>181</v>
+        <v>378</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>422</v>
@@ -5229,7 +5265,7 @@
         <v>420</v>
       </c>
       <c r="I111" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -5240,13 +5276,13 @@
         <v>49</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>526</v>
+        <v>484</v>
       </c>
       <c r="D112" s="5">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>129</v>
+        <v>485</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>422</v>
@@ -5255,7 +5291,7 @@
         <v>420</v>
       </c>
       <c r="I112" s="10">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -5266,25 +5302,22 @@
         <v>7</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="D113" s="5">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H113" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I113" s="10">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -5292,28 +5325,25 @@
         <v>416</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>93</v>
+        <v>526</v>
       </c>
       <c r="D114" s="5">
-        <v>1989</v>
+        <v>2010</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I114" s="10">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -5324,10 +5354,10 @@
         <v>7</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D115" s="5">
-        <v>1984</v>
+        <v>2008</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>91</v>
@@ -5342,7 +5372,7 @@
         <v>422</v>
       </c>
       <c r="I115" s="10">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -5353,22 +5383,25 @@
         <v>7</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="D116" s="5">
-        <v>2015</v>
+        <v>1989</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I116" s="10">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -5379,22 +5412,25 @@
         <v>7</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>435</v>
+        <v>92</v>
       </c>
       <c r="D117" s="5">
-        <v>2018</v>
+        <v>1984</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>437</v>
+        <v>91</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I117" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -5405,25 +5441,22 @@
         <v>7</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="D118" s="5">
         <v>2015</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I118" s="10">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -5434,13 +5467,13 @@
         <v>7</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>237</v>
+        <v>435</v>
       </c>
       <c r="D119" s="5">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>238</v>
+        <v>437</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>422</v>
@@ -5449,7 +5482,7 @@
         <v>420</v>
       </c>
       <c r="I119" s="10">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -5460,22 +5493,25 @@
         <v>7</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>391</v>
+        <v>163</v>
       </c>
       <c r="D120" s="5">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>301</v>
+        <v>164</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I120" s="10">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -5486,13 +5522,13 @@
         <v>7</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="D121" s="5">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>422</v>
@@ -5501,7 +5537,7 @@
         <v>420</v>
       </c>
       <c r="I121" s="10">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -5509,25 +5545,25 @@
         <v>416</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>550</v>
+        <v>391</v>
       </c>
       <c r="D122" s="5">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>552</v>
+        <v>301</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I122" s="10">
-        <v>155</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -5538,25 +5574,22 @@
         <v>7</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="D123" s="5">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I123" s="10">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -5564,28 +5597,25 @@
         <v>416</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>19</v>
+        <v>550</v>
       </c>
       <c r="D124" s="5">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>22</v>
+        <v>552</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H124" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I124" s="10">
-        <v>97</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -5596,22 +5626,25 @@
         <v>7</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>400</v>
+        <v>18</v>
       </c>
       <c r="D125" s="5">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I125" s="10">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -5619,25 +5652,28 @@
         <v>416</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="D126" s="5">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>514</v>
+        <v>22</v>
       </c>
       <c r="F126" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I126" s="10">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -5648,25 +5684,22 @@
         <v>7</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>132</v>
+        <v>400</v>
       </c>
       <c r="D127" s="5">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H127" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I127" s="10">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -5674,16 +5707,16 @@
         <v>416</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="D128" s="5">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="F128" s="9" t="s">
         <v>422</v>
@@ -5692,7 +5725,7 @@
         <v>420</v>
       </c>
       <c r="I128" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -5703,13 +5736,13 @@
         <v>7</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="D129" s="5">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>422</v>
@@ -5721,7 +5754,7 @@
         <v>420</v>
       </c>
       <c r="I129" s="10">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -5732,13 +5765,13 @@
         <v>7</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>185</v>
+        <v>542</v>
       </c>
       <c r="D130" s="5">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>187</v>
+        <v>543</v>
       </c>
       <c r="F130" s="9" t="s">
         <v>422</v>
@@ -5747,7 +5780,7 @@
         <v>420</v>
       </c>
       <c r="I130" s="10">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -5758,13 +5791,13 @@
         <v>7</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="D131" s="5">
-        <v>1993</v>
+        <v>2017</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="F131" s="9" t="s">
         <v>422</v>
@@ -5776,7 +5809,7 @@
         <v>420</v>
       </c>
       <c r="I131" s="10">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -5787,25 +5820,22 @@
         <v>7</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="D132" s="5">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H132" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I132" s="10">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -5816,13 +5846,13 @@
         <v>7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D133" s="5">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>422</v>
@@ -5834,7 +5864,7 @@
         <v>420</v>
       </c>
       <c r="I133" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -5842,16 +5872,16 @@
         <v>416</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D134" s="5">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>422</v>
@@ -5863,7 +5893,7 @@
         <v>420</v>
       </c>
       <c r="I134" s="10">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -5871,25 +5901,28 @@
         <v>416</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>513</v>
+        <v>103</v>
       </c>
       <c r="D135" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>515</v>
+        <v>105</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G135" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H135" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I135" s="10">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -5897,16 +5930,16 @@
         <v>416</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>314</v>
+        <v>106</v>
       </c>
       <c r="D136" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F136" s="9" t="s">
         <v>422</v>
@@ -5918,7 +5951,7 @@
         <v>420</v>
       </c>
       <c r="I136" s="10">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -5926,132 +5959,141 @@
         <v>416</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>83</v>
+        <v>513</v>
       </c>
       <c r="D137" s="5">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>84</v>
+        <v>515</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H137" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I137" s="10">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>350</v>
+        <v>590</v>
       </c>
       <c r="D138" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>98</v>
+        <v>591</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I138" s="10">
-        <v>131</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>289</v>
+        <v>592</v>
       </c>
       <c r="D139" s="5">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>290</v>
+        <v>591</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I139" s="10">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>488</v>
+        <v>7</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>232</v>
+        <v>593</v>
       </c>
       <c r="D140" s="5">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>234</v>
+        <v>591</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I140" s="10">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="D141" s="5">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>546</v>
+        <v>591</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H141" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I141" s="10">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -6062,22 +6104,25 @@
         <v>7</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>509</v>
+        <v>314</v>
       </c>
       <c r="D142" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>376</v>
+        <v>84</v>
       </c>
       <c r="F142" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G142" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H142" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I142" s="10">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -6088,22 +6133,25 @@
         <v>7</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>398</v>
+        <v>83</v>
       </c>
       <c r="D143" s="5">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>399</v>
+        <v>84</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G143" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H143" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I143" s="10">
-        <v>97</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -6114,13 +6162,13 @@
         <v>49</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="D144" s="5">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>296</v>
+        <v>98</v>
       </c>
       <c r="F144" s="9" t="s">
         <v>422</v>
@@ -6129,7 +6177,7 @@
         <v>420</v>
       </c>
       <c r="I144" s="10">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -6140,22 +6188,22 @@
         <v>49</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D145" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I145" s="10">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -6163,16 +6211,16 @@
         <v>416</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>7</v>
+        <v>488</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D146" s="5">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="F146" s="9" t="s">
         <v>422</v>
@@ -6181,7 +6229,7 @@
         <v>420</v>
       </c>
       <c r="I146" s="10">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -6192,13 +6240,13 @@
         <v>7</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>184</v>
+        <v>545</v>
       </c>
       <c r="D147" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>98</v>
+        <v>546</v>
       </c>
       <c r="F147" s="9" t="s">
         <v>422</v>
@@ -6207,7 +6255,7 @@
         <v>420</v>
       </c>
       <c r="I147" s="10">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -6218,22 +6266,22 @@
         <v>7</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D148" s="5">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>448</v>
+        <v>376</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I148" s="10">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -6244,13 +6292,13 @@
         <v>7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>527</v>
+        <v>398</v>
       </c>
       <c r="D149" s="5">
         <v>2019</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="F149" s="9" t="s">
         <v>422</v>
@@ -6259,7 +6307,7 @@
         <v>420</v>
       </c>
       <c r="I149" s="10">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -6270,25 +6318,22 @@
         <v>49</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>529</v>
+        <v>295</v>
       </c>
       <c r="D150" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>534</v>
+        <v>296</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H150" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I150" s="10">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -6296,28 +6341,25 @@
         <v>416</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>490</v>
+        <v>309</v>
       </c>
       <c r="D151" s="5">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>492</v>
+        <v>310</v>
       </c>
       <c r="F151" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H151" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I151" s="10">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -6328,25 +6370,22 @@
         <v>7</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>438</v>
+        <v>33</v>
       </c>
       <c r="D152" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>440</v>
+        <v>34</v>
       </c>
       <c r="F152" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H152" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I152" s="10">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -6357,25 +6396,22 @@
         <v>7</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>489</v>
+        <v>184</v>
       </c>
       <c r="D153" s="5">
-        <v>1964</v>
+        <v>2012</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>493</v>
+        <v>98</v>
       </c>
       <c r="F153" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H153" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I153" s="10">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -6386,25 +6422,22 @@
         <v>7</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="D154" s="5">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>238</v>
+        <v>448</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H154" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I154" s="10">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -6415,25 +6448,22 @@
         <v>7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>396</v>
+        <v>527</v>
       </c>
       <c r="D155" s="5">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H155" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I155" s="10">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -6441,19 +6471,19 @@
         <v>416</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>256</v>
+        <v>529</v>
       </c>
       <c r="D156" s="5">
         <v>2015</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>257</v>
+        <v>534</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G156" s="10" t="s">
         <v>422</v>
@@ -6462,24 +6492,24 @@
         <v>420</v>
       </c>
       <c r="I156" s="10">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>8</v>
+        <v>490</v>
       </c>
       <c r="D157" s="5">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>26</v>
+        <v>492</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>422</v>
@@ -6488,10 +6518,10 @@
         <v>422</v>
       </c>
       <c r="H157" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I157" s="10">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -6502,13 +6532,13 @@
         <v>7</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>9</v>
+        <v>438</v>
       </c>
       <c r="D158" s="5">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>27</v>
+        <v>440</v>
       </c>
       <c r="F158" s="9" t="s">
         <v>422</v>
@@ -6517,10 +6547,10 @@
         <v>422</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I158" s="10">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -6531,22 +6561,25 @@
         <v>7</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>213</v>
+        <v>489</v>
       </c>
       <c r="D159" s="5">
-        <v>2016</v>
+        <v>1964</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>214</v>
+        <v>493</v>
       </c>
       <c r="F159" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H159" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I159" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -6557,13 +6590,13 @@
         <v>7</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="D160" s="5">
         <v>2018</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="F160" s="9" t="s">
         <v>422</v>
@@ -6572,10 +6605,10 @@
         <v>422</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I160" s="10">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -6586,16 +6619,16 @@
         <v>7</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>537</v>
+        <v>396</v>
       </c>
       <c r="D161" s="5">
         <v>2015</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G161" s="10" t="s">
         <v>422</v>
@@ -6615,39 +6648,42 @@
         <v>7</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="D162" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="F162" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G162" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H162" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I162" s="10">
-        <v>134</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>539</v>
+        <v>8</v>
       </c>
       <c r="D163" s="5">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="F163" s="9" t="s">
         <v>422</v>
@@ -6659,7 +6695,7 @@
         <v>422</v>
       </c>
       <c r="I163" s="10">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -6670,13 +6706,13 @@
         <v>7</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>578</v>
+        <v>9</v>
       </c>
       <c r="D164" s="5">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="F164" s="9" t="s">
         <v>422</v>
@@ -6688,7 +6724,7 @@
         <v>422</v>
       </c>
       <c r="I164" s="10">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -6699,13 +6735,13 @@
         <v>7</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>371</v>
+        <v>213</v>
       </c>
       <c r="D165" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>372</v>
+        <v>214</v>
       </c>
       <c r="F165" s="9" t="s">
         <v>422</v>
@@ -6714,7 +6750,7 @@
         <v>420</v>
       </c>
       <c r="I165" s="10">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -6725,22 +6761,25 @@
         <v>7</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>450</v>
+        <v>285</v>
       </c>
       <c r="D166" s="5">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>449</v>
+        <v>286</v>
       </c>
       <c r="F166" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G166" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H166" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I166" s="10">
-        <v>25</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -6751,22 +6790,25 @@
         <v>7</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>28</v>
+        <v>537</v>
       </c>
       <c r="D167" s="5">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="F167" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G167" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H167" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I167" s="10">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -6777,13 +6819,13 @@
         <v>7</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D168" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F168" s="9" t="s">
         <v>422</v>
@@ -6792,76 +6834,82 @@
         <v>420</v>
       </c>
       <c r="I168" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>45</v>
+        <v>539</v>
       </c>
       <c r="D169" s="5">
-        <v>1976</v>
+        <v>2013</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="F169" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I169" s="10">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>51</v>
+        <v>578</v>
       </c>
       <c r="D170" s="5">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c r="F170" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I170" s="10">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>51</v>
+        <v>371</v>
       </c>
       <c r="D171" s="5">
-        <v>1974</v>
+        <v>2018</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>53</v>
+        <v>372</v>
       </c>
       <c r="F171" s="9" t="s">
         <v>422</v>
@@ -6870,7 +6918,7 @@
         <v>420</v>
       </c>
       <c r="I171" s="10">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -6881,13 +6929,13 @@
         <v>7</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>89</v>
+        <v>450</v>
       </c>
       <c r="D172" s="5">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>506</v>
+        <v>449</v>
       </c>
       <c r="F172" s="9" t="s">
         <v>422</v>
@@ -6896,108 +6944,102 @@
         <v>420</v>
       </c>
       <c r="I172" s="10">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="D173" s="5">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H173" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I173" s="10">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="D174" s="5">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="F174" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G174" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H174" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I174" s="10">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="D175" s="5">
-        <v>2013</v>
+        <v>1976</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>370</v>
+        <v>46</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G175" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I175" s="10">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D176" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F176" s="9" t="s">
         <v>422</v>
@@ -7006,33 +7048,33 @@
         <v>420</v>
       </c>
       <c r="I176" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>224</v>
+        <v>51</v>
       </c>
       <c r="D177" s="5">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>225</v>
+        <v>53</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G177" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I177" s="10">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -7043,22 +7085,19 @@
         <v>7</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>468</v>
+        <v>89</v>
       </c>
       <c r="D178" s="5">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="F178" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H178" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I178" s="10">
         <v>40</v>
@@ -7072,13 +7111,13 @@
         <v>7</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>469</v>
+        <v>134</v>
       </c>
       <c r="D179" s="5">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>477</v>
+        <v>135</v>
       </c>
       <c r="F179" s="9" t="s">
         <v>422</v>
@@ -7087,10 +7126,10 @@
         <v>422</v>
       </c>
       <c r="H179" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I179" s="10">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -7101,13 +7140,13 @@
         <v>7</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>470</v>
+        <v>136</v>
       </c>
       <c r="D180" s="5">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>477</v>
+        <v>135</v>
       </c>
       <c r="F180" s="9" t="s">
         <v>422</v>
@@ -7116,10 +7155,10 @@
         <v>422</v>
       </c>
       <c r="H180" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I180" s="10">
-        <v>40</v>
+        <v>104</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -7127,28 +7166,25 @@
         <v>416</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>471</v>
+        <v>369</v>
       </c>
       <c r="D181" s="5">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>477</v>
+        <v>370</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H181" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I181" s="10">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -7156,16 +7192,16 @@
         <v>416</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="D182" s="5">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>477</v>
+        <v>47</v>
       </c>
       <c r="F182" s="9" t="s">
         <v>422</v>
@@ -7177,7 +7213,7 @@
         <v>422</v>
       </c>
       <c r="I182" s="10">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -7188,13 +7224,13 @@
         <v>7</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>473</v>
+        <v>598</v>
       </c>
       <c r="D183" s="5">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>477</v>
+        <v>601</v>
       </c>
       <c r="F183" s="9" t="s">
         <v>422</v>
@@ -7206,7 +7242,7 @@
         <v>422</v>
       </c>
       <c r="I183" s="10">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -7217,13 +7253,13 @@
         <v>7</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="D184" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>477</v>
+        <v>601</v>
       </c>
       <c r="F184" s="9" t="s">
         <v>422</v>
@@ -7235,7 +7271,7 @@
         <v>422</v>
       </c>
       <c r="I184" s="10">
-        <v>40</v>
+        <v>122</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -7246,13 +7282,13 @@
         <v>7</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>475</v>
+        <v>599</v>
       </c>
       <c r="D185" s="5">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>477</v>
+        <v>601</v>
       </c>
       <c r="F185" s="9" t="s">
         <v>422</v>
@@ -7264,7 +7300,7 @@
         <v>422</v>
       </c>
       <c r="I185" s="10">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -7275,120 +7311,126 @@
         <v>7</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>476</v>
+        <v>224</v>
       </c>
       <c r="D186" s="5">
-        <v>2012</v>
+        <v>1975</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>477</v>
+        <v>225</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H186" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I186" s="10">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
       <c r="D187" s="5">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>390</v>
+        <v>477</v>
       </c>
       <c r="F187" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H187" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I187" s="10">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>319</v>
+        <v>469</v>
       </c>
       <c r="D188" s="5">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>320</v>
+        <v>477</v>
       </c>
       <c r="F188" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H188" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I188" s="10">
-        <v>127</v>
+        <v>40</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>171</v>
+        <v>470</v>
       </c>
       <c r="D189" s="5">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>172</v>
+        <v>477</v>
       </c>
       <c r="F189" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H189" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I189" s="10">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>158</v>
+        <v>471</v>
       </c>
       <c r="D190" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>146</v>
+        <v>477</v>
       </c>
       <c r="F190" s="9" t="s">
         <v>422</v>
@@ -7400,24 +7442,24 @@
         <v>422</v>
       </c>
       <c r="I190" s="10">
-        <v>114</v>
+        <v>40</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>159</v>
+        <v>472</v>
       </c>
       <c r="D191" s="5">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>160</v>
+        <v>477</v>
       </c>
       <c r="F191" s="9" t="s">
         <v>422</v>
@@ -7429,24 +7471,24 @@
         <v>422</v>
       </c>
       <c r="I191" s="10">
-        <v>102</v>
+        <v>40</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>267</v>
+        <v>473</v>
       </c>
       <c r="D192" s="5">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>268</v>
+        <v>477</v>
       </c>
       <c r="F192" s="9" t="s">
         <v>422</v>
@@ -7455,27 +7497,27 @@
         <v>422</v>
       </c>
       <c r="H192" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I192" s="10">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>10</v>
+        <v>474</v>
       </c>
       <c r="D193" s="5">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>25</v>
+        <v>477</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>422</v>
@@ -7487,24 +7529,24 @@
         <v>422</v>
       </c>
       <c r="I193" s="10">
-        <v>107</v>
+        <v>40</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>11</v>
+        <v>475</v>
       </c>
       <c r="D194" s="5">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>12</v>
+        <v>477</v>
       </c>
       <c r="F194" s="9" t="s">
         <v>422</v>
@@ -7516,24 +7558,24 @@
         <v>422</v>
       </c>
       <c r="I194" s="10">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>13</v>
+        <v>476</v>
       </c>
       <c r="D195" s="5">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>24</v>
+        <v>477</v>
       </c>
       <c r="F195" s="9" t="s">
         <v>422</v>
@@ -7545,7 +7587,7 @@
         <v>422</v>
       </c>
       <c r="I195" s="10">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -7556,22 +7598,22 @@
         <v>7</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="D196" s="5">
-        <v>1987</v>
+        <v>2018</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G196" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I196" s="10">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -7582,25 +7624,22 @@
         <v>7</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="D197" s="5">
-        <v>1968</v>
+        <v>2019</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H197" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I197" s="10">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -7608,16 +7647,16 @@
         <v>416</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="D198" s="5">
         <v>2016</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="F198" s="9" t="s">
         <v>422</v>
@@ -7626,7 +7665,7 @@
         <v>420</v>
       </c>
       <c r="I198" s="10">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -7634,25 +7673,28 @@
         <v>416</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D199" s="5">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="F199" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H199" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I199" s="10">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -7663,25 +7705,25 @@
         <v>7</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>411</v>
+        <v>159</v>
       </c>
       <c r="D200" s="5">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G200" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H200" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I200" s="10">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -7692,13 +7734,13 @@
         <v>7</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="D201" s="5">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="F201" s="9" t="s">
         <v>422</v>
@@ -7710,7 +7752,7 @@
         <v>420</v>
       </c>
       <c r="I201" s="10">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -7721,13 +7763,13 @@
         <v>7</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D202" s="5">
-        <v>1981</v>
+        <v>2012</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="F202" s="9" t="s">
         <v>422</v>
@@ -7739,7 +7781,7 @@
         <v>422</v>
       </c>
       <c r="I202" s="10">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -7750,22 +7792,25 @@
         <v>7</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D203" s="5">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F203" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H203" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I203" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -7776,22 +7821,25 @@
         <v>7</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="D204" s="5">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="F204" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H204" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I204" s="10">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -7799,25 +7847,25 @@
         <v>416</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="D205" s="5">
-        <v>2018</v>
+        <v>1987</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>91</v>
+        <v>431</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G205" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I205" s="10">
-        <v>140</v>
+        <v>89</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -7828,22 +7876,25 @@
         <v>7</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>140</v>
+        <v>274</v>
       </c>
       <c r="D206" s="5">
-        <v>2018</v>
+        <v>1968</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="F206" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H206" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I206" s="10">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -7851,25 +7902,25 @@
         <v>416</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>501</v>
+        <v>60</v>
       </c>
       <c r="D207" s="5">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>502</v>
+        <v>61</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G207" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I207" s="10">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -7880,25 +7931,22 @@
         <v>49</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>343</v>
+        <v>182</v>
       </c>
       <c r="D208" s="5">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="F208" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H208" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I208" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -7909,22 +7957,25 @@
         <v>7</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>544</v>
+        <v>411</v>
       </c>
       <c r="D209" s="5">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G209" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H209" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I209" s="10">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -7935,22 +7986,25 @@
         <v>7</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="D210" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="F210" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G210" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H210" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I210" s="10">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -7961,25 +8015,28 @@
         <v>7</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D211" s="5">
-        <v>2011</v>
+        <v>1981</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H211" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I211" s="10">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>416</v>
       </c>
@@ -7987,13 +8044,13 @@
         <v>7</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="D212" s="5">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>482</v>
+        <v>21</v>
       </c>
       <c r="F212" s="9" t="s">
         <v>422</v>
@@ -8002,7 +8059,7 @@
         <v>420</v>
       </c>
       <c r="I212" s="10">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -8013,13 +8070,13 @@
         <v>7</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>354</v>
+        <v>252</v>
       </c>
       <c r="D213" s="5">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="F213" s="9" t="s">
         <v>422</v>
@@ -8028,7 +8085,7 @@
         <v>420</v>
       </c>
       <c r="I213" s="10">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -8036,16 +8093,16 @@
         <v>416</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>143</v>
+        <v>520</v>
       </c>
       <c r="D214" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="F214" s="9" t="s">
         <v>422</v>
@@ -8054,7 +8111,7 @@
         <v>420</v>
       </c>
       <c r="I214" s="10">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -8065,25 +8122,22 @@
         <v>7</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>442</v>
+        <v>140</v>
       </c>
       <c r="D215" s="5">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H215" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I215" s="10">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -8091,28 +8145,25 @@
         <v>416</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>264</v>
+        <v>501</v>
       </c>
       <c r="D216" s="5">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H216" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I216" s="10">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -8120,25 +8171,28 @@
         <v>416</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>432</v>
+        <v>343</v>
       </c>
       <c r="D217" s="5">
-        <v>1952</v>
+        <v>2011</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>434</v>
+        <v>344</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G217" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H217" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I217" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -8149,141 +8203,126 @@
         <v>7</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>403</v>
+        <v>544</v>
       </c>
       <c r="D218" s="5">
-        <v>1992</v>
+        <v>2019</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>404</v>
+        <v>36</v>
       </c>
       <c r="F218" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H218" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I218" s="10">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>405</v>
+        <v>203</v>
       </c>
       <c r="D219" s="5">
-        <v>1993</v>
+        <v>2015</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>406</v>
+        <v>204</v>
       </c>
       <c r="F219" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H219" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I219" s="10">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>412</v>
+        <v>87</v>
       </c>
       <c r="D220" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>414</v>
+        <v>88</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G220" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H220" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I220" s="10">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>413</v>
+        <v>540</v>
       </c>
       <c r="D221" s="5">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H221" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I221" s="10">
-        <v>148</v>
+        <v>86</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>107</v>
+        <v>354</v>
       </c>
       <c r="D222" s="5">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>110</v>
+        <v>353</v>
       </c>
       <c r="F222" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G222" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H222" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I222" s="10">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -8294,42 +8333,39 @@
         <v>7</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D223" s="5">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="F223" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H223" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I223" s="10">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>109</v>
+        <v>442</v>
       </c>
       <c r="D224" s="5">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="F224" s="9" t="s">
         <v>422</v>
@@ -8338,27 +8374,27 @@
         <v>422</v>
       </c>
       <c r="H224" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I224" s="10">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="D225" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>422</v>
@@ -8370,36 +8406,33 @@
         <v>420</v>
       </c>
       <c r="I225" s="10">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B226" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="D226" s="5">
-        <v>2018</v>
+        <v>1952</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G226" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H226" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I226" s="10">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -8410,13 +8443,13 @@
         <v>7</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>68</v>
+        <v>403</v>
       </c>
       <c r="D227" s="5">
-        <v>2016</v>
+        <v>1992</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>69</v>
+        <v>404</v>
       </c>
       <c r="F227" s="9" t="s">
         <v>422</v>
@@ -8428,7 +8461,7 @@
         <v>422</v>
       </c>
       <c r="I227" s="10">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -8439,13 +8472,13 @@
         <v>7</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>460</v>
+        <v>405</v>
       </c>
       <c r="D228" s="5">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>313</v>
+        <v>406</v>
       </c>
       <c r="F228" s="9" t="s">
         <v>422</v>
@@ -8457,7 +8490,7 @@
         <v>422</v>
       </c>
       <c r="I228" s="10">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -8468,25 +8501,25 @@
         <v>7</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="D229" s="5">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>313</v>
+        <v>414</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G229" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H229" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I229" s="10">
-        <v>10</v>
+        <v>143</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -8497,25 +8530,25 @@
         <v>7</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="D230" s="5">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>313</v>
+        <v>414</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G230" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H230" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I230" s="10">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -8526,13 +8559,13 @@
         <v>7</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>463</v>
+        <v>107</v>
       </c>
       <c r="D231" s="5">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="F231" s="9" t="s">
         <v>422</v>
@@ -8544,7 +8577,7 @@
         <v>422</v>
       </c>
       <c r="I231" s="10">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -8555,13 +8588,13 @@
         <v>7</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>464</v>
+        <v>108</v>
       </c>
       <c r="D232" s="5">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="F232" s="9" t="s">
         <v>422</v>
@@ -8573,7 +8606,7 @@
         <v>422</v>
       </c>
       <c r="I232" s="10">
-        <v>10</v>
+        <v>122</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -8584,13 +8617,13 @@
         <v>7</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>465</v>
+        <v>109</v>
       </c>
       <c r="D233" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="F233" s="9" t="s">
         <v>422</v>
@@ -8602,7 +8635,7 @@
         <v>422</v>
       </c>
       <c r="I233" s="10">
-        <v>10</v>
+        <v>133</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -8613,13 +8646,13 @@
         <v>7</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>466</v>
+        <v>114</v>
       </c>
       <c r="D234" s="5">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>313</v>
+        <v>115</v>
       </c>
       <c r="F234" s="9" t="s">
         <v>422</v>
@@ -8628,10 +8661,10 @@
         <v>422</v>
       </c>
       <c r="H234" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I234" s="10">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -8642,13 +8675,13 @@
         <v>7</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>467</v>
+        <v>362</v>
       </c>
       <c r="D235" s="5">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="F235" s="9" t="s">
         <v>422</v>
@@ -8660,7 +8693,7 @@
         <v>422</v>
       </c>
       <c r="I235" s="10">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -8668,16 +8701,16 @@
         <v>416</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>483</v>
+        <v>68</v>
       </c>
       <c r="D236" s="5">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F236" s="9" t="s">
         <v>422</v>
@@ -8686,27 +8719,27 @@
         <v>422</v>
       </c>
       <c r="H236" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I236" s="10">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="D237" s="5">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F237" s="9" t="s">
         <v>422</v>
@@ -8715,27 +8748,27 @@
         <v>422</v>
       </c>
       <c r="H237" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I237" s="10">
-        <v>135</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>97</v>
+        <v>461</v>
       </c>
       <c r="D238" s="5">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="F238" s="9" t="s">
         <v>422</v>
@@ -8744,27 +8777,27 @@
         <v>422</v>
       </c>
       <c r="H238" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I238" s="10">
-        <v>152</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D239" s="5">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>459</v>
+        <v>313</v>
       </c>
       <c r="F239" s="9" t="s">
         <v>422</v>
@@ -8776,24 +8809,24 @@
         <v>422</v>
       </c>
       <c r="I239" s="10">
-        <v>98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D240" s="5">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="F240" s="9" t="s">
         <v>422</v>
@@ -8805,24 +8838,24 @@
         <v>422</v>
       </c>
       <c r="I240" s="10">
-        <v>98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D241" s="5">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="F241" s="9" t="s">
         <v>422</v>
@@ -8834,24 +8867,24 @@
         <v>422</v>
       </c>
       <c r="I241" s="10">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>231</v>
+        <v>465</v>
       </c>
       <c r="D242" s="5">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="F242" s="9" t="s">
         <v>422</v>
@@ -8863,24 +8896,24 @@
         <v>422</v>
       </c>
       <c r="I242" s="10">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D243" s="5">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>457</v>
+        <v>313</v>
       </c>
       <c r="F243" s="9" t="s">
         <v>422</v>
@@ -8892,33 +8925,36 @@
         <v>422</v>
       </c>
       <c r="I243" s="10">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>205</v>
+        <v>467</v>
       </c>
       <c r="D244" s="5">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="F244" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G244" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H244" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I244" s="10">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -8926,25 +8962,28 @@
         <v>416</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>299</v>
+        <v>483</v>
       </c>
       <c r="D245" s="5">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="F245" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G245" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H245" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I245" s="10">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -8952,25 +8991,28 @@
         <v>416</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>497</v>
+        <v>95</v>
       </c>
       <c r="D246" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>498</v>
+        <v>96</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G246" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H246" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I246" s="10">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -8978,25 +9020,28 @@
         <v>416</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="D247" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="F247" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G247" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H247" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I247" s="10">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -9007,22 +9052,25 @@
         <v>7</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>345</v>
+        <v>458</v>
       </c>
       <c r="D248" s="5">
-        <v>1941</v>
+        <v>2006</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>347</v>
+        <v>459</v>
       </c>
       <c r="F248" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H248" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I248" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -9033,22 +9081,25 @@
         <v>7</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>379</v>
+        <v>454</v>
       </c>
       <c r="D249" s="5">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="F249" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G249" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H249" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I249" s="10">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -9059,22 +9110,25 @@
         <v>7</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="D250" s="5">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>129</v>
+        <v>284</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H250" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I250" s="10">
-        <v>144</v>
+        <v>103</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -9085,22 +9139,25 @@
         <v>7</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="D251" s="5">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H251" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I251" s="10">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -9111,25 +9168,28 @@
         <v>7</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="D252" s="5">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="F252" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H252" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I252" s="10">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>416</v>
       </c>
@@ -9137,13 +9197,13 @@
         <v>7</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>532</v>
+        <v>205</v>
       </c>
       <c r="D253" s="5">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>536</v>
+        <v>206</v>
       </c>
       <c r="F253" s="9" t="s">
         <v>422</v>
@@ -9152,7 +9212,7 @@
         <v>420</v>
       </c>
       <c r="I253" s="10">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -9163,25 +9223,22 @@
         <v>7</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>111</v>
+        <v>299</v>
       </c>
       <c r="D254" s="5">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>112</v>
+        <v>300</v>
       </c>
       <c r="F254" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H254" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I254" s="10">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -9192,25 +9249,22 @@
         <v>7</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>113</v>
+        <v>497</v>
       </c>
       <c r="D255" s="5">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>112</v>
+        <v>498</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H255" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I255" s="10">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -9218,16 +9272,16 @@
         <v>416</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>453</v>
+        <v>287</v>
       </c>
       <c r="D256" s="5">
-        <v>1998</v>
+        <v>2016</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
       <c r="F256" s="9" t="s">
         <v>422</v>
@@ -9247,22 +9301,22 @@
         <v>7</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>585</v>
+        <v>345</v>
       </c>
       <c r="D257" s="5">
-        <v>1985</v>
+        <v>1941</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>431</v>
+        <v>347</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G257" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I257" s="10">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -9273,22 +9327,22 @@
         <v>7</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>531</v>
+        <v>379</v>
       </c>
       <c r="D258" s="5">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="F258" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G258" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I258" s="10">
-        <v>159</v>
+        <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -9299,25 +9353,22 @@
         <v>7</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D259" s="5">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="F259" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H259" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I259" s="10">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -9328,25 +9379,22 @@
         <v>7</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D260" s="5">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="F260" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G260" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H260" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I260" s="10">
-        <v>146</v>
+        <v>91</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -9357,25 +9405,22 @@
         <v>7</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="D261" s="5">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="F261" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G261" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H261" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I261" s="10">
-        <v>160</v>
+        <v>122</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -9383,16 +9428,16 @@
         <v>416</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>273</v>
+        <v>532</v>
       </c>
       <c r="D262" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>187</v>
+        <v>536</v>
       </c>
       <c r="F262" s="9" t="s">
         <v>422</v>
@@ -9401,7 +9446,7 @@
         <v>420</v>
       </c>
       <c r="I262" s="10">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -9412,22 +9457,25 @@
         <v>7</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="D263" s="5">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>318</v>
+        <v>112</v>
       </c>
       <c r="F263" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H263" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I263" s="10">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -9438,22 +9486,25 @@
         <v>7</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>385</v>
+        <v>113</v>
       </c>
       <c r="D264" s="5">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>386</v>
+        <v>112</v>
       </c>
       <c r="F264" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G264" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H264" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I264" s="10">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -9464,22 +9515,22 @@
         <v>49</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>297</v>
+        <v>453</v>
       </c>
       <c r="D265" s="5">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="F265" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G265" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I265" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -9490,13 +9541,13 @@
         <v>7</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>380</v>
+        <v>585</v>
       </c>
       <c r="D266" s="5">
-        <v>2018</v>
+        <v>1985</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
       <c r="F266" s="9" t="s">
         <v>422</v>
@@ -9505,7 +9556,7 @@
         <v>420</v>
       </c>
       <c r="I266" s="10">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -9516,25 +9567,22 @@
         <v>7</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="D267" s="5">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>584</v>
+        <v>188</v>
       </c>
       <c r="F267" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G267" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H267" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I267" s="10">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -9545,13 +9593,13 @@
         <v>7</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>581</v>
+        <v>480</v>
       </c>
       <c r="D268" s="5">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>584</v>
+        <v>72</v>
       </c>
       <c r="F268" s="9" t="s">
         <v>422</v>
@@ -9560,10 +9608,10 @@
         <v>422</v>
       </c>
       <c r="H268" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I268" s="10">
-        <v>22</v>
+        <v>167</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -9574,13 +9622,13 @@
         <v>7</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>582</v>
+        <v>128</v>
       </c>
       <c r="D269" s="5">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>584</v>
+        <v>129</v>
       </c>
       <c r="F269" s="9" t="s">
         <v>422</v>
@@ -9592,7 +9640,7 @@
         <v>422</v>
       </c>
       <c r="I269" s="10">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -9603,16 +9651,16 @@
         <v>7</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>583</v>
+        <v>130</v>
       </c>
       <c r="D270" s="5">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>584</v>
+        <v>129</v>
       </c>
       <c r="F270" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G270" s="10" t="s">
         <v>422</v>
@@ -9621,7 +9669,7 @@
         <v>422</v>
       </c>
       <c r="I270" s="10">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -9629,25 +9677,25 @@
         <v>416</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="D271" s="5">
-        <v>1985</v>
+        <v>2014</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="F271" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G271" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I271" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -9655,16 +9703,16 @@
         <v>416</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="D272" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="F272" s="9" t="s">
         <v>422</v>
@@ -9673,7 +9721,7 @@
         <v>420</v>
       </c>
       <c r="I272" s="10">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -9681,16 +9729,16 @@
         <v>416</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>235</v>
+        <v>385</v>
       </c>
       <c r="D273" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>236</v>
+        <v>386</v>
       </c>
       <c r="F273" s="9" t="s">
         <v>422</v>
@@ -9699,7 +9747,7 @@
         <v>420</v>
       </c>
       <c r="I273" s="10">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -9707,25 +9755,25 @@
         <v>416</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="D274" s="5">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>200</v>
+        <v>298</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G274" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I274" s="10">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -9733,123 +9781,132 @@
         <v>416</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>503</v>
+        <v>380</v>
       </c>
       <c r="D275" s="5">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>399</v>
+        <v>216</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G275" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I275" s="10">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B276" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>433</v>
+        <v>580</v>
       </c>
       <c r="D276" s="5">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>218</v>
+        <v>584</v>
       </c>
       <c r="F276" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G276" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H276" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I276" s="10">
-        <v>128</v>
+        <v>22</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>351</v>
+        <v>581</v>
       </c>
       <c r="D277" s="5">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>352</v>
+        <v>584</v>
       </c>
       <c r="F277" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G277" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H277" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I277" s="10">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B278" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>394</v>
+        <v>582</v>
       </c>
       <c r="D278" s="5">
         <v>2018</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>395</v>
+        <v>584</v>
       </c>
       <c r="F278" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G278" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H278" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I278" s="10">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B279" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>137</v>
+        <v>583</v>
       </c>
       <c r="D279" s="5">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>47</v>
+        <v>584</v>
       </c>
       <c r="F279" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G279" s="10" t="s">
         <v>422</v>
@@ -9858,7 +9915,7 @@
         <v>422</v>
       </c>
       <c r="I279" s="10">
-        <v>137</v>
+        <v>22</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -9869,25 +9926,22 @@
         <v>7</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="D280" s="5">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="F280" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G280" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H280" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I280" s="10">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -9895,28 +9949,25 @@
         <v>416</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>141</v>
+        <v>302</v>
       </c>
       <c r="D281" s="5">
         <v>2014</v>
       </c>
       <c r="E281" s="9" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="F281" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G281" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H281" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I281" s="10">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -9924,28 +9975,25 @@
         <v>416</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="D282" s="5">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="F282" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G282" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H282" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I282" s="10">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -9956,25 +10004,22 @@
         <v>7</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="D283" s="5">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F283" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G283" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H283" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I283" s="10">
-        <v>109</v>
+        <v>140</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -9982,25 +10027,25 @@
         <v>416</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>443</v>
+        <v>503</v>
       </c>
       <c r="D284" s="5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G284" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I284" s="10">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -10011,13 +10056,13 @@
         <v>7</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>196</v>
+        <v>433</v>
       </c>
       <c r="D285" s="5">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="F285" s="9" t="s">
         <v>422</v>
@@ -10026,7 +10071,7 @@
         <v>420</v>
       </c>
       <c r="I285" s="10">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -10037,13 +10082,13 @@
         <v>7</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>217</v>
+        <v>351</v>
       </c>
       <c r="D286" s="5">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>218</v>
+        <v>352</v>
       </c>
       <c r="F286" s="9" t="s">
         <v>422</v>
@@ -10052,7 +10097,7 @@
         <v>420</v>
       </c>
       <c r="I286" s="10">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -10060,16 +10105,16 @@
         <v>416</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="D287" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="F287" s="9" t="s">
         <v>422</v>
@@ -10078,7 +10123,7 @@
         <v>420</v>
       </c>
       <c r="I287" s="10">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -10089,22 +10134,25 @@
         <v>7</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>447</v>
+        <v>137</v>
       </c>
       <c r="D288" s="5">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>446</v>
+        <v>47</v>
       </c>
       <c r="F288" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G288" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H288" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I288" s="10">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -10112,25 +10160,28 @@
         <v>416</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>538</v>
+        <v>138</v>
       </c>
       <c r="D289" s="5">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F289" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H289" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I289" s="10">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -10138,25 +10189,28 @@
         <v>416</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>499</v>
+        <v>141</v>
       </c>
       <c r="D290" s="5">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>500</v>
+        <v>139</v>
       </c>
       <c r="F290" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G290" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H290" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I290" s="10">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -10167,13 +10221,13 @@
         <v>7</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="D291" s="5">
-        <v>1997</v>
+        <v>2015</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="F291" s="9" t="s">
         <v>422</v>
@@ -10185,7 +10239,7 @@
         <v>422</v>
       </c>
       <c r="I291" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -10193,25 +10247,28 @@
         <v>416</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="D292" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="F292" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G292" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H292" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I292" s="10">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -10222,13 +10279,13 @@
         <v>7</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>565</v>
+        <v>443</v>
       </c>
       <c r="D293" s="5">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F293" s="9" t="s">
         <v>422</v>
@@ -10237,7 +10294,7 @@
         <v>420</v>
       </c>
       <c r="I293" s="10">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -10248,25 +10305,22 @@
         <v>7</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D294" s="5">
         <v>2014</v>
       </c>
       <c r="E294" s="9" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F294" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G294" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H294" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I294" s="10">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -10277,13 +10331,13 @@
         <v>7</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="D295" s="5">
-        <v>1980</v>
+        <v>2015</v>
       </c>
       <c r="E295" s="9" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="F295" s="9" t="s">
         <v>422</v>
@@ -10292,7 +10346,7 @@
         <v>420</v>
       </c>
       <c r="I295" s="10">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -10303,22 +10357,19 @@
         <v>7</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>226</v>
+        <v>597</v>
       </c>
       <c r="D296" s="5">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="E296" s="9" t="s">
-        <v>227</v>
+        <v>440</v>
       </c>
       <c r="F296" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="G296" s="10" t="s">
-        <v>420</v>
-      </c>
       <c r="I296" s="10">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -10329,13 +10380,13 @@
         <v>49</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>553</v>
+        <v>305</v>
       </c>
       <c r="D297" s="5">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>557</v>
+        <v>306</v>
       </c>
       <c r="F297" s="9" t="s">
         <v>422</v>
@@ -10344,7 +10395,7 @@
         <v>420</v>
       </c>
       <c r="I297" s="10">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -10352,25 +10403,25 @@
         <v>416</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>323</v>
+        <v>447</v>
       </c>
       <c r="D298" s="5">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>324</v>
+        <v>446</v>
       </c>
       <c r="F298" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G298" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I298" s="10">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -10378,28 +10429,25 @@
         <v>416</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>425</v>
+        <v>538</v>
       </c>
       <c r="D299" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="F299" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G299" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H299" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I299" s="10">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -10407,25 +10455,25 @@
         <v>416</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>315</v>
+        <v>499</v>
       </c>
       <c r="D300" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>316</v>
+        <v>500</v>
       </c>
       <c r="F300" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G300" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I300" s="10">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -10436,22 +10484,25 @@
         <v>7</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>262</v>
+        <v>100</v>
       </c>
       <c r="D301" s="5">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="F301" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G301" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H301" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I301" s="10">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -10459,16 +10510,16 @@
         <v>416</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="D302" s="5">
-        <v>1965</v>
+        <v>2015</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="F302" s="9" t="s">
         <v>422</v>
@@ -10477,24 +10528,24 @@
         <v>420</v>
       </c>
       <c r="I302" s="10">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B303" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>311</v>
+        <v>565</v>
       </c>
       <c r="D303" s="5">
-        <v>2004</v>
+        <v>2021</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>312</v>
+        <v>446</v>
       </c>
       <c r="F303" s="9" t="s">
         <v>422</v>
@@ -10503,7 +10554,7 @@
         <v>420</v>
       </c>
       <c r="I303" s="10">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -10511,25 +10562,28 @@
         <v>416</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>554</v>
+        <v>165</v>
       </c>
       <c r="D304" s="5">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>555</v>
+        <v>166</v>
       </c>
       <c r="F304" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G304" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H304" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I304" s="10">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -10540,13 +10594,13 @@
         <v>7</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="D305" s="5">
-        <v>2014</v>
+        <v>1980</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="F305" s="9" t="s">
         <v>422</v>
@@ -10555,7 +10609,7 @@
         <v>420</v>
       </c>
       <c r="I305" s="10">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -10566,39 +10620,39 @@
         <v>7</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>426</v>
+        <v>226</v>
       </c>
       <c r="D306" s="5">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>429</v>
+        <v>227</v>
       </c>
       <c r="F306" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G306" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I306" s="10">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>189</v>
+        <v>553</v>
       </c>
       <c r="D307" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>190</v>
+        <v>557</v>
       </c>
       <c r="F307" s="9" t="s">
         <v>422</v>
@@ -10607,7 +10661,7 @@
         <v>420</v>
       </c>
       <c r="I307" s="10">
-        <v>122</v>
+        <v>60</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -10615,54 +10669,54 @@
         <v>416</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>563</v>
+        <v>323</v>
       </c>
       <c r="D308" s="5">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>564</v>
+        <v>324</v>
       </c>
       <c r="F308" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G308" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I308" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>118</v>
+        <v>425</v>
       </c>
       <c r="D309" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E309" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F309" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G309" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H309" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I309" s="10">
         <v>119</v>
-      </c>
-      <c r="F309" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G309" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H309" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I309" s="10">
-        <v>130</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -10670,16 +10724,16 @@
         <v>416</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="D310" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="F310" s="9" t="s">
         <v>422</v>
@@ -10699,25 +10753,22 @@
         <v>7</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="D311" s="5">
-        <v>1986</v>
+        <v>2007</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G311" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H311" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I311" s="10">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -10728,28 +10779,25 @@
         <v>7</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>575</v>
+        <v>229</v>
       </c>
       <c r="D312" s="5">
-        <v>1995</v>
+        <v>1965</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>576</v>
+        <v>230</v>
       </c>
       <c r="F312" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G312" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H312" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I312" s="10">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>416</v>
       </c>
@@ -10757,25 +10805,22 @@
         <v>7</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>574</v>
+        <v>311</v>
       </c>
       <c r="D313" s="5">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>576</v>
+        <v>312</v>
       </c>
       <c r="F313" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G313" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H313" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I313" s="10">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -10783,28 +10828,25 @@
         <v>416</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="D314" s="5">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="F314" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G314" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H314" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I314" s="10">
-        <v>98</v>
+        <v>132</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -10815,25 +10857,22 @@
         <v>7</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="D315" s="5">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="F315" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G315" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H315" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I315" s="10">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -10844,13 +10883,13 @@
         <v>7</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="D316" s="5">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="E316" s="9" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="F316" s="9" t="s">
         <v>422</v>
@@ -10859,7 +10898,7 @@
         <v>420</v>
       </c>
       <c r="I316" s="10">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -10870,25 +10909,22 @@
         <v>7</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="D317" s="5">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="F317" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G317" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H317" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I317" s="10">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -10899,22 +10935,22 @@
         <v>7</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>215</v>
+        <v>563</v>
       </c>
       <c r="D318" s="5">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>216</v>
+        <v>564</v>
       </c>
       <c r="F318" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G318" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I318" s="10">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -10922,25 +10958,28 @@
         <v>416</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>355</v>
+        <v>118</v>
       </c>
       <c r="D319" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F319" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G319" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H319" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I319" s="10">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -10948,28 +10987,25 @@
         <v>416</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>361</v>
+        <v>167</v>
       </c>
       <c r="D320" s="5">
         <v>2018</v>
       </c>
       <c r="E320" s="9" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="F320" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G320" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H320" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I320" s="10">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -10980,22 +11016,25 @@
         <v>7</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="D321" s="5">
-        <v>2018</v>
+        <v>1986</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="F321" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G321" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H321" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I321" s="10">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -11006,22 +11045,25 @@
         <v>7</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>43</v>
+        <v>575</v>
       </c>
       <c r="D322" s="5">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="E322" s="9" t="s">
-        <v>44</v>
+        <v>576</v>
       </c>
       <c r="F322" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G322" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H322" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I322" s="10">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -11029,16 +11071,16 @@
         <v>416</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="D323" s="5">
-        <v>2017</v>
+        <v>1999</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="F323" s="9" t="s">
         <v>422</v>
@@ -11050,7 +11092,7 @@
         <v>420</v>
       </c>
       <c r="I323" s="10">
-        <v>140</v>
+        <v>89</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -11061,22 +11103,25 @@
         <v>7</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="D324" s="5">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="E324" s="9" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="F324" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G324" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H324" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I324" s="10">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -11087,39 +11132,42 @@
         <v>7</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="D325" s="5">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="F325" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G325" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H325" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I325" s="10">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B326" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
       <c r="D326" s="5">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>507</v>
+        <v>393</v>
       </c>
       <c r="F326" s="9" t="s">
         <v>422</v>
@@ -11128,7 +11176,7 @@
         <v>420</v>
       </c>
       <c r="I326" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -11136,25 +11184,28 @@
         <v>416</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="D327" s="5">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="F327" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G327" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H327" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I327" s="10">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -11165,13 +11216,13 @@
         <v>7</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>418</v>
+        <v>215</v>
       </c>
       <c r="D328" s="5">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="F328" s="9" t="s">
         <v>422</v>
@@ -11180,7 +11231,7 @@
         <v>420</v>
       </c>
       <c r="I328" s="10">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -11191,13 +11242,13 @@
         <v>7</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="D329" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E329" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F329" s="9" t="s">
         <v>422</v>
@@ -11206,7 +11257,7 @@
         <v>420</v>
       </c>
       <c r="I329" s="10">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -11217,22 +11268,25 @@
         <v>7</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D330" s="5">
         <v>2018</v>
       </c>
       <c r="E330" s="9" t="s">
-        <v>374</v>
+        <v>59</v>
       </c>
       <c r="F330" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G330" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H330" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I330" s="10">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -11240,25 +11294,25 @@
         <v>416</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="D331" s="5">
         <v>2018</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="F331" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G331" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I331" s="10">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -11269,22 +11323,22 @@
         <v>7</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>566</v>
+        <v>43</v>
       </c>
       <c r="D332" s="5">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="E332" s="9" t="s">
-        <v>567</v>
+        <v>44</v>
       </c>
       <c r="F332" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G332" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I332" s="10">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -11292,16 +11346,16 @@
         <v>416</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>291</v>
+        <v>517</v>
       </c>
       <c r="D333" s="5">
         <v>2017</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>292</v>
+        <v>518</v>
       </c>
       <c r="F333" s="9" t="s">
         <v>422</v>
@@ -11310,39 +11364,36 @@
         <v>422</v>
       </c>
       <c r="H333" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I333" s="10">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="D334" s="5">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>292</v>
+        <v>533</v>
       </c>
       <c r="F334" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G334" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H334" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I334" s="10">
-        <v>153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -11353,13 +11404,13 @@
         <v>7</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D335" s="5">
         <v>2013</v>
       </c>
       <c r="E335" s="9" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F335" s="9" t="s">
         <v>422</v>
@@ -11368,7 +11419,7 @@
         <v>420</v>
       </c>
       <c r="I335" s="10">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -11379,25 +11430,22 @@
         <v>7</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>126</v>
+        <v>508</v>
       </c>
       <c r="D336" s="5">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>121</v>
+        <v>507</v>
       </c>
       <c r="F336" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G336" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H336" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I336" s="10">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -11405,28 +11453,25 @@
         <v>416</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="D337" s="5">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="E337" s="9" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="F337" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G337" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H337" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I337" s="10">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -11437,25 +11482,22 @@
         <v>7</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>120</v>
+        <v>418</v>
       </c>
       <c r="D338" s="5">
         <v>2016</v>
       </c>
       <c r="E338" s="9" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="F338" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G338" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H338" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I338" s="10">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -11466,25 +11508,22 @@
         <v>7</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>479</v>
+        <v>75</v>
       </c>
       <c r="D339" s="5">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>481</v>
+        <v>76</v>
       </c>
       <c r="F339" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G339" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H339" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I339" s="10">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -11495,135 +11534,132 @@
         <v>7</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>122</v>
+        <v>373</v>
       </c>
       <c r="D340" s="5">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E340" s="9" t="s">
-        <v>121</v>
+        <v>374</v>
       </c>
       <c r="F340" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G340" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H340" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I340" s="10">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>123</v>
+        <v>358</v>
       </c>
       <c r="D341" s="5">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E341" s="9" t="s">
-        <v>84</v>
+        <v>359</v>
       </c>
       <c r="F341" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G341" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H341" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I341" s="10">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B342" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>124</v>
+        <v>566</v>
       </c>
       <c r="D342" s="5">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="E342" s="9" t="s">
-        <v>125</v>
+        <v>567</v>
       </c>
       <c r="F342" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G342" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H342" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I342" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>516</v>
+        <v>291</v>
       </c>
       <c r="D343" s="5">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>519</v>
+        <v>292</v>
       </c>
       <c r="F343" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G343" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H343" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I343" s="10">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B344" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D344" s="5">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>525</v>
+        <v>292</v>
       </c>
       <c r="F344" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G344" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H344" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I344" s="10">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -11634,25 +11670,22 @@
         <v>7</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D345" s="5">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F345" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G345" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H345" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I345" s="10">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -11660,16 +11693,16 @@
         <v>416</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>360</v>
+        <v>126</v>
       </c>
       <c r="D346" s="5">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="F346" s="9" t="s">
         <v>422</v>
@@ -11681,7 +11714,7 @@
         <v>422</v>
       </c>
       <c r="I346" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -11692,28 +11725,312 @@
         <v>7</v>
       </c>
       <c r="C347" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D347" s="5">
+        <v>2003</v>
+      </c>
+      <c r="E347" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F347" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G347" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H347" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I347" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A348" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B348" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D348" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E348" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F348" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G348" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H348" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I348" s="10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A349" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B349" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D349" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E349" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="F349" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G349" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H349" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I349" s="10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A350" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B350" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D350" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E350" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F350" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G350" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H350" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I350" s="10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A351" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D351" s="5">
+        <v>2011</v>
+      </c>
+      <c r="E351" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F351" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G351" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H351" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I351" s="10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A352" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B352" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D352" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E352" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F352" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G352" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H352" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I352" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A353" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D353" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E353" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="F353" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G353" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I353" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A354" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B354" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D354" s="5">
+        <v>2012</v>
+      </c>
+      <c r="E354" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F354" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G354" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I354" s="10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A355" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D355" s="5">
+        <v>2009</v>
+      </c>
+      <c r="E355" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F355" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G355" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H355" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I355" s="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A356" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B356" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D356" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E356" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F356" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G356" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H356" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I356" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D347" s="5">
+      <c r="D357" s="5">
         <v>2016</v>
       </c>
-      <c r="E347" s="9" t="s">
+      <c r="E357" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F347" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G347" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I347" s="10">
+      <c r="F357" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G357" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I357" s="10">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:L347" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L347">
-      <sortCondition ref="C1:C347"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L357">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L169">

--- a/src/data/database.xlsx
+++ b/src/data/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\DABAD\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85476746-5D28-4BBD-AB99-F7E7658019AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D071D27-11EF-420E-9913-7BEEBE416CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="605">
   <si>
     <t>Title</t>
   </si>
@@ -1834,6 +1834,15 @@
   </si>
   <si>
     <t>Stephen Soderbergh</t>
+  </si>
+  <si>
+    <t>The Last Duel</t>
+  </si>
+  <si>
+    <t>Jodie Comer</t>
+  </si>
+  <si>
+    <t>Jurassic World: Dominion</t>
   </si>
 </sst>
 </file>
@@ -2224,11 +2233,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L357"/>
+  <dimension ref="A1:L359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5861,7 +5870,7 @@
         <v>422</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I133" s="10">
         <v>127</v>
@@ -5890,7 +5899,7 @@
         <v>422</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I134" s="10">
         <v>96</v>
@@ -5919,7 +5928,7 @@
         <v>422</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I135" s="10">
         <v>124</v>
@@ -5933,13 +5942,13 @@
         <v>49</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>106</v>
+        <v>604</v>
       </c>
       <c r="D136" s="5">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F136" s="9" t="s">
         <v>422</v>
@@ -5948,10 +5957,10 @@
         <v>422</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I136" s="10">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -5962,51 +5971,51 @@
         <v>49</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>513</v>
+        <v>106</v>
       </c>
       <c r="D137" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>515</v>
+        <v>104</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I137" s="10">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>590</v>
+        <v>513</v>
       </c>
       <c r="D138" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>591</v>
+        <v>515</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H138" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I138" s="10">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -6017,10 +6026,10 @@
         <v>7</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D139" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>591</v>
@@ -6046,10 +6055,10 @@
         <v>7</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D140" s="5">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>591</v>
@@ -6075,10 +6084,10 @@
         <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D141" s="5">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>591</v>
@@ -6098,19 +6107,19 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>314</v>
+        <v>594</v>
       </c>
       <c r="D142" s="5">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>84</v>
+        <v>591</v>
       </c>
       <c r="F142" s="9" t="s">
         <v>422</v>
@@ -6119,10 +6128,10 @@
         <v>422</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I142" s="10">
-        <v>135</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -6133,10 +6142,10 @@
         <v>7</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="D143" s="5">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>84</v>
@@ -6151,7 +6160,7 @@
         <v>420</v>
       </c>
       <c r="I143" s="10">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -6159,25 +6168,28 @@
         <v>416</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="D144" s="5">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F144" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G144" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H144" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I144" s="10">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -6188,22 +6200,22 @@
         <v>49</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="D145" s="5">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I145" s="10">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -6211,25 +6223,25 @@
         <v>416</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>488</v>
+        <v>49</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="D146" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G146" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I146" s="10">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -6237,16 +6249,16 @@
         <v>416</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>7</v>
+        <v>488</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>545</v>
+        <v>232</v>
       </c>
       <c r="D147" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>546</v>
+        <v>234</v>
       </c>
       <c r="F147" s="9" t="s">
         <v>422</v>
@@ -6255,7 +6267,7 @@
         <v>420</v>
       </c>
       <c r="I147" s="10">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -6266,13 +6278,13 @@
         <v>7</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="D148" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>376</v>
+        <v>546</v>
       </c>
       <c r="F148" s="9" t="s">
         <v>422</v>
@@ -6281,7 +6293,7 @@
         <v>420</v>
       </c>
       <c r="I148" s="10">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -6292,13 +6304,13 @@
         <v>7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>398</v>
+        <v>509</v>
       </c>
       <c r="D149" s="5">
         <v>2019</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="F149" s="9" t="s">
         <v>422</v>
@@ -6307,7 +6319,7 @@
         <v>420</v>
       </c>
       <c r="I149" s="10">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -6315,16 +6327,16 @@
         <v>416</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>295</v>
+        <v>398</v>
       </c>
       <c r="D150" s="5">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="F150" s="9" t="s">
         <v>422</v>
@@ -6333,7 +6345,7 @@
         <v>420</v>
       </c>
       <c r="I150" s="10">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -6344,13 +6356,13 @@
         <v>49</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D151" s="5">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F151" s="9" t="s">
         <v>422</v>
@@ -6359,7 +6371,7 @@
         <v>420</v>
       </c>
       <c r="I151" s="10">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -6367,16 +6379,16 @@
         <v>416</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>33</v>
+        <v>309</v>
       </c>
       <c r="D152" s="5">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="F152" s="9" t="s">
         <v>422</v>
@@ -6385,7 +6397,7 @@
         <v>420</v>
       </c>
       <c r="I152" s="10">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -6396,13 +6408,13 @@
         <v>7</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="D153" s="5">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="F153" s="9" t="s">
         <v>422</v>
@@ -6411,7 +6423,7 @@
         <v>420</v>
       </c>
       <c r="I153" s="10">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -6422,22 +6434,22 @@
         <v>7</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>444</v>
+        <v>184</v>
       </c>
       <c r="D154" s="5">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>448</v>
+        <v>98</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G154" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I154" s="10">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -6448,22 +6460,22 @@
         <v>7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>527</v>
+        <v>444</v>
       </c>
       <c r="D155" s="5">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>200</v>
+        <v>448</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G155" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I155" s="10">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -6471,28 +6483,25 @@
         <v>416</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D156" s="5">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>534</v>
+        <v>200</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H156" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I156" s="10">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -6500,19 +6509,19 @@
         <v>416</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="D157" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>492</v>
+        <v>534</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G157" s="10" t="s">
         <v>422</v>
@@ -6521,7 +6530,7 @@
         <v>420</v>
       </c>
       <c r="I157" s="10">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -6532,13 +6541,13 @@
         <v>7</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="D158" s="5">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="F158" s="9" t="s">
         <v>422</v>
@@ -6550,7 +6559,7 @@
         <v>420</v>
       </c>
       <c r="I158" s="10">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -6561,13 +6570,13 @@
         <v>7</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>489</v>
+        <v>438</v>
       </c>
       <c r="D159" s="5">
-        <v>1964</v>
+        <v>2008</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>493</v>
+        <v>440</v>
       </c>
       <c r="F159" s="9" t="s">
         <v>422</v>
@@ -6576,10 +6585,10 @@
         <v>422</v>
       </c>
       <c r="H159" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I159" s="10">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -6590,13 +6599,13 @@
         <v>7</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="D160" s="5">
-        <v>2018</v>
+        <v>1964</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>238</v>
+        <v>493</v>
       </c>
       <c r="F160" s="9" t="s">
         <v>422</v>
@@ -6608,7 +6617,7 @@
         <v>422</v>
       </c>
       <c r="I160" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -6619,25 +6628,25 @@
         <v>7</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>396</v>
+        <v>325</v>
       </c>
       <c r="D161" s="5">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G161" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H161" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I161" s="10">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -6648,16 +6657,16 @@
         <v>7</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>256</v>
+        <v>396</v>
       </c>
       <c r="D162" s="5">
         <v>2015</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G162" s="10" t="s">
         <v>422</v>
@@ -6666,24 +6675,24 @@
         <v>420</v>
       </c>
       <c r="I162" s="10">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="D163" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="F163" s="9" t="s">
         <v>422</v>
@@ -6692,27 +6701,27 @@
         <v>422</v>
       </c>
       <c r="H163" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I163" s="10">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D164" s="5">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F164" s="9" t="s">
         <v>422</v>
@@ -6724,7 +6733,7 @@
         <v>422</v>
       </c>
       <c r="I164" s="10">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -6735,22 +6744,25 @@
         <v>7</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>213</v>
+        <v>9</v>
       </c>
       <c r="D165" s="5">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="F165" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I165" s="10">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -6761,25 +6773,22 @@
         <v>7</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="D166" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="F166" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H166" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I166" s="10">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -6790,10 +6799,10 @@
         <v>7</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>537</v>
+        <v>285</v>
       </c>
       <c r="D167" s="5">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>286</v>
@@ -6808,7 +6817,7 @@
         <v>420</v>
       </c>
       <c r="I167" s="10">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -6819,22 +6828,25 @@
         <v>7</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>207</v>
+        <v>537</v>
       </c>
       <c r="D168" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="F168" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G168" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H168" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I168" s="10">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -6845,25 +6857,22 @@
         <v>7</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>539</v>
+        <v>207</v>
       </c>
       <c r="D169" s="5">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="F169" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H169" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I169" s="10">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -6874,13 +6883,13 @@
         <v>7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="D170" s="5">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F170" s="9" t="s">
         <v>422</v>
@@ -6892,7 +6901,7 @@
         <v>422</v>
       </c>
       <c r="I170" s="10">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -6903,39 +6912,42 @@
         <v>7</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>371</v>
+        <v>578</v>
       </c>
       <c r="D171" s="5">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>372</v>
+        <v>248</v>
       </c>
       <c r="F171" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H171" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I171" s="10">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>450</v>
+        <v>371</v>
       </c>
       <c r="D172" s="5">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>449</v>
+        <v>372</v>
       </c>
       <c r="F172" s="9" t="s">
         <v>422</v>
@@ -6944,24 +6956,24 @@
         <v>420</v>
       </c>
       <c r="I172" s="10">
-        <v>25</v>
+        <v>123</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>28</v>
+        <v>450</v>
       </c>
       <c r="D173" s="5">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>29</v>
+        <v>449</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>422</v>
@@ -6970,7 +6982,7 @@
         <v>420</v>
       </c>
       <c r="I173" s="10">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -6981,13 +6993,13 @@
         <v>7</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="D174" s="5">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="F174" s="9" t="s">
         <v>422</v>
@@ -6996,7 +7008,7 @@
         <v>420</v>
       </c>
       <c r="I174" s="10">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -7007,13 +7019,13 @@
         <v>7</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="D175" s="5">
-        <v>1976</v>
+        <v>2012</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="F175" s="9" t="s">
         <v>422</v>
@@ -7022,7 +7034,7 @@
         <v>420</v>
       </c>
       <c r="I175" s="10">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -7030,16 +7042,16 @@
         <v>416</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D176" s="5">
-        <v>2017</v>
+        <v>1976</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F176" s="9" t="s">
         <v>422</v>
@@ -7048,7 +7060,7 @@
         <v>420</v>
       </c>
       <c r="I176" s="10">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -7056,16 +7068,16 @@
         <v>416</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D177" s="5">
-        <v>1974</v>
+        <v>2017</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F177" s="9" t="s">
         <v>422</v>
@@ -7074,7 +7086,7 @@
         <v>420</v>
       </c>
       <c r="I177" s="10">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -7085,13 +7097,13 @@
         <v>7</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D178" s="5">
-        <v>2013</v>
+        <v>1974</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>506</v>
+        <v>53</v>
       </c>
       <c r="F178" s="9" t="s">
         <v>422</v>
@@ -7100,7 +7112,7 @@
         <v>420</v>
       </c>
       <c r="I178" s="10">
-        <v>40</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -7111,25 +7123,22 @@
         <v>7</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="D179" s="5">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>135</v>
+        <v>506</v>
       </c>
       <c r="F179" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H179" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I179" s="10">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -7140,10 +7149,10 @@
         <v>7</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D180" s="5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>135</v>
@@ -7158,7 +7167,7 @@
         <v>420</v>
       </c>
       <c r="I180" s="10">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -7166,25 +7175,28 @@
         <v>416</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>369</v>
+        <v>136</v>
       </c>
       <c r="D181" s="5">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>370</v>
+        <v>135</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G181" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H181" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I181" s="10">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -7195,25 +7207,22 @@
         <v>49</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>48</v>
+        <v>369</v>
       </c>
       <c r="D182" s="5">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>47</v>
+        <v>370</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H182" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I182" s="10">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -7221,16 +7230,16 @@
         <v>416</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>598</v>
+        <v>48</v>
       </c>
       <c r="D183" s="5">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>601</v>
+        <v>47</v>
       </c>
       <c r="F183" s="9" t="s">
         <v>422</v>
@@ -7242,7 +7251,7 @@
         <v>422</v>
       </c>
       <c r="I183" s="10">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -7253,10 +7262,10 @@
         <v>7</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D184" s="5">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>601</v>
@@ -7271,7 +7280,7 @@
         <v>422</v>
       </c>
       <c r="I184" s="10">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -7282,10 +7291,10 @@
         <v>7</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D185" s="5">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>601</v>
@@ -7300,7 +7309,7 @@
         <v>422</v>
       </c>
       <c r="I185" s="10">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -7311,51 +7320,51 @@
         <v>7</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>224</v>
+        <v>599</v>
       </c>
       <c r="D186" s="5">
-        <v>1975</v>
+        <v>2004</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>225</v>
+        <v>601</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H186" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I186" s="10">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>468</v>
+        <v>224</v>
       </c>
       <c r="D187" s="5">
-        <v>2003</v>
+        <v>1975</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>477</v>
+        <v>225</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H187" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I187" s="10">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -7366,10 +7375,10 @@
         <v>7</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D188" s="5">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>477</v>
@@ -7395,10 +7404,10 @@
         <v>7</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D189" s="5">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>477</v>
@@ -7424,10 +7433,10 @@
         <v>7</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D190" s="5">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>477</v>
@@ -7453,10 +7462,10 @@
         <v>7</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D191" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>477</v>
@@ -7482,7 +7491,7 @@
         <v>7</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D192" s="5">
         <v>2008</v>
@@ -7511,10 +7520,10 @@
         <v>7</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D193" s="5">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>477</v>
@@ -7540,10 +7549,10 @@
         <v>7</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D194" s="5">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>477</v>
@@ -7569,10 +7578,10 @@
         <v>7</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D195" s="5">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>477</v>
@@ -7592,28 +7601,31 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>388</v>
+        <v>476</v>
       </c>
       <c r="D196" s="5">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>390</v>
+        <v>477</v>
       </c>
       <c r="F196" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H196" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I196" s="10">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -7624,13 +7636,13 @@
         <v>7</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="D197" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>422</v>
@@ -7639,7 +7651,7 @@
         <v>420</v>
       </c>
       <c r="I197" s="10">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -7647,16 +7659,16 @@
         <v>416</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>171</v>
+        <v>319</v>
       </c>
       <c r="D198" s="5">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>172</v>
+        <v>320</v>
       </c>
       <c r="F198" s="9" t="s">
         <v>422</v>
@@ -7665,7 +7677,7 @@
         <v>420</v>
       </c>
       <c r="I198" s="10">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -7673,28 +7685,25 @@
         <v>416</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D199" s="5">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="F199" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H199" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I199" s="10">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -7705,13 +7714,13 @@
         <v>7</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D200" s="5">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F200" s="9" t="s">
         <v>422</v>
@@ -7723,7 +7732,7 @@
         <v>422</v>
       </c>
       <c r="I200" s="10">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -7734,13 +7743,13 @@
         <v>7</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="D201" s="5">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="F201" s="9" t="s">
         <v>422</v>
@@ -7749,10 +7758,10 @@
         <v>422</v>
       </c>
       <c r="H201" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I201" s="10">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -7763,13 +7772,13 @@
         <v>7</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="D202" s="5">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="F202" s="9" t="s">
         <v>422</v>
@@ -7778,10 +7787,10 @@
         <v>422</v>
       </c>
       <c r="H202" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I202" s="10">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -7792,13 +7801,13 @@
         <v>7</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D203" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F203" s="9" t="s">
         <v>422</v>
@@ -7810,7 +7819,7 @@
         <v>422</v>
       </c>
       <c r="I203" s="10">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -7821,13 +7830,13 @@
         <v>7</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D204" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F204" s="9" t="s">
         <v>422</v>
@@ -7839,7 +7848,7 @@
         <v>422</v>
       </c>
       <c r="I204" s="10">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -7850,19 +7859,22 @@
         <v>7</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>430</v>
+        <v>13</v>
       </c>
       <c r="D205" s="5">
-        <v>1987</v>
+        <v>2017</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>431</v>
+        <v>24</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H205" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I205" s="10">
         <v>89</v>
@@ -7876,25 +7888,22 @@
         <v>7</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>274</v>
+        <v>430</v>
       </c>
       <c r="D206" s="5">
-        <v>1968</v>
+        <v>1987</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>275</v>
+        <v>431</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H206" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I206" s="10">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -7905,22 +7914,25 @@
         <v>7</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>60</v>
+        <v>274</v>
       </c>
       <c r="D207" s="5">
-        <v>2016</v>
+        <v>1968</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>61</v>
+        <v>275</v>
       </c>
       <c r="F207" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H207" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I207" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -7928,16 +7940,16 @@
         <v>416</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="D208" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="F208" s="9" t="s">
         <v>422</v>
@@ -7946,7 +7958,7 @@
         <v>420</v>
       </c>
       <c r="I208" s="10">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -7954,24 +7966,21 @@
         <v>416</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>411</v>
+        <v>182</v>
       </c>
       <c r="D209" s="5">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H209" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I209" s="10">
@@ -7986,16 +7995,16 @@
         <v>7</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>41</v>
+        <v>411</v>
       </c>
       <c r="D210" s="5">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G210" s="10" t="s">
         <v>422</v>
@@ -8004,7 +8013,7 @@
         <v>420</v>
       </c>
       <c r="I210" s="10">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -8015,13 +8024,13 @@
         <v>7</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="D211" s="5">
-        <v>1981</v>
+        <v>2014</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>422</v>
@@ -8030,10 +8039,10 @@
         <v>422</v>
       </c>
       <c r="H211" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I211" s="10">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -8044,22 +8053,25 @@
         <v>7</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D212" s="5">
-        <v>2001</v>
+        <v>1981</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="F212" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H212" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I212" s="10">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -8070,13 +8082,13 @@
         <v>7</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="D213" s="5">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="F213" s="9" t="s">
         <v>422</v>
@@ -8085,7 +8097,7 @@
         <v>420</v>
       </c>
       <c r="I213" s="10">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -8093,16 +8105,16 @@
         <v>416</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
       <c r="D214" s="5">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="F214" s="9" t="s">
         <v>422</v>
@@ -8111,7 +8123,7 @@
         <v>420</v>
       </c>
       <c r="I214" s="10">
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -8119,16 +8131,16 @@
         <v>416</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>140</v>
+        <v>520</v>
       </c>
       <c r="D215" s="5">
         <v>2018</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>422</v>
@@ -8137,7 +8149,7 @@
         <v>420</v>
       </c>
       <c r="I215" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -8145,25 +8157,25 @@
         <v>416</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>501</v>
+        <v>140</v>
       </c>
       <c r="D216" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>502</v>
+        <v>139</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G216" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I216" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -8174,25 +8186,22 @@
         <v>49</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>343</v>
+        <v>501</v>
       </c>
       <c r="D217" s="5">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>344</v>
+        <v>502</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H217" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I217" s="10">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -8200,25 +8209,28 @@
         <v>416</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>544</v>
+        <v>343</v>
       </c>
       <c r="D218" s="5">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>36</v>
+        <v>344</v>
       </c>
       <c r="F218" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G218" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H218" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I218" s="10">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -8229,13 +8241,13 @@
         <v>7</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>203</v>
+        <v>544</v>
       </c>
       <c r="D219" s="5">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="F219" s="9" t="s">
         <v>422</v>
@@ -8244,7 +8256,7 @@
         <v>420</v>
       </c>
       <c r="I219" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -8255,65 +8267,65 @@
         <v>7</v>
       </c>
       <c r="C220" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D220" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G220" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I220" s="10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D220" s="5">
+      <c r="D221" s="5">
         <v>2011</v>
       </c>
-      <c r="E220" s="9" t="s">
+      <c r="E221" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F220" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G220" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I220" s="10">
+      <c r="F221" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G221" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I221" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" s="3" t="s">
+    <row r="222" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="D221" s="5">
-        <v>2004</v>
-      </c>
-      <c r="E221" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="F221" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G221" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I221" s="10">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D222" s="5">
         <v>2004</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>353</v>
+        <v>482</v>
       </c>
       <c r="F222" s="9" t="s">
         <v>422</v>
@@ -8322,7 +8334,7 @@
         <v>420</v>
       </c>
       <c r="I222" s="10">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -8333,13 +8345,13 @@
         <v>7</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>143</v>
+        <v>354</v>
       </c>
       <c r="D223" s="5">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="F223" s="9" t="s">
         <v>422</v>
@@ -8348,7 +8360,7 @@
         <v>420</v>
       </c>
       <c r="I223" s="10">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -8359,25 +8371,22 @@
         <v>7</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>442</v>
+        <v>143</v>
       </c>
       <c r="D224" s="5">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F224" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G224" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H224" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I224" s="10">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -8388,13 +8397,13 @@
         <v>7</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>264</v>
+        <v>442</v>
       </c>
       <c r="D225" s="5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>422</v>
@@ -8406,7 +8415,7 @@
         <v>420</v>
       </c>
       <c r="I225" s="10">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -8417,22 +8426,25 @@
         <v>7</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>432</v>
+        <v>264</v>
       </c>
       <c r="D226" s="5">
-        <v>1952</v>
+        <v>2016</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>434</v>
+        <v>265</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G226" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H226" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I226" s="10">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -8443,25 +8455,22 @@
         <v>7</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="D227" s="5">
-        <v>1992</v>
+        <v>1952</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G227" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H227" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I227" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -8472,13 +8481,13 @@
         <v>7</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D228" s="5">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F228" s="9" t="s">
         <v>422</v>
@@ -8490,7 +8499,7 @@
         <v>422</v>
       </c>
       <c r="I228" s="10">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -8501,25 +8510,25 @@
         <v>7</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D229" s="5">
-        <v>2012</v>
+        <v>1993</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G229" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H229" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I229" s="10">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -8530,10 +8539,10 @@
         <v>7</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D230" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E230" s="9" t="s">
         <v>414</v>
@@ -8548,7 +8557,7 @@
         <v>420</v>
       </c>
       <c r="I230" s="10">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -8559,25 +8568,25 @@
         <v>7</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>107</v>
+        <v>413</v>
       </c>
       <c r="D231" s="5">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>110</v>
+        <v>414</v>
       </c>
       <c r="F231" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G231" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H231" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I231" s="10">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -8588,10 +8597,10 @@
         <v>7</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D232" s="5">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E232" s="9" t="s">
         <v>110</v>
@@ -8606,7 +8615,7 @@
         <v>422</v>
       </c>
       <c r="I232" s="10">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -8617,10 +8626,10 @@
         <v>7</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D233" s="5">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E233" s="9" t="s">
         <v>110</v>
@@ -8635,7 +8644,7 @@
         <v>422</v>
       </c>
       <c r="I233" s="10">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -8646,13 +8655,13 @@
         <v>7</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D234" s="5">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F234" s="9" t="s">
         <v>422</v>
@@ -8661,10 +8670,10 @@
         <v>422</v>
       </c>
       <c r="H234" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I234" s="10">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -8675,13 +8684,13 @@
         <v>7</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>362</v>
+        <v>114</v>
       </c>
       <c r="D235" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>363</v>
+        <v>115</v>
       </c>
       <c r="F235" s="9" t="s">
         <v>422</v>
@@ -8690,10 +8699,10 @@
         <v>422</v>
       </c>
       <c r="H235" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I235" s="10">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -8704,13 +8713,13 @@
         <v>7</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>68</v>
+        <v>362</v>
       </c>
       <c r="D236" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>69</v>
+        <v>363</v>
       </c>
       <c r="F236" s="9" t="s">
         <v>422</v>
@@ -8727,19 +8736,19 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>460</v>
+        <v>68</v>
       </c>
       <c r="D237" s="5">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c r="F237" s="9" t="s">
         <v>422</v>
@@ -8751,7 +8760,7 @@
         <v>422</v>
       </c>
       <c r="I237" s="10">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -8762,10 +8771,10 @@
         <v>7</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D238" s="5">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E238" s="9" t="s">
         <v>313</v>
@@ -8791,10 +8800,10 @@
         <v>7</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D239" s="5">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E239" s="9" t="s">
         <v>313</v>
@@ -8820,10 +8829,10 @@
         <v>7</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D240" s="5">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="E240" s="9" t="s">
         <v>313</v>
@@ -8849,10 +8858,10 @@
         <v>7</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D241" s="5">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E241" s="9" t="s">
         <v>313</v>
@@ -8878,10 +8887,10 @@
         <v>7</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D242" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E242" s="9" t="s">
         <v>313</v>
@@ -8907,10 +8916,10 @@
         <v>7</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D243" s="5">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E243" s="9" t="s">
         <v>313</v>
@@ -8936,10 +8945,10 @@
         <v>7</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D244" s="5">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>313</v>
@@ -8959,19 +8968,19 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D245" s="5">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F245" s="9" t="s">
         <v>422</v>
@@ -8980,10 +8989,10 @@
         <v>422</v>
       </c>
       <c r="H245" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I245" s="10">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -8994,10 +9003,10 @@
         <v>49</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>95</v>
+        <v>483</v>
       </c>
       <c r="D246" s="5">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E246" s="9" t="s">
         <v>96</v>
@@ -9012,7 +9021,7 @@
         <v>420</v>
       </c>
       <c r="I246" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -9023,13 +9032,13 @@
         <v>49</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D247" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F247" s="9" t="s">
         <v>422</v>
@@ -9041,7 +9050,7 @@
         <v>420</v>
       </c>
       <c r="I247" s="10">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -9049,16 +9058,16 @@
         <v>416</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>458</v>
+        <v>97</v>
       </c>
       <c r="D248" s="5">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>459</v>
+        <v>98</v>
       </c>
       <c r="F248" s="9" t="s">
         <v>422</v>
@@ -9067,10 +9076,10 @@
         <v>422</v>
       </c>
       <c r="H248" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I248" s="10">
-        <v>98</v>
+        <v>152</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -9081,13 +9090,13 @@
         <v>7</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D249" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>284</v>
+        <v>459</v>
       </c>
       <c r="F249" s="9" t="s">
         <v>422</v>
@@ -9110,10 +9119,10 @@
         <v>7</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D250" s="5">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E250" s="9" t="s">
         <v>284</v>
@@ -9128,7 +9137,7 @@
         <v>422</v>
       </c>
       <c r="I250" s="10">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -9139,13 +9148,13 @@
         <v>7</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>231</v>
+        <v>455</v>
       </c>
       <c r="D251" s="5">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>24</v>
+        <v>284</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>422</v>
@@ -9157,7 +9166,7 @@
         <v>422</v>
       </c>
       <c r="I251" s="10">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -9168,77 +9177,80 @@
         <v>7</v>
       </c>
       <c r="C252" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D252" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F252" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G252" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H252" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I252" s="10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D252" s="5">
+      <c r="D253" s="5">
         <v>2012</v>
       </c>
-      <c r="E252" s="9" t="s">
+      <c r="E253" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="F252" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G252" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H252" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="I252" s="10">
+      <c r="F253" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G253" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H253" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I253" s="10">
         <v>95</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A253" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C253" s="3" t="s">
+    <row r="254" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D253" s="5">
+      <c r="D254" s="5">
         <v>2014</v>
       </c>
-      <c r="E253" s="9" t="s">
+      <c r="E254" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F253" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G253" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I253" s="10">
+      <c r="F254" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G254" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I254" s="10">
         <v>97</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A254" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D254" s="5">
-        <v>2017</v>
-      </c>
-      <c r="E254" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F254" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="G254" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I254" s="10">
-        <v>114</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -9249,13 +9261,13 @@
         <v>7</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>497</v>
+        <v>299</v>
       </c>
       <c r="D255" s="5">
         <v>2017</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>498</v>
+        <v>300</v>
       </c>
       <c r="F255" s="9" t="s">
         <v>420</v>
@@ -9264,7 +9276,7 @@
         <v>420</v>
       </c>
       <c r="I255" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -9275,22 +9287,22 @@
         <v>7</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>287</v>
+        <v>497</v>
       </c>
       <c r="D256" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>288</v>
+        <v>498</v>
       </c>
       <c r="F256" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G256" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I256" s="10">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -9301,22 +9313,22 @@
         <v>7</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="D257" s="5">
-        <v>1941</v>
+        <v>2016</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G257" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I257" s="10">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -9327,22 +9339,22 @@
         <v>7</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="D258" s="5">
-        <v>2015</v>
+        <v>1941</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="F258" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G258" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I258" s="10">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -9353,13 +9365,13 @@
         <v>7</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>495</v>
+        <v>379</v>
       </c>
       <c r="D259" s="5">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="F259" s="9" t="s">
         <v>422</v>
@@ -9368,7 +9380,7 @@
         <v>420</v>
       </c>
       <c r="I259" s="10">
-        <v>144</v>
+        <v>79</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -9379,13 +9391,13 @@
         <v>7</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>73</v>
+        <v>495</v>
       </c>
       <c r="D260" s="5">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="F260" s="9" t="s">
         <v>422</v>
@@ -9394,7 +9406,7 @@
         <v>420</v>
       </c>
       <c r="I260" s="10">
-        <v>91</v>
+        <v>144</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -9405,13 +9417,13 @@
         <v>7</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D261" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F261" s="9" t="s">
         <v>422</v>
@@ -9420,7 +9432,7 @@
         <v>420</v>
       </c>
       <c r="I261" s="10">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -9431,13 +9443,13 @@
         <v>7</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="D262" s="5">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>536</v>
+        <v>80</v>
       </c>
       <c r="F262" s="9" t="s">
         <v>422</v>
@@ -9446,7 +9458,7 @@
         <v>420</v>
       </c>
       <c r="I262" s="10">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -9457,25 +9469,22 @@
         <v>7</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>111</v>
+        <v>532</v>
       </c>
       <c r="D263" s="5">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>112</v>
+        <v>536</v>
       </c>
       <c r="F263" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H263" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I263" s="10">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -9486,10 +9495,10 @@
         <v>7</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D264" s="5">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E264" s="9" t="s">
         <v>112</v>
@@ -9504,7 +9513,7 @@
         <v>422</v>
       </c>
       <c r="I264" s="10">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -9512,25 +9521,28 @@
         <v>416</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>453</v>
+        <v>113</v>
       </c>
       <c r="D265" s="5">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>393</v>
+        <v>112</v>
       </c>
       <c r="F265" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H265" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I265" s="10">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -9538,16 +9550,16 @@
         <v>416</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>585</v>
+        <v>453</v>
       </c>
       <c r="D266" s="5">
-        <v>1985</v>
+        <v>1998</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="F266" s="9" t="s">
         <v>422</v>
@@ -9556,7 +9568,7 @@
         <v>420</v>
       </c>
       <c r="I266" s="10">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -9567,22 +9579,22 @@
         <v>7</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>531</v>
+        <v>585</v>
       </c>
       <c r="D267" s="5">
-        <v>2009</v>
+        <v>1985</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>188</v>
+        <v>431</v>
       </c>
       <c r="F267" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G267" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I267" s="10">
-        <v>159</v>
+        <v>93</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -9593,25 +9605,22 @@
         <v>7</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="D268" s="5">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="F268" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G268" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H268" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I268" s="10">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -9622,13 +9631,13 @@
         <v>7</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>128</v>
+        <v>480</v>
       </c>
       <c r="D269" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="F269" s="9" t="s">
         <v>422</v>
@@ -9637,10 +9646,10 @@
         <v>422</v>
       </c>
       <c r="H269" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I269" s="10">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -9651,10 +9660,10 @@
         <v>7</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D270" s="5">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="E270" s="9" t="s">
         <v>129</v>
@@ -9669,7 +9678,7 @@
         <v>422</v>
       </c>
       <c r="I270" s="10">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -9677,25 +9686,28 @@
         <v>416</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>273</v>
+        <v>130</v>
       </c>
       <c r="D271" s="5">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="F271" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H271" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I271" s="10">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -9703,16 +9715,16 @@
         <v>416</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="D272" s="5">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>318</v>
+        <v>187</v>
       </c>
       <c r="F272" s="9" t="s">
         <v>422</v>
@@ -9721,7 +9733,7 @@
         <v>420</v>
       </c>
       <c r="I272" s="10">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -9732,13 +9744,13 @@
         <v>7</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>385</v>
+        <v>317</v>
       </c>
       <c r="D273" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="F273" s="9" t="s">
         <v>422</v>
@@ -9747,7 +9759,7 @@
         <v>420</v>
       </c>
       <c r="I273" s="10">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -9755,25 +9767,25 @@
         <v>416</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="D274" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G274" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I274" s="10">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -9781,54 +9793,51 @@
         <v>416</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="D275" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G275" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I275" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B276" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="D276" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>584</v>
+        <v>216</v>
       </c>
       <c r="F276" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G276" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H276" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I276" s="10">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -9839,10 +9848,10 @@
         <v>7</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D277" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E277" s="9" t="s">
         <v>584</v>
@@ -9868,10 +9877,10 @@
         <v>7</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D278" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E278" s="9" t="s">
         <v>584</v>
@@ -9897,16 +9906,16 @@
         <v>7</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D279" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E279" s="9" t="s">
         <v>584</v>
       </c>
       <c r="F279" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G279" s="10" t="s">
         <v>422</v>
@@ -9920,28 +9929,31 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>222</v>
+        <v>583</v>
       </c>
       <c r="D280" s="5">
-        <v>1985</v>
+        <v>2019</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>223</v>
+        <v>584</v>
       </c>
       <c r="F280" s="9" t="s">
         <v>420</v>
       </c>
       <c r="G280" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H280" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I280" s="10">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -9949,25 +9961,25 @@
         <v>416</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="D281" s="5">
-        <v>2014</v>
+        <v>1985</v>
       </c>
       <c r="E281" s="9" t="s">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="F281" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G281" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I281" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -9978,13 +9990,13 @@
         <v>49</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="D282" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="F282" s="9" t="s">
         <v>422</v>
@@ -9993,7 +10005,7 @@
         <v>420</v>
       </c>
       <c r="I282" s="10">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -10001,16 +10013,16 @@
         <v>416</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="D283" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="F283" s="9" t="s">
         <v>422</v>
@@ -10019,7 +10031,7 @@
         <v>420</v>
       </c>
       <c r="I283" s="10">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -10027,25 +10039,25 @@
         <v>416</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>503</v>
+        <v>199</v>
       </c>
       <c r="D284" s="5">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G284" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I284" s="10">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -10053,25 +10065,25 @@
         <v>416</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>433</v>
+        <v>503</v>
       </c>
       <c r="D285" s="5">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>218</v>
+        <v>399</v>
       </c>
       <c r="F285" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G285" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I285" s="10">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -10082,13 +10094,13 @@
         <v>7</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="D286" s="5">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>352</v>
+        <v>218</v>
       </c>
       <c r="F286" s="9" t="s">
         <v>422</v>
@@ -10097,7 +10109,7 @@
         <v>420</v>
       </c>
       <c r="I286" s="10">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -10108,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="D287" s="5">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="F287" s="9" t="s">
         <v>422</v>
@@ -10123,7 +10135,7 @@
         <v>420</v>
       </c>
       <c r="I287" s="10">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -10134,68 +10146,65 @@
         <v>7</v>
       </c>
       <c r="C288" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D288" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E288" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F288" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G288" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I288" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D288" s="5">
+      <c r="D289" s="5">
         <v>2012</v>
       </c>
-      <c r="E288" s="9" t="s">
+      <c r="E289" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F288" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G288" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H288" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="I288" s="10">
+      <c r="F289" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G289" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H289" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I289" s="10">
         <v>137</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A289" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B289" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C289" s="3" t="s">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D289" s="5">
+      <c r="D290" s="5">
         <v>2013</v>
-      </c>
-      <c r="E289" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F289" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G289" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H289" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="I289" s="10">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A290" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B290" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D290" s="5">
-        <v>2014</v>
       </c>
       <c r="E290" s="9" t="s">
         <v>139</v>
@@ -10210,10 +10219,10 @@
         <v>422</v>
       </c>
       <c r="I290" s="10">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>416</v>
       </c>
@@ -10221,10 +10230,10 @@
         <v>7</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D291" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E291" s="9" t="s">
         <v>139</v>
@@ -10239,192 +10248,195 @@
         <v>422</v>
       </c>
       <c r="I291" s="10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D292" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F292" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G292" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H292" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I292" s="10">
         <v>132</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A292" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B292" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C292" s="3" t="s">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D292" s="5">
+      <c r="D293" s="5">
         <v>2016</v>
       </c>
-      <c r="E292" s="9" t="s">
+      <c r="E293" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F292" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G292" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H292" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I292" s="10">
+      <c r="F293" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G293" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H293" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I293" s="10">
         <v>109</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A293" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B293" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C293" s="3" t="s">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D293" s="5">
+      <c r="D294" s="5">
         <v>2019</v>
       </c>
-      <c r="E293" s="9" t="s">
+      <c r="E294" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="F293" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G293" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I293" s="10">
+      <c r="F294" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G294" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I294" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A294" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B294" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C294" s="3" t="s">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D294" s="5">
+      <c r="D295" s="5">
         <v>2014</v>
       </c>
-      <c r="E294" s="9" t="s">
+      <c r="E295" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F294" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G294" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I294" s="10">
+      <c r="F295" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G295" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I295" s="10">
         <v>110</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A295" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C295" s="3" t="s">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D295" s="5">
+      <c r="D296" s="5">
         <v>2015</v>
       </c>
-      <c r="E295" s="9" t="s">
+      <c r="E296" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="F295" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G295" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I295" s="10">
+      <c r="F296" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G296" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I296" s="10">
         <v>117</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B296" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C296" s="3" t="s">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D296" s="5">
+      <c r="D297" s="5">
         <v>2017</v>
       </c>
-      <c r="E296" s="9" t="s">
+      <c r="E297" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="F296" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="I296" s="10">
+      <c r="F297" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="I297" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B297" s="7" t="s">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B298" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D297" s="5">
+      <c r="D298" s="5">
         <v>2010</v>
       </c>
-      <c r="E297" s="9" t="s">
+      <c r="E298" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F297" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G297" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I297" s="10">
+      <c r="F298" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G298" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I298" s="10">
         <v>140</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A298" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B298" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D298" s="5">
-        <v>2007</v>
-      </c>
-      <c r="E298" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="F298" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="G298" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I298" s="10">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>416</v>
       </c>
@@ -10432,80 +10444,80 @@
         <v>49</v>
       </c>
       <c r="C299" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D299" s="5">
+        <v>2021</v>
+      </c>
+      <c r="E299" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F299" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G299" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I299" s="10">
+        <v>152</v>
+      </c>
+      <c r="K299" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D300" s="5">
+        <v>2007</v>
+      </c>
+      <c r="E300" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F300" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G300" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I300" s="10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="D299" s="5">
+      <c r="D301" s="5">
         <v>2016</v>
       </c>
-      <c r="E299" s="9" t="s">
+      <c r="E301" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F299" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G299" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I299" s="10">
+      <c r="F301" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G301" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I301" s="10">
         <v>110</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B300" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D300" s="5">
-        <v>2016</v>
-      </c>
-      <c r="E300" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="F300" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="G300" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I300" s="10">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A301" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B301" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D301" s="5">
-        <v>1997</v>
-      </c>
-      <c r="E301" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F301" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G301" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H301" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="I301" s="10">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>416</v>
       </c>
@@ -10513,77 +10525,77 @@
         <v>49</v>
       </c>
       <c r="C302" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D302" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E302" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F302" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G302" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I302" s="10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D303" s="5">
+        <v>1997</v>
+      </c>
+      <c r="E303" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F303" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G303" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H303" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I303" s="10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D302" s="5">
+      <c r="D304" s="5">
         <v>2015</v>
       </c>
-      <c r="E302" s="9" t="s">
+      <c r="E304" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F302" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G302" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I302" s="10">
+      <c r="F304" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G304" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I304" s="10">
         <v>142</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A303" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D303" s="5">
-        <v>2021</v>
-      </c>
-      <c r="E303" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="F303" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G303" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I303" s="10">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A304" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B304" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D304" s="5">
-        <v>2014</v>
-      </c>
-      <c r="E304" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F304" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G304" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H304" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I304" s="10">
-        <v>109</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -10594,13 +10606,13 @@
         <v>7</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>56</v>
+        <v>565</v>
       </c>
       <c r="D305" s="5">
-        <v>1980</v>
+        <v>2021</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>55</v>
+        <v>446</v>
       </c>
       <c r="F305" s="9" t="s">
         <v>422</v>
@@ -10609,7 +10621,7 @@
         <v>420</v>
       </c>
       <c r="I305" s="10">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -10620,39 +10632,42 @@
         <v>7</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="D306" s="5">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="F306" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G306" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H306" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I306" s="10">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>553</v>
+        <v>56</v>
       </c>
       <c r="D307" s="5">
-        <v>2016</v>
+        <v>1980</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>557</v>
+        <v>55</v>
       </c>
       <c r="F307" s="9" t="s">
         <v>422</v>
@@ -10661,7 +10676,7 @@
         <v>420</v>
       </c>
       <c r="I307" s="10">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -10669,54 +10684,51 @@
         <v>416</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>323</v>
+        <v>226</v>
       </c>
       <c r="D308" s="5">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="F308" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G308" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I308" s="10">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>425</v>
+        <v>553</v>
       </c>
       <c r="D309" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>214</v>
+        <v>557</v>
       </c>
       <c r="F309" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G309" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H309" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I309" s="10">
-        <v>119</v>
+        <v>60</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -10724,16 +10736,16 @@
         <v>416</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D310" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F310" s="9" t="s">
         <v>422</v>
@@ -10742,7 +10754,7 @@
         <v>420</v>
       </c>
       <c r="I310" s="10">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -10753,22 +10765,25 @@
         <v>7</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>262</v>
+        <v>425</v>
       </c>
       <c r="D311" s="5">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G311" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H311" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I311" s="10">
-        <v>83</v>
+        <v>119</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -10779,13 +10794,13 @@
         <v>7</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="D312" s="5">
-        <v>1965</v>
+        <v>2017</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="F312" s="9" t="s">
         <v>422</v>
@@ -10794,10 +10809,10 @@
         <v>420</v>
       </c>
       <c r="I312" s="10">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>416</v>
       </c>
@@ -10805,13 +10820,13 @@
         <v>7</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="D313" s="5">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="F313" s="9" t="s">
         <v>422</v>
@@ -10828,16 +10843,16 @@
         <v>416</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>554</v>
+        <v>229</v>
       </c>
       <c r="D314" s="5">
-        <v>2021</v>
+        <v>1965</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>555</v>
+        <v>230</v>
       </c>
       <c r="F314" s="9" t="s">
         <v>422</v>
@@ -10846,10 +10861,10 @@
         <v>420</v>
       </c>
       <c r="I314" s="10">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>416</v>
       </c>
@@ -10857,13 +10872,13 @@
         <v>7</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="D315" s="5">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="F315" s="9" t="s">
         <v>422</v>
@@ -10872,7 +10887,7 @@
         <v>420</v>
       </c>
       <c r="I315" s="10">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -10880,16 +10895,16 @@
         <v>416</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>426</v>
+        <v>554</v>
       </c>
       <c r="D316" s="5">
-        <v>1998</v>
+        <v>2021</v>
       </c>
       <c r="E316" s="9" t="s">
-        <v>429</v>
+        <v>555</v>
       </c>
       <c r="F316" s="9" t="s">
         <v>422</v>
@@ -10898,7 +10913,7 @@
         <v>420</v>
       </c>
       <c r="I316" s="10">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -10909,13 +10924,13 @@
         <v>7</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D317" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F317" s="9" t="s">
         <v>422</v>
@@ -10924,7 +10939,7 @@
         <v>420</v>
       </c>
       <c r="I317" s="10">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -10935,22 +10950,22 @@
         <v>7</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>563</v>
+        <v>426</v>
       </c>
       <c r="D318" s="5">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>564</v>
+        <v>429</v>
       </c>
       <c r="F318" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G318" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I318" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -10958,28 +10973,25 @@
         <v>416</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="D319" s="5">
         <v>2017</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="F319" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G319" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H319" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I319" s="10">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -10987,25 +10999,25 @@
         <v>416</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>167</v>
+        <v>563</v>
       </c>
       <c r="D320" s="5">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="E320" s="9" t="s">
-        <v>168</v>
+        <v>564</v>
       </c>
       <c r="F320" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G320" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I320" s="10">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -11013,19 +11025,19 @@
         <v>416</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D321" s="5">
-        <v>1986</v>
+        <v>2017</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F321" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G321" s="10" t="s">
         <v>422</v>
@@ -11034,7 +11046,7 @@
         <v>420</v>
       </c>
       <c r="I321" s="10">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -11042,28 +11054,25 @@
         <v>416</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>575</v>
+        <v>167</v>
       </c>
       <c r="D322" s="5">
-        <v>1995</v>
+        <v>2018</v>
       </c>
       <c r="E322" s="9" t="s">
-        <v>576</v>
+        <v>168</v>
       </c>
       <c r="F322" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G322" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H322" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I322" s="10">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -11074,16 +11083,16 @@
         <v>7</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>574</v>
+        <v>77</v>
       </c>
       <c r="D323" s="5">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>576</v>
+        <v>78</v>
       </c>
       <c r="F323" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G323" s="10" t="s">
         <v>422</v>
@@ -11092,7 +11101,7 @@
         <v>420</v>
       </c>
       <c r="I323" s="10">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -11103,13 +11112,13 @@
         <v>7</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D324" s="5">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="E324" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F324" s="9" t="s">
         <v>422</v>
@@ -11121,7 +11130,7 @@
         <v>420</v>
       </c>
       <c r="I324" s="10">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -11132,13 +11141,13 @@
         <v>7</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>261</v>
+        <v>574</v>
       </c>
       <c r="D325" s="5">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>263</v>
+        <v>576</v>
       </c>
       <c r="F325" s="9" t="s">
         <v>422</v>
@@ -11150,7 +11159,7 @@
         <v>420</v>
       </c>
       <c r="I325" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -11161,22 +11170,25 @@
         <v>7</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>392</v>
+        <v>573</v>
       </c>
       <c r="D326" s="5">
         <v>2010</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>393</v>
+        <v>577</v>
       </c>
       <c r="F326" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G326" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H326" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I326" s="10">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -11187,13 +11199,13 @@
         <v>7</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="D327" s="5">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>69</v>
+        <v>263</v>
       </c>
       <c r="F327" s="9" t="s">
         <v>422</v>
@@ -11202,10 +11214,10 @@
         <v>422</v>
       </c>
       <c r="H327" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I327" s="10">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -11216,13 +11228,13 @@
         <v>7</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="D328" s="5">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>216</v>
+        <v>393</v>
       </c>
       <c r="F328" s="9" t="s">
         <v>422</v>
@@ -11231,7 +11243,7 @@
         <v>420</v>
       </c>
       <c r="I328" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -11242,22 +11254,25 @@
         <v>7</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>355</v>
+        <v>70</v>
       </c>
       <c r="D329" s="5">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="E329" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F329" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G329" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H329" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I329" s="10">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -11268,25 +11283,22 @@
         <v>7</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>361</v>
+        <v>215</v>
       </c>
       <c r="D330" s="5">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="E330" s="9" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="F330" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G330" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H330" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I330" s="10">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -11297,13 +11309,13 @@
         <v>7</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="D331" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>382</v>
+        <v>67</v>
       </c>
       <c r="F331" s="9" t="s">
         <v>422</v>
@@ -11312,7 +11324,7 @@
         <v>420</v>
       </c>
       <c r="I331" s="10">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -11323,22 +11335,25 @@
         <v>7</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>43</v>
+        <v>361</v>
       </c>
       <c r="D332" s="5">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="E332" s="9" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F332" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G332" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H332" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I332" s="10">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -11346,45 +11361,42 @@
         <v>416</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>517</v>
+        <v>381</v>
       </c>
       <c r="D333" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>518</v>
+        <v>382</v>
       </c>
       <c r="F333" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G333" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H333" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I333" s="10">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B334" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>528</v>
+        <v>43</v>
       </c>
       <c r="D334" s="5">
-        <v>2019</v>
+        <v>1998</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>533</v>
+        <v>44</v>
       </c>
       <c r="F334" s="9" t="s">
         <v>422</v>
@@ -11393,7 +11405,7 @@
         <v>420</v>
       </c>
       <c r="I334" s="10">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -11401,42 +11413,45 @@
         <v>416</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>39</v>
+        <v>517</v>
       </c>
       <c r="D335" s="5">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E335" s="9" t="s">
-        <v>40</v>
+        <v>518</v>
       </c>
       <c r="F335" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G335" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H335" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I335" s="10">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B336" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="D336" s="5">
         <v>2019</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="F336" s="9" t="s">
         <v>422</v>
@@ -11445,7 +11460,7 @@
         <v>420</v>
       </c>
       <c r="I336" s="10">
-        <v>105</v>
+        <v>56</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -11453,16 +11468,16 @@
         <v>416</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>233</v>
+        <v>39</v>
       </c>
       <c r="D337" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E337" s="9" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="F337" s="9" t="s">
         <v>422</v>
@@ -11471,7 +11486,7 @@
         <v>420</v>
       </c>
       <c r="I337" s="10">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -11482,13 +11497,13 @@
         <v>7</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>418</v>
+        <v>508</v>
       </c>
       <c r="D338" s="5">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E338" s="9" t="s">
-        <v>32</v>
+        <v>507</v>
       </c>
       <c r="F338" s="9" t="s">
         <v>422</v>
@@ -11497,7 +11512,7 @@
         <v>420</v>
       </c>
       <c r="I338" s="10">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -11505,16 +11520,16 @@
         <v>416</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="D339" s="5">
         <v>2014</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="F339" s="9" t="s">
         <v>422</v>
@@ -11523,7 +11538,7 @@
         <v>420</v>
       </c>
       <c r="I339" s="10">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -11534,13 +11549,13 @@
         <v>7</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="D340" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E340" s="9" t="s">
-        <v>374</v>
+        <v>32</v>
       </c>
       <c r="F340" s="9" t="s">
         <v>422</v>
@@ -11549,7 +11564,7 @@
         <v>420</v>
       </c>
       <c r="I340" s="10">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -11557,25 +11572,25 @@
         <v>416</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>358</v>
+        <v>75</v>
       </c>
       <c r="D341" s="5">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E341" s="9" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="F341" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G341" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I341" s="10">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -11586,22 +11601,22 @@
         <v>7</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>566</v>
+        <v>373</v>
       </c>
       <c r="D342" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E342" s="9" t="s">
-        <v>567</v>
+        <v>374</v>
       </c>
       <c r="F342" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G342" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I342" s="10">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -11609,28 +11624,25 @@
         <v>416</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>291</v>
+        <v>358</v>
       </c>
       <c r="D343" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="F343" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G343" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H343" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I343" s="10">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -11638,28 +11650,25 @@
         <v>416</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="D344" s="5">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>292</v>
+        <v>567</v>
       </c>
       <c r="F344" s="9" t="s">
         <v>420</v>
       </c>
       <c r="G344" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H344" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I344" s="10">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -11670,22 +11679,25 @@
         <v>7</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>62</v>
+        <v>291</v>
       </c>
       <c r="D345" s="5">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="F345" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G345" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H345" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I345" s="10">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -11693,19 +11705,19 @@
         <v>416</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>126</v>
+        <v>511</v>
       </c>
       <c r="D346" s="5">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="F346" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G346" s="10" t="s">
         <v>422</v>
@@ -11714,7 +11726,7 @@
         <v>422</v>
       </c>
       <c r="I346" s="10">
-        <v>100</v>
+        <v>153</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -11725,25 +11737,22 @@
         <v>7</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="D347" s="5">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="E347" s="9" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="F347" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G347" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H347" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I347" s="10">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -11754,10 +11763,10 @@
         <v>7</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D348" s="5">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="E348" s="9" t="s">
         <v>121</v>
@@ -11772,7 +11781,7 @@
         <v>422</v>
       </c>
       <c r="I348" s="10">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -11783,13 +11792,13 @@
         <v>7</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>479</v>
+        <v>127</v>
       </c>
       <c r="D349" s="5">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>481</v>
+        <v>121</v>
       </c>
       <c r="F349" s="9" t="s">
         <v>422</v>
@@ -11801,7 +11810,7 @@
         <v>422</v>
       </c>
       <c r="I349" s="10">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -11812,10 +11821,10 @@
         <v>7</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D350" s="5">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E350" s="9" t="s">
         <v>121</v>
@@ -11830,7 +11839,7 @@
         <v>422</v>
       </c>
       <c r="I350" s="10">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -11841,13 +11850,13 @@
         <v>7</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>123</v>
+        <v>479</v>
       </c>
       <c r="D351" s="5">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>84</v>
+        <v>481</v>
       </c>
       <c r="F351" s="9" t="s">
         <v>422</v>
@@ -11859,7 +11868,7 @@
         <v>422</v>
       </c>
       <c r="I351" s="10">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -11870,13 +11879,13 @@
         <v>7</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D352" s="5">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="E352" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F352" s="9" t="s">
         <v>422</v>
@@ -11888,7 +11897,7 @@
         <v>422</v>
       </c>
       <c r="I352" s="10">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -11896,25 +11905,28 @@
         <v>416</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>516</v>
+        <v>123</v>
       </c>
       <c r="D353" s="5">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="E353" s="9" t="s">
-        <v>519</v>
+        <v>84</v>
       </c>
       <c r="F353" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G353" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H353" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I353" s="10">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -11922,25 +11934,28 @@
         <v>416</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>524</v>
+        <v>124</v>
       </c>
       <c r="D354" s="5">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="E354" s="9" t="s">
-        <v>525</v>
+        <v>125</v>
       </c>
       <c r="F354" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G354" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H354" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I354" s="10">
-        <v>157</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -11948,28 +11963,25 @@
         <v>416</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>58</v>
+        <v>516</v>
       </c>
       <c r="D355" s="5">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E355" s="9" t="s">
-        <v>59</v>
+        <v>519</v>
       </c>
       <c r="F355" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G355" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H355" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I355" s="10">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -11980,25 +11992,22 @@
         <v>49</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>360</v>
+        <v>524</v>
       </c>
       <c r="D356" s="5">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E356" s="9" t="s">
-        <v>59</v>
+        <v>525</v>
       </c>
       <c r="F356" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G356" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H356" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I356" s="10">
-        <v>99</v>
+        <v>157</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -12009,27 +12018,85 @@
         <v>7</v>
       </c>
       <c r="C357" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D357" s="5">
+        <v>2009</v>
+      </c>
+      <c r="E357" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F357" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G357" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H357" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I357" s="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A358" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B358" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D358" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E358" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F358" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G358" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H358" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I358" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A359" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D357" s="5">
+      <c r="D359" s="5">
         <v>2016</v>
       </c>
-      <c r="E357" s="9" t="s">
+      <c r="E359" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F357" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G357" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I357" s="10">
+      <c r="F359" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G359" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I359" s="10">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L357">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L359">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>

--- a/src/data/database.xlsx
+++ b/src/data/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\DABAD\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D071D27-11EF-420E-9913-7BEEBE416CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4219F8-D270-42F4-8224-D43EF1EDF6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="611">
   <si>
     <t>Title</t>
   </si>
@@ -1843,6 +1843,24 @@
   </si>
   <si>
     <t>Jurassic World: Dominion</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Marc Munden</t>
+  </si>
+  <si>
+    <t>The White Princess</t>
+  </si>
+  <si>
+    <t>Jamie Payne, Alex Kalymnios</t>
+  </si>
+  <si>
+    <t>Doctor Foster: A Woman Scorned</t>
+  </si>
+  <si>
+    <t>Mike Bartlett</t>
   </si>
 </sst>
 </file>
@@ -2233,11 +2251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L359"/>
+  <dimension ref="A1:L362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3794,28 +3812,28 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="D58" s="5">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>389</v>
+        <v>610</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I58" s="10">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -3823,16 +3841,16 @@
         <v>416</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>85</v>
+        <v>387</v>
       </c>
       <c r="D59" s="5">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>420</v>
@@ -3841,7 +3859,7 @@
         <v>420</v>
       </c>
       <c r="I59" s="10">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -3849,28 +3867,25 @@
         <v>416</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>558</v>
+        <v>85</v>
       </c>
       <c r="D60" s="5">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I60" s="10">
-        <v>155</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -3878,25 +3893,28 @@
         <v>416</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="D61" s="5">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I61" s="10">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -3907,13 +3925,13 @@
         <v>7</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>35</v>
+        <v>436</v>
       </c>
       <c r="D62" s="5">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>422</v>
@@ -3922,7 +3940,7 @@
         <v>420</v>
       </c>
       <c r="I62" s="10">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -3933,25 +3951,22 @@
         <v>7</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>278</v>
+        <v>35</v>
       </c>
       <c r="D63" s="5">
-        <v>1971</v>
+        <v>2015</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I63" s="10">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -3962,22 +3977,25 @@
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>586</v>
+        <v>278</v>
       </c>
       <c r="D64" s="5">
-        <v>2022</v>
+        <v>1971</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>587</v>
+        <v>279</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I64" s="10">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -3988,22 +4006,22 @@
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>54</v>
+        <v>586</v>
       </c>
       <c r="D65" s="5">
-        <v>1982</v>
+        <v>2022</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>55</v>
+        <v>587</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I65" s="10">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -4014,13 +4032,13 @@
         <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="D66" s="5">
-        <v>2014</v>
+        <v>1982</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>422</v>
@@ -4029,7 +4047,7 @@
         <v>420</v>
       </c>
       <c r="I66" s="10">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -4037,25 +4055,25 @@
         <v>416</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>349</v>
+        <v>178</v>
       </c>
       <c r="D67" s="5">
         <v>2014</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I67" s="10">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -4063,28 +4081,25 @@
         <v>416</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>14</v>
+        <v>349</v>
       </c>
       <c r="D68" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I68" s="10">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -4095,10 +4110,10 @@
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D69" s="5">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>15</v>
@@ -4113,7 +4128,7 @@
         <v>422</v>
       </c>
       <c r="I69" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -4124,10 +4139,10 @@
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>15</v>
@@ -4142,7 +4157,7 @@
         <v>422</v>
       </c>
       <c r="I70" s="10">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -4153,13 +4168,13 @@
         <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="D71" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>422</v>
@@ -4168,10 +4183,10 @@
         <v>422</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I71" s="10">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -4182,10 +4197,10 @@
         <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>397</v>
+        <v>157</v>
       </c>
       <c r="D72" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>153</v>
@@ -4200,7 +4215,7 @@
         <v>420</v>
       </c>
       <c r="I72" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -4211,22 +4226,25 @@
         <v>7</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="D73" s="5">
         <v>2018</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G73" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H73" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I73" s="10">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -4237,22 +4255,22 @@
         <v>7</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D74" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I74" s="10">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -4263,74 +4281,74 @@
         <v>7</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D75" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I75" s="10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D76" s="5">
         <v>2015</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E76" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I75" s="10">
+      <c r="F76" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I76" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="3" t="s">
+    <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D77" s="5">
         <v>2019</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E77" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="F76" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I76" s="10">
+      <c r="F77" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I77" s="10">
         <v>340</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="D77" s="5">
-        <v>2021</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I77" s="10">
-        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -4338,28 +4356,25 @@
         <v>416</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>249</v>
+        <v>589</v>
       </c>
       <c r="D78" s="5">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I78" s="10">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -4367,13 +4382,13 @@
         <v>416</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="D79" s="5">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>251</v>
@@ -4388,7 +4403,7 @@
         <v>422</v>
       </c>
       <c r="I79" s="10">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -4396,25 +4411,28 @@
         <v>416</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="D80" s="5">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I80" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -4422,28 +4440,25 @@
         <v>416</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>366</v>
+        <v>66</v>
       </c>
       <c r="D81" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I81" s="10">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -4451,25 +4466,28 @@
         <v>416</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="D82" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I82" s="10">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -4480,22 +4498,22 @@
         <v>7</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>346</v>
+        <v>186</v>
       </c>
       <c r="D83" s="5">
-        <v>1997</v>
+        <v>2014</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>348</v>
+        <v>188</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I83" s="10">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -4506,22 +4524,22 @@
         <v>7</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>191</v>
+        <v>346</v>
       </c>
       <c r="D84" s="5">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>192</v>
+        <v>348</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I84" s="10">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -4532,13 +4550,13 @@
         <v>7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>367</v>
+        <v>191</v>
       </c>
       <c r="D85" s="5">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>422</v>
@@ -4547,7 +4565,7 @@
         <v>420</v>
       </c>
       <c r="I85" s="10">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -4555,16 +4573,16 @@
         <v>416</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="D86" s="5">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>308</v>
+        <v>149</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>422</v>
@@ -4573,7 +4591,7 @@
         <v>420</v>
       </c>
       <c r="I86" s="10">
-        <v>139</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -4584,22 +4602,22 @@
         <v>49</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>568</v>
+        <v>307</v>
       </c>
       <c r="D87" s="5">
         <v>2016</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>393</v>
+        <v>308</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I87" s="10">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -4607,25 +4625,25 @@
         <v>416</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>81</v>
+        <v>568</v>
       </c>
       <c r="D88" s="5">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I88" s="10">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -4633,25 +4651,25 @@
         <v>416</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>549</v>
+        <v>81</v>
       </c>
       <c r="D89" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>551</v>
+        <v>82</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I89" s="10">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -4659,25 +4677,25 @@
         <v>416</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>439</v>
+        <v>549</v>
       </c>
       <c r="D90" s="5">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>441</v>
+        <v>551</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I90" s="10">
-        <v>98</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -4688,25 +4706,22 @@
         <v>7</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>147</v>
+        <v>439</v>
       </c>
       <c r="D91" s="5">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>146</v>
+        <v>441</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I91" s="10">
-        <v>153</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -4717,25 +4732,25 @@
         <v>7</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D92" s="5">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="E92" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I92" s="10">
         <v>153</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="I92" s="10">
-        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -4746,10 +4761,10 @@
         <v>7</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D93" s="5">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>153</v>
@@ -4764,7 +4779,7 @@
         <v>422</v>
       </c>
       <c r="I93" s="10">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -4775,13 +4790,13 @@
         <v>7</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D94" s="5">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>422</v>
@@ -4793,7 +4808,7 @@
         <v>422</v>
       </c>
       <c r="I94" s="10">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -4804,13 +4819,13 @@
         <v>7</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D95" s="5">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>422</v>
@@ -4822,7 +4837,7 @@
         <v>422</v>
       </c>
       <c r="I95" s="10">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -4833,10 +4848,10 @@
         <v>7</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D96" s="5">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>153</v>
@@ -4851,7 +4866,7 @@
         <v>422</v>
       </c>
       <c r="I96" s="10">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -4862,13 +4877,13 @@
         <v>7</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D97" s="5">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>422</v>
@@ -4880,7 +4895,7 @@
         <v>422</v>
       </c>
       <c r="I97" s="10">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -4891,13 +4906,13 @@
         <v>7</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D98" s="5">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>422</v>
@@ -4909,7 +4924,7 @@
         <v>422</v>
       </c>
       <c r="I98" s="10">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -4917,25 +4932,28 @@
         <v>416</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>356</v>
+        <v>148</v>
       </c>
       <c r="D99" s="5">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>357</v>
+        <v>149</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I99" s="10">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -4943,16 +4961,16 @@
         <v>416</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>173</v>
+        <v>605</v>
       </c>
       <c r="D100" s="5">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>174</v>
+        <v>606</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>422</v>
@@ -4961,65 +4979,59 @@
         <v>420</v>
       </c>
       <c r="I100" s="10">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="D101" s="5">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>424</v>
+        <v>357</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H101" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I101" s="10">
-        <v>40</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="D102" s="5">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>424</v>
+        <v>174</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I102" s="10">
-        <v>40</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -5030,10 +5042,10 @@
         <v>7</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D103" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>424</v>
@@ -5059,10 +5071,10 @@
         <v>7</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D104" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>424</v>
@@ -5088,10 +5100,10 @@
         <v>7</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D105" s="5">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>424</v>
@@ -5117,10 +5129,10 @@
         <v>7</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D106" s="5">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>424</v>
@@ -5146,10 +5158,10 @@
         <v>7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D107" s="5">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>424</v>
@@ -5175,10 +5187,10 @@
         <v>7</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D108" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>424</v>
@@ -5196,7 +5208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>417</v>
       </c>
@@ -5204,77 +5216,83 @@
         <v>7</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>522</v>
+        <v>341</v>
       </c>
       <c r="D109" s="5">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>523</v>
+        <v>424</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I109" s="10">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>541</v>
+        <v>342</v>
       </c>
       <c r="D110" s="5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>170</v>
+        <v>424</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I110" s="10">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>377</v>
+        <v>522</v>
       </c>
       <c r="D111" s="5">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>378</v>
+        <v>523</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G111" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H111" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I111" s="10">
-        <v>107</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -5282,16 +5300,16 @@
         <v>416</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="D112" s="5">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>485</v>
+        <v>170</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>422</v>
@@ -5300,7 +5318,7 @@
         <v>420</v>
       </c>
       <c r="I112" s="10">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -5311,13 +5329,13 @@
         <v>7</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="D113" s="5">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>181</v>
+        <v>378</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>422</v>
@@ -5326,7 +5344,7 @@
         <v>420</v>
       </c>
       <c r="I113" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -5337,13 +5355,13 @@
         <v>49</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>526</v>
+        <v>484</v>
       </c>
       <c r="D114" s="5">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>129</v>
+        <v>485</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>422</v>
@@ -5352,7 +5370,7 @@
         <v>420</v>
       </c>
       <c r="I114" s="10">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -5363,25 +5381,22 @@
         <v>7</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="D115" s="5">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I115" s="10">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -5389,28 +5404,25 @@
         <v>416</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>93</v>
+        <v>526</v>
       </c>
       <c r="D116" s="5">
-        <v>1989</v>
+        <v>2010</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I116" s="10">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -5421,10 +5433,10 @@
         <v>7</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D117" s="5">
-        <v>1984</v>
+        <v>2008</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>91</v>
@@ -5439,7 +5451,7 @@
         <v>422</v>
       </c>
       <c r="I117" s="10">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -5450,22 +5462,25 @@
         <v>7</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="D118" s="5">
-        <v>2015</v>
+        <v>1989</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I118" s="10">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -5476,22 +5491,25 @@
         <v>7</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>435</v>
+        <v>92</v>
       </c>
       <c r="D119" s="5">
-        <v>2018</v>
+        <v>1984</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>437</v>
+        <v>91</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I119" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -5502,25 +5520,22 @@
         <v>7</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="D120" s="5">
         <v>2015</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I120" s="10">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -5531,13 +5546,13 @@
         <v>7</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>237</v>
+        <v>435</v>
       </c>
       <c r="D121" s="5">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>238</v>
+        <v>437</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>422</v>
@@ -5546,7 +5561,7 @@
         <v>420</v>
       </c>
       <c r="I121" s="10">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -5557,22 +5572,25 @@
         <v>7</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>391</v>
+        <v>163</v>
       </c>
       <c r="D122" s="5">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>301</v>
+        <v>164</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I122" s="10">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -5583,13 +5601,13 @@
         <v>7</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="D123" s="5">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>422</v>
@@ -5598,7 +5616,7 @@
         <v>420</v>
       </c>
       <c r="I123" s="10">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -5606,25 +5624,25 @@
         <v>416</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>550</v>
+        <v>391</v>
       </c>
       <c r="D124" s="5">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>552</v>
+        <v>301</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I124" s="10">
-        <v>155</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -5635,25 +5653,22 @@
         <v>7</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="D125" s="5">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I125" s="10">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -5661,28 +5676,25 @@
         <v>416</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>19</v>
+        <v>550</v>
       </c>
       <c r="D126" s="5">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>22</v>
+        <v>552</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I126" s="10">
-        <v>97</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -5693,22 +5705,25 @@
         <v>7</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>400</v>
+        <v>18</v>
       </c>
       <c r="D127" s="5">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I127" s="10">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -5716,25 +5731,28 @@
         <v>416</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="D128" s="5">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>514</v>
+        <v>22</v>
       </c>
       <c r="F128" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I128" s="10">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -5745,25 +5763,22 @@
         <v>7</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>132</v>
+        <v>400</v>
       </c>
       <c r="D129" s="5">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H129" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I129" s="10">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -5771,16 +5786,16 @@
         <v>416</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="D130" s="5">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="F130" s="9" t="s">
         <v>422</v>
@@ -5789,7 +5804,7 @@
         <v>420</v>
       </c>
       <c r="I130" s="10">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -5800,13 +5815,13 @@
         <v>7</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="D131" s="5">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="F131" s="9" t="s">
         <v>422</v>
@@ -5818,7 +5833,7 @@
         <v>420</v>
       </c>
       <c r="I131" s="10">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -5829,13 +5844,13 @@
         <v>7</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>185</v>
+        <v>542</v>
       </c>
       <c r="D132" s="5">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>187</v>
+        <v>543</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>422</v>
@@ -5844,7 +5859,7 @@
         <v>420</v>
       </c>
       <c r="I132" s="10">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -5855,13 +5870,13 @@
         <v>7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="D133" s="5">
-        <v>1993</v>
+        <v>2017</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>422</v>
@@ -5870,10 +5885,10 @@
         <v>422</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I133" s="10">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -5884,25 +5899,22 @@
         <v>7</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="D134" s="5">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I134" s="10">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -5913,13 +5925,13 @@
         <v>7</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D135" s="5">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>422</v>
@@ -5931,7 +5943,7 @@
         <v>422</v>
       </c>
       <c r="I135" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -5939,16 +5951,16 @@
         <v>416</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>604</v>
+        <v>101</v>
       </c>
       <c r="D136" s="5">
-        <v>2022</v>
+        <v>2001</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F136" s="9" t="s">
         <v>422</v>
@@ -5960,7 +5972,7 @@
         <v>422</v>
       </c>
       <c r="I136" s="10">
-        <v>148</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -5968,16 +5980,16 @@
         <v>416</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D137" s="5">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>422</v>
@@ -5989,7 +6001,7 @@
         <v>422</v>
       </c>
       <c r="I137" s="10">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -6000,39 +6012,42 @@
         <v>49</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>513</v>
+        <v>604</v>
       </c>
       <c r="D138" s="5">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>515</v>
+        <v>105</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I138" s="10">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>590</v>
+        <v>106</v>
       </c>
       <c r="D139" s="5">
         <v>2018</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>591</v>
+        <v>104</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>422</v>
@@ -6044,36 +6059,33 @@
         <v>422</v>
       </c>
       <c r="I139" s="10">
-        <v>42</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>592</v>
+        <v>513</v>
       </c>
       <c r="D140" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>591</v>
+        <v>515</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H140" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I140" s="10">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -6084,10 +6096,10 @@
         <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D141" s="5">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>591</v>
@@ -6113,10 +6125,10 @@
         <v>7</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D142" s="5">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>591</v>
@@ -6136,19 +6148,19 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>314</v>
+        <v>593</v>
       </c>
       <c r="D143" s="5">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>84</v>
+        <v>591</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>422</v>
@@ -6157,27 +6169,27 @@
         <v>422</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I143" s="10">
-        <v>135</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>83</v>
+        <v>594</v>
       </c>
       <c r="D144" s="5">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>84</v>
+        <v>591</v>
       </c>
       <c r="F144" s="9" t="s">
         <v>422</v>
@@ -6186,10 +6198,10 @@
         <v>422</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I144" s="10">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -6197,25 +6209,28 @@
         <v>416</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="D145" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G145" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H145" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I145" s="10">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -6223,25 +6238,28 @@
         <v>416</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="D146" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G146" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H146" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I146" s="10">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -6249,16 +6267,16 @@
         <v>416</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>488</v>
+        <v>49</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>232</v>
+        <v>350</v>
       </c>
       <c r="D147" s="5">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="F147" s="9" t="s">
         <v>422</v>
@@ -6267,7 +6285,7 @@
         <v>420</v>
       </c>
       <c r="I147" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -6275,25 +6293,25 @@
         <v>416</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>545</v>
+        <v>289</v>
       </c>
       <c r="D148" s="5">
         <v>2017</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>546</v>
+        <v>290</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I148" s="10">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -6301,16 +6319,16 @@
         <v>416</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>7</v>
+        <v>488</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>509</v>
+        <v>232</v>
       </c>
       <c r="D149" s="5">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>376</v>
+        <v>234</v>
       </c>
       <c r="F149" s="9" t="s">
         <v>422</v>
@@ -6319,7 +6337,7 @@
         <v>420</v>
       </c>
       <c r="I149" s="10">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -6330,13 +6348,13 @@
         <v>7</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>398</v>
+        <v>545</v>
       </c>
       <c r="D150" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>399</v>
+        <v>546</v>
       </c>
       <c r="F150" s="9" t="s">
         <v>422</v>
@@ -6345,7 +6363,7 @@
         <v>420</v>
       </c>
       <c r="I150" s="10">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -6353,16 +6371,16 @@
         <v>416</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>295</v>
+        <v>509</v>
       </c>
       <c r="D151" s="5">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="F151" s="9" t="s">
         <v>422</v>
@@ -6371,7 +6389,7 @@
         <v>420</v>
       </c>
       <c r="I151" s="10">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -6379,16 +6397,16 @@
         <v>416</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="D152" s="5">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="F152" s="9" t="s">
         <v>422</v>
@@ -6397,7 +6415,7 @@
         <v>420</v>
       </c>
       <c r="I152" s="10">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -6405,16 +6423,16 @@
         <v>416</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>33</v>
+        <v>295</v>
       </c>
       <c r="D153" s="5">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="F153" s="9" t="s">
         <v>422</v>
@@ -6423,7 +6441,7 @@
         <v>420</v>
       </c>
       <c r="I153" s="10">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -6431,16 +6449,16 @@
         <v>416</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="D154" s="5">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="F154" s="9" t="s">
         <v>422</v>
@@ -6449,7 +6467,7 @@
         <v>420</v>
       </c>
       <c r="I154" s="10">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -6460,22 +6478,22 @@
         <v>7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>444</v>
+        <v>33</v>
       </c>
       <c r="D155" s="5">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>448</v>
+        <v>34</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G155" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I155" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -6486,13 +6504,13 @@
         <v>7</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>527</v>
+        <v>184</v>
       </c>
       <c r="D156" s="5">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="F156" s="9" t="s">
         <v>422</v>
@@ -6501,7 +6519,7 @@
         <v>420</v>
       </c>
       <c r="I156" s="10">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -6509,28 +6527,25 @@
         <v>416</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>529</v>
+        <v>444</v>
       </c>
       <c r="D157" s="5">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>534</v>
+        <v>448</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>420</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H157" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I157" s="10">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -6541,25 +6556,22 @@
         <v>7</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
       <c r="D158" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>492</v>
+        <v>200</v>
       </c>
       <c r="F158" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H158" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I158" s="10">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -6567,19 +6579,19 @@
         <v>416</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>438</v>
+        <v>529</v>
       </c>
       <c r="D159" s="5">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>440</v>
+        <v>534</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G159" s="10" t="s">
         <v>422</v>
@@ -6588,7 +6600,7 @@
         <v>420</v>
       </c>
       <c r="I159" s="10">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -6599,13 +6611,13 @@
         <v>7</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D160" s="5">
-        <v>1964</v>
+        <v>2014</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F160" s="9" t="s">
         <v>422</v>
@@ -6614,10 +6626,10 @@
         <v>422</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I160" s="10">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -6628,13 +6640,13 @@
         <v>7</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>325</v>
+        <v>438</v>
       </c>
       <c r="D161" s="5">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>238</v>
+        <v>440</v>
       </c>
       <c r="F161" s="9" t="s">
         <v>422</v>
@@ -6643,10 +6655,10 @@
         <v>422</v>
       </c>
       <c r="H161" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I161" s="10">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -6657,25 +6669,25 @@
         <v>7</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>396</v>
+        <v>489</v>
       </c>
       <c r="D162" s="5">
-        <v>2015</v>
+        <v>1964</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>166</v>
+        <v>493</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G162" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H162" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I162" s="10">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -6686,13 +6698,13 @@
         <v>7</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="D163" s="5">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F163" s="9" t="s">
         <v>422</v>
@@ -6701,39 +6713,39 @@
         <v>422</v>
       </c>
       <c r="H163" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I163" s="10">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>8</v>
+        <v>396</v>
       </c>
       <c r="D164" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G164" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H164" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I164" s="10">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -6744,13 +6756,13 @@
         <v>7</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="D165" s="5">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="F165" s="9" t="s">
         <v>422</v>
@@ -6759,36 +6771,39 @@
         <v>422</v>
       </c>
       <c r="H165" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I165" s="10">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="D166" s="5">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="F166" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I166" s="10">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -6799,13 +6814,13 @@
         <v>7</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>285</v>
+        <v>9</v>
       </c>
       <c r="D167" s="5">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="F167" s="9" t="s">
         <v>422</v>
@@ -6814,10 +6829,10 @@
         <v>422</v>
       </c>
       <c r="H167" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I167" s="10">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -6828,21 +6843,18 @@
         <v>7</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>537</v>
+        <v>213</v>
       </c>
       <c r="D168" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="F168" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H168" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I168" s="10">
@@ -6857,22 +6869,25 @@
         <v>7</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="D169" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="F169" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G169" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H169" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I169" s="10">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -6883,13 +6898,13 @@
         <v>7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D170" s="5">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="F170" s="9" t="s">
         <v>422</v>
@@ -6898,10 +6913,10 @@
         <v>422</v>
       </c>
       <c r="H170" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I170" s="10">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -6912,25 +6927,22 @@
         <v>7</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>578</v>
+        <v>207</v>
       </c>
       <c r="D171" s="5">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="F171" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H171" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I171" s="10">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -6941,48 +6953,54 @@
         <v>7</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>371</v>
+        <v>539</v>
       </c>
       <c r="D172" s="5">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>372</v>
+        <v>253</v>
       </c>
       <c r="F172" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H172" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I172" s="10">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>450</v>
+        <v>578</v>
       </c>
       <c r="D173" s="5">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>449</v>
+        <v>248</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H173" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I173" s="10">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -6993,13 +7011,13 @@
         <v>7</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>28</v>
+        <v>371</v>
       </c>
       <c r="D174" s="5">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>29</v>
+        <v>372</v>
       </c>
       <c r="F174" s="9" t="s">
         <v>422</v>
@@ -7008,24 +7026,24 @@
         <v>420</v>
       </c>
       <c r="I174" s="10">
-        <v>86</v>
+        <v>123</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="D175" s="5">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>221</v>
+        <v>449</v>
       </c>
       <c r="F175" s="9" t="s">
         <v>422</v>
@@ -7034,7 +7052,7 @@
         <v>420</v>
       </c>
       <c r="I175" s="10">
-        <v>125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -7045,13 +7063,13 @@
         <v>7</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D176" s="5">
-        <v>1976</v>
+        <v>2007</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F176" s="9" t="s">
         <v>422</v>
@@ -7060,7 +7078,7 @@
         <v>420</v>
       </c>
       <c r="I176" s="10">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -7068,16 +7086,16 @@
         <v>416</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="D177" s="5">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="F177" s="9" t="s">
         <v>422</v>
@@ -7086,7 +7104,7 @@
         <v>420</v>
       </c>
       <c r="I177" s="10">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -7097,13 +7115,13 @@
         <v>7</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D178" s="5">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F178" s="9" t="s">
         <v>422</v>
@@ -7112,7 +7130,7 @@
         <v>420</v>
       </c>
       <c r="I178" s="10">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -7120,16 +7138,16 @@
         <v>416</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D179" s="5">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>506</v>
+        <v>57</v>
       </c>
       <c r="F179" s="9" t="s">
         <v>422</v>
@@ -7138,7 +7156,7 @@
         <v>420</v>
       </c>
       <c r="I179" s="10">
-        <v>40</v>
+        <v>114</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -7149,25 +7167,22 @@
         <v>7</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="D180" s="5">
-        <v>2006</v>
+        <v>1974</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="F180" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H180" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I180" s="10">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -7178,25 +7193,22 @@
         <v>7</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="D181" s="5">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>135</v>
+        <v>506</v>
       </c>
       <c r="F181" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H181" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I181" s="10">
-        <v>104</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -7204,25 +7216,28 @@
         <v>416</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>369</v>
+        <v>134</v>
       </c>
       <c r="D182" s="5">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>370</v>
+        <v>135</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G182" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H182" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I182" s="10">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -7230,16 +7245,16 @@
         <v>416</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D183" s="5">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="F183" s="9" t="s">
         <v>422</v>
@@ -7248,10 +7263,10 @@
         <v>422</v>
       </c>
       <c r="H183" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I183" s="10">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -7259,28 +7274,25 @@
         <v>416</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>598</v>
+        <v>369</v>
       </c>
       <c r="D184" s="5">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>601</v>
+        <v>370</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H184" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I184" s="10">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -7288,16 +7300,16 @@
         <v>416</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>600</v>
+        <v>48</v>
       </c>
       <c r="D185" s="5">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>601</v>
+        <v>47</v>
       </c>
       <c r="F185" s="9" t="s">
         <v>422</v>
@@ -7309,7 +7321,7 @@
         <v>422</v>
       </c>
       <c r="I185" s="10">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -7320,10 +7332,10 @@
         <v>7</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D186" s="5">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>601</v>
@@ -7338,7 +7350,7 @@
         <v>422</v>
       </c>
       <c r="I186" s="10">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -7349,39 +7361,42 @@
         <v>7</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>224</v>
+        <v>600</v>
       </c>
       <c r="D187" s="5">
-        <v>1975</v>
+        <v>2007</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>225</v>
+        <v>601</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H187" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I187" s="10">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>468</v>
+        <v>599</v>
       </c>
       <c r="D188" s="5">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>477</v>
+        <v>601</v>
       </c>
       <c r="F188" s="9" t="s">
         <v>422</v>
@@ -7393,36 +7408,33 @@
         <v>422</v>
       </c>
       <c r="I188" s="10">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>469</v>
+        <v>224</v>
       </c>
       <c r="D189" s="5">
-        <v>2004</v>
+        <v>1975</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>477</v>
+        <v>225</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H189" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I189" s="10">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -7433,10 +7445,10 @@
         <v>7</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D190" s="5">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>477</v>
@@ -7462,10 +7474,10 @@
         <v>7</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D191" s="5">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>477</v>
@@ -7491,10 +7503,10 @@
         <v>7</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D192" s="5">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>477</v>
@@ -7520,10 +7532,10 @@
         <v>7</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D193" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>477</v>
@@ -7549,10 +7561,10 @@
         <v>7</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D194" s="5">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>477</v>
@@ -7578,10 +7590,10 @@
         <v>7</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D195" s="5">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>477</v>
@@ -7607,10 +7619,10 @@
         <v>7</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D196" s="5">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>477</v>
@@ -7630,54 +7642,60 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>388</v>
+        <v>475</v>
       </c>
       <c r="D197" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>390</v>
+        <v>477</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H197" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I197" s="10">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>319</v>
+        <v>476</v>
       </c>
       <c r="D198" s="5">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>320</v>
+        <v>477</v>
       </c>
       <c r="F198" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G198" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H198" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I198" s="10">
-        <v>127</v>
+        <v>40</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -7685,16 +7703,16 @@
         <v>416</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>171</v>
+        <v>388</v>
       </c>
       <c r="D199" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>172</v>
+        <v>390</v>
       </c>
       <c r="F199" s="9" t="s">
         <v>422</v>
@@ -7703,7 +7721,7 @@
         <v>420</v>
       </c>
       <c r="I199" s="10">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -7714,25 +7732,22 @@
         <v>7</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c r="D200" s="5">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="F200" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H200" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I200" s="10">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -7740,28 +7755,25 @@
         <v>416</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D201" s="5">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F201" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H201" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I201" s="10">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -7772,13 +7784,13 @@
         <v>7</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="D202" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="F202" s="9" t="s">
         <v>422</v>
@@ -7787,10 +7799,10 @@
         <v>422</v>
       </c>
       <c r="H202" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I202" s="10">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -7801,13 +7813,13 @@
         <v>7</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="D203" s="5">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="F203" s="9" t="s">
         <v>422</v>
@@ -7819,7 +7831,7 @@
         <v>422</v>
       </c>
       <c r="I203" s="10">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -7830,13 +7842,13 @@
         <v>7</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="D204" s="5">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="F204" s="9" t="s">
         <v>422</v>
@@ -7845,10 +7857,10 @@
         <v>422</v>
       </c>
       <c r="H204" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I204" s="10">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -7859,13 +7871,13 @@
         <v>7</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D205" s="5">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F205" s="9" t="s">
         <v>422</v>
@@ -7877,7 +7889,7 @@
         <v>422</v>
       </c>
       <c r="I205" s="10">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -7888,22 +7900,25 @@
         <v>7</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>430</v>
+        <v>11</v>
       </c>
       <c r="D206" s="5">
-        <v>1987</v>
+        <v>2015</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>431</v>
+        <v>12</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H206" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I206" s="10">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -7914,13 +7929,13 @@
         <v>7</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>274</v>
+        <v>13</v>
       </c>
       <c r="D207" s="5">
-        <v>1968</v>
+        <v>2017</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>275</v>
+        <v>24</v>
       </c>
       <c r="F207" s="9" t="s">
         <v>422</v>
@@ -7932,7 +7947,7 @@
         <v>422</v>
       </c>
       <c r="I207" s="10">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -7943,22 +7958,22 @@
         <v>7</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>60</v>
+        <v>430</v>
       </c>
       <c r="D208" s="5">
-        <v>2016</v>
+        <v>1987</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>61</v>
+        <v>431</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G208" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I208" s="10">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -7966,25 +7981,28 @@
         <v>416</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="D209" s="5">
-        <v>2015</v>
+        <v>1968</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="F209" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H209" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I209" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -7995,25 +8013,22 @@
         <v>7</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>411</v>
+        <v>60</v>
       </c>
       <c r="D210" s="5">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H210" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I210" s="10">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -8021,28 +8036,25 @@
         <v>416</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="D211" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H211" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I211" s="10">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -8053,25 +8065,25 @@
         <v>7</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>90</v>
+        <v>411</v>
       </c>
       <c r="D212" s="5">
-        <v>1981</v>
+        <v>2008</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G212" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H212" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I212" s="10">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -8082,22 +8094,25 @@
         <v>7</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D213" s="5">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F213" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G213" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H213" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I213" s="10">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -8108,22 +8123,25 @@
         <v>7</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c r="D214" s="5">
-        <v>2007</v>
+        <v>1981</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="F214" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H214" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I214" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -8131,16 +8149,16 @@
         <v>416</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>520</v>
+        <v>20</v>
       </c>
       <c r="D215" s="5">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>422</v>
@@ -8149,7 +8167,7 @@
         <v>420</v>
       </c>
       <c r="I215" s="10">
-        <v>140</v>
+        <v>107</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -8160,13 +8178,13 @@
         <v>7</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="D216" s="5">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="F216" s="9" t="s">
         <v>422</v>
@@ -8175,7 +8193,7 @@
         <v>420</v>
       </c>
       <c r="I216" s="10">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -8186,22 +8204,22 @@
         <v>49</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="D217" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>502</v>
+        <v>91</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G217" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I217" s="10">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -8209,28 +8227,25 @@
         <v>416</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>343</v>
+        <v>140</v>
       </c>
       <c r="D218" s="5">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>344</v>
+        <v>139</v>
       </c>
       <c r="F218" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H218" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I218" s="10">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -8238,25 +8253,25 @@
         <v>416</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>544</v>
+        <v>501</v>
       </c>
       <c r="D219" s="5">
         <v>2019</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>36</v>
+        <v>502</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G219" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I219" s="10">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -8264,25 +8279,28 @@
         <v>416</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c r="D220" s="5">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>204</v>
+        <v>344</v>
       </c>
       <c r="F220" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G220" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H220" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I220" s="10">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -8293,13 +8311,13 @@
         <v>7</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>87</v>
+        <v>544</v>
       </c>
       <c r="D221" s="5">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F221" s="9" t="s">
         <v>422</v>
@@ -8308,10 +8326,10 @@
         <v>420</v>
       </c>
       <c r="I221" s="10">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>416</v>
       </c>
@@ -8319,13 +8337,13 @@
         <v>7</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>540</v>
+        <v>203</v>
       </c>
       <c r="D222" s="5">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>482</v>
+        <v>204</v>
       </c>
       <c r="F222" s="9" t="s">
         <v>422</v>
@@ -8334,7 +8352,7 @@
         <v>420</v>
       </c>
       <c r="I222" s="10">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -8345,39 +8363,39 @@
         <v>7</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>354</v>
+        <v>87</v>
       </c>
       <c r="D223" s="5">
+        <v>2011</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G223" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I223" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D224" s="5">
         <v>2004</v>
       </c>
-      <c r="E223" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="F223" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G223" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I223" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D224" s="5">
-        <v>2010</v>
-      </c>
       <c r="E224" s="9" t="s">
-        <v>144</v>
+        <v>482</v>
       </c>
       <c r="F224" s="9" t="s">
         <v>422</v>
@@ -8386,7 +8404,7 @@
         <v>420</v>
       </c>
       <c r="I224" s="10">
-        <v>137</v>
+        <v>86</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -8397,25 +8415,22 @@
         <v>7</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>442</v>
+        <v>354</v>
       </c>
       <c r="D225" s="5">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H225" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I225" s="10">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -8426,25 +8441,22 @@
         <v>7</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="D226" s="5">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>265</v>
+        <v>144</v>
       </c>
       <c r="F226" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G226" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H226" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I226" s="10">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -8455,22 +8467,25 @@
         <v>7</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D227" s="5">
-        <v>1952</v>
+        <v>2015</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>434</v>
+        <v>176</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G227" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H227" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I227" s="10">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -8481,13 +8496,13 @@
         <v>7</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>403</v>
+        <v>264</v>
       </c>
       <c r="D228" s="5">
-        <v>1992</v>
+        <v>2016</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>404</v>
+        <v>265</v>
       </c>
       <c r="F228" s="9" t="s">
         <v>422</v>
@@ -8496,10 +8511,10 @@
         <v>422</v>
       </c>
       <c r="H228" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I228" s="10">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -8510,25 +8525,22 @@
         <v>7</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D229" s="5">
-        <v>1993</v>
+        <v>1952</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H229" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I229" s="10">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -8539,25 +8551,25 @@
         <v>7</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D230" s="5">
-        <v>2012</v>
+        <v>1992</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G230" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H230" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I230" s="10">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -8568,25 +8580,25 @@
         <v>7</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D231" s="5">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F231" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G231" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H231" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I231" s="10">
-        <v>148</v>
+        <v>102</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -8597,25 +8609,25 @@
         <v>7</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>107</v>
+        <v>412</v>
       </c>
       <c r="D232" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>110</v>
+        <v>414</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G232" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H232" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I232" s="10">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -8626,25 +8638,25 @@
         <v>7</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>108</v>
+        <v>413</v>
       </c>
       <c r="D233" s="5">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>110</v>
+        <v>414</v>
       </c>
       <c r="F233" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G233" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H233" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I233" s="10">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -8655,10 +8667,10 @@
         <v>7</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D234" s="5">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E234" s="9" t="s">
         <v>110</v>
@@ -8673,7 +8685,7 @@
         <v>422</v>
       </c>
       <c r="I234" s="10">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -8684,13 +8696,13 @@
         <v>7</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D235" s="5">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F235" s="9" t="s">
         <v>422</v>
@@ -8699,10 +8711,10 @@
         <v>422</v>
       </c>
       <c r="H235" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I235" s="10">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -8713,13 +8725,13 @@
         <v>7</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>362</v>
+        <v>109</v>
       </c>
       <c r="D236" s="5">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>363</v>
+        <v>110</v>
       </c>
       <c r="F236" s="9" t="s">
         <v>422</v>
@@ -8731,7 +8743,7 @@
         <v>422</v>
       </c>
       <c r="I236" s="10">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -8742,13 +8754,13 @@
         <v>7</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D237" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="F237" s="9" t="s">
         <v>422</v>
@@ -8757,27 +8769,27 @@
         <v>422</v>
       </c>
       <c r="H237" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I237" s="10">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>460</v>
+        <v>362</v>
       </c>
       <c r="D238" s="5">
-        <v>1999</v>
+        <v>2018</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="F238" s="9" t="s">
         <v>422</v>
@@ -8789,24 +8801,24 @@
         <v>422</v>
       </c>
       <c r="I238" s="10">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>461</v>
+        <v>68</v>
       </c>
       <c r="D239" s="5">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c r="F239" s="9" t="s">
         <v>422</v>
@@ -8818,7 +8830,7 @@
         <v>422</v>
       </c>
       <c r="I239" s="10">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -8829,10 +8841,10 @@
         <v>7</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D240" s="5">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E240" s="9" t="s">
         <v>313</v>
@@ -8858,10 +8870,10 @@
         <v>7</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D241" s="5">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="E241" s="9" t="s">
         <v>313</v>
@@ -8887,10 +8899,10 @@
         <v>7</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D242" s="5">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E242" s="9" t="s">
         <v>313</v>
@@ -8916,10 +8928,10 @@
         <v>7</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D243" s="5">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E243" s="9" t="s">
         <v>313</v>
@@ -8945,10 +8957,10 @@
         <v>7</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D244" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>313</v>
@@ -8974,10 +8986,10 @@
         <v>7</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D245" s="5">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E245" s="9" t="s">
         <v>313</v>
@@ -8997,19 +9009,19 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="D246" s="5">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F246" s="9" t="s">
         <v>422</v>
@@ -9018,27 +9030,27 @@
         <v>422</v>
       </c>
       <c r="H246" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I246" s="10">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>95</v>
+        <v>467</v>
       </c>
       <c r="D247" s="5">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F247" s="9" t="s">
         <v>422</v>
@@ -9047,10 +9059,10 @@
         <v>422</v>
       </c>
       <c r="H247" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I247" s="10">
-        <v>135</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -9061,13 +9073,13 @@
         <v>49</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>97</v>
+        <v>483</v>
       </c>
       <c r="D248" s="5">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F248" s="9" t="s">
         <v>422</v>
@@ -9079,7 +9091,7 @@
         <v>420</v>
       </c>
       <c r="I248" s="10">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -9087,16 +9099,16 @@
         <v>416</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>458</v>
+        <v>95</v>
       </c>
       <c r="D249" s="5">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>459</v>
+        <v>96</v>
       </c>
       <c r="F249" s="9" t="s">
         <v>422</v>
@@ -9105,10 +9117,10 @@
         <v>422</v>
       </c>
       <c r="H249" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I249" s="10">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -9116,16 +9128,16 @@
         <v>416</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>454</v>
+        <v>97</v>
       </c>
       <c r="D250" s="5">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>422</v>
@@ -9134,10 +9146,10 @@
         <v>422</v>
       </c>
       <c r="H250" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I250" s="10">
-        <v>98</v>
+        <v>152</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -9148,13 +9160,13 @@
         <v>7</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D251" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>284</v>
+        <v>459</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>422</v>
@@ -9166,7 +9178,7 @@
         <v>422</v>
       </c>
       <c r="I251" s="10">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -9177,13 +9189,13 @@
         <v>7</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>231</v>
+        <v>454</v>
       </c>
       <c r="D252" s="5">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>24</v>
+        <v>284</v>
       </c>
       <c r="F252" s="9" t="s">
         <v>422</v>
@@ -9195,7 +9207,7 @@
         <v>422</v>
       </c>
       <c r="I252" s="10">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -9206,13 +9218,13 @@
         <v>7</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D253" s="5">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>457</v>
+        <v>284</v>
       </c>
       <c r="F253" s="9" t="s">
         <v>422</v>
@@ -9224,10 +9236,10 @@
         <v>422</v>
       </c>
       <c r="I253" s="10">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>416</v>
       </c>
@@ -9235,22 +9247,25 @@
         <v>7</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="D254" s="5">
         <v>2014</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="F254" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H254" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I254" s="10">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -9261,25 +9276,28 @@
         <v>7</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>299</v>
+        <v>456</v>
       </c>
       <c r="D255" s="5">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>300</v>
+        <v>457</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H255" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I255" s="10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>416</v>
       </c>
@@ -9287,22 +9305,22 @@
         <v>7</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>497</v>
+        <v>205</v>
       </c>
       <c r="D256" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>498</v>
+        <v>206</v>
       </c>
       <c r="F256" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G256" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I256" s="10">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -9313,22 +9331,22 @@
         <v>7</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D257" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G257" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I257" s="10">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -9339,13 +9357,13 @@
         <v>7</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>345</v>
+        <v>497</v>
       </c>
       <c r="D258" s="5">
-        <v>1941</v>
+        <v>2017</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>347</v>
+        <v>498</v>
       </c>
       <c r="F258" s="9" t="s">
         <v>420</v>
@@ -9354,7 +9372,7 @@
         <v>420</v>
       </c>
       <c r="I258" s="10">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -9365,13 +9383,13 @@
         <v>7</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="D259" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="F259" s="9" t="s">
         <v>422</v>
@@ -9380,7 +9398,7 @@
         <v>420</v>
       </c>
       <c r="I259" s="10">
-        <v>79</v>
+        <v>118</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -9391,22 +9409,22 @@
         <v>7</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>495</v>
+        <v>345</v>
       </c>
       <c r="D260" s="5">
-        <v>2020</v>
+        <v>1941</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>129</v>
+        <v>347</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G260" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I260" s="10">
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -9417,13 +9435,13 @@
         <v>7</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>73</v>
+        <v>379</v>
       </c>
       <c r="D261" s="5">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="F261" s="9" t="s">
         <v>422</v>
@@ -9432,7 +9450,7 @@
         <v>420</v>
       </c>
       <c r="I261" s="10">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -9443,13 +9461,13 @@
         <v>7</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="D262" s="5">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F262" s="9" t="s">
         <v>422</v>
@@ -9458,7 +9476,7 @@
         <v>420</v>
       </c>
       <c r="I262" s="10">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -9469,13 +9487,13 @@
         <v>7</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>532</v>
+        <v>73</v>
       </c>
       <c r="D263" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>536</v>
+        <v>74</v>
       </c>
       <c r="F263" s="9" t="s">
         <v>422</v>
@@ -9484,7 +9502,7 @@
         <v>420</v>
       </c>
       <c r="I263" s="10">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -9495,25 +9513,22 @@
         <v>7</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D264" s="5">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F264" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G264" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H264" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I264" s="10">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -9524,25 +9539,22 @@
         <v>7</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>113</v>
+        <v>532</v>
       </c>
       <c r="D265" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>112</v>
+        <v>536</v>
       </c>
       <c r="F265" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H265" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I265" s="10">
-        <v>136</v>
+        <v>104</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -9550,25 +9562,28 @@
         <v>416</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>453</v>
+        <v>111</v>
       </c>
       <c r="D266" s="5">
-        <v>1998</v>
+        <v>2012</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>393</v>
+        <v>112</v>
       </c>
       <c r="F266" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H266" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I266" s="10">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -9579,22 +9594,25 @@
         <v>7</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>585</v>
+        <v>113</v>
       </c>
       <c r="D267" s="5">
-        <v>1985</v>
+        <v>2014</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>431</v>
+        <v>112</v>
       </c>
       <c r="F267" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G267" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H267" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I267" s="10">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -9602,25 +9620,25 @@
         <v>416</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>531</v>
+        <v>453</v>
       </c>
       <c r="D268" s="5">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>188</v>
+        <v>393</v>
       </c>
       <c r="F268" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G268" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I268" s="10">
-        <v>159</v>
+        <v>118</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -9631,25 +9649,22 @@
         <v>7</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>480</v>
+        <v>585</v>
       </c>
       <c r="D269" s="5">
-        <v>2006</v>
+        <v>1985</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>72</v>
+        <v>431</v>
       </c>
       <c r="F269" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G269" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H269" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I269" s="10">
-        <v>167</v>
+        <v>93</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -9660,25 +9675,22 @@
         <v>7</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>128</v>
+        <v>531</v>
       </c>
       <c r="D270" s="5">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="F270" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G270" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H270" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I270" s="10">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -9689,13 +9701,13 @@
         <v>7</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="D271" s="5">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="F271" s="9" t="s">
         <v>422</v>
@@ -9704,10 +9716,10 @@
         <v>422</v>
       </c>
       <c r="H271" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I271" s="10">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -9715,25 +9727,28 @@
         <v>416</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="D272" s="5">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="F272" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G272" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H272" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I272" s="10">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -9744,22 +9759,25 @@
         <v>7</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="D273" s="5">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>318</v>
+        <v>129</v>
       </c>
       <c r="F273" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G273" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H273" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I273" s="10">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -9767,16 +9785,16 @@
         <v>416</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>385</v>
+        <v>273</v>
       </c>
       <c r="D274" s="5">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>386</v>
+        <v>187</v>
       </c>
       <c r="F274" s="9" t="s">
         <v>422</v>
@@ -9785,7 +9803,7 @@
         <v>420</v>
       </c>
       <c r="I274" s="10">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -9793,25 +9811,25 @@
         <v>416</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="D275" s="5">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G275" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I275" s="10">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -9822,13 +9840,13 @@
         <v>7</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D276" s="5">
         <v>2018</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>216</v>
+        <v>386</v>
       </c>
       <c r="F276" s="9" t="s">
         <v>422</v>
@@ -9837,65 +9855,59 @@
         <v>420</v>
       </c>
       <c r="I276" s="10">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>580</v>
+        <v>297</v>
       </c>
       <c r="D277" s="5">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>584</v>
+        <v>298</v>
       </c>
       <c r="F277" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G277" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H277" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I277" s="10">
-        <v>22</v>
+        <v>116</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B278" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>581</v>
+        <v>380</v>
       </c>
       <c r="D278" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>584</v>
+        <v>216</v>
       </c>
       <c r="F278" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G278" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H278" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I278" s="10">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -9906,10 +9918,10 @@
         <v>7</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D279" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E279" s="9" t="s">
         <v>584</v>
@@ -9935,16 +9947,16 @@
         <v>7</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D280" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E280" s="9" t="s">
         <v>584</v>
       </c>
       <c r="F280" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G280" s="10" t="s">
         <v>422</v>
@@ -9958,54 +9970,60 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B281" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>222</v>
+        <v>582</v>
       </c>
       <c r="D281" s="5">
-        <v>1985</v>
+        <v>2018</v>
       </c>
       <c r="E281" s="9" t="s">
-        <v>223</v>
+        <v>584</v>
       </c>
       <c r="F281" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G281" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H281" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I281" s="10">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>302</v>
+        <v>583</v>
       </c>
       <c r="D282" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>301</v>
+        <v>584</v>
       </c>
       <c r="F282" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G282" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H282" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I282" s="10">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -10013,25 +10031,25 @@
         <v>416</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D283" s="5">
-        <v>2017</v>
+        <v>1985</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F283" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G283" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I283" s="10">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -10039,16 +10057,16 @@
         <v>416</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="D284" s="5">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="F284" s="9" t="s">
         <v>422</v>
@@ -10057,7 +10075,7 @@
         <v>420</v>
       </c>
       <c r="I284" s="10">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -10068,22 +10086,22 @@
         <v>49</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>503</v>
+        <v>235</v>
       </c>
       <c r="D285" s="5">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>399</v>
+        <v>236</v>
       </c>
       <c r="F285" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G285" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I285" s="10">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -10094,13 +10112,13 @@
         <v>7</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>433</v>
+        <v>199</v>
       </c>
       <c r="D286" s="5">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F286" s="9" t="s">
         <v>422</v>
@@ -10109,7 +10127,7 @@
         <v>420</v>
       </c>
       <c r="I286" s="10">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -10117,25 +10135,25 @@
         <v>416</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>351</v>
+        <v>503</v>
       </c>
       <c r="D287" s="5">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="F287" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G287" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I287" s="10">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -10146,13 +10164,13 @@
         <v>7</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="D288" s="5">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>395</v>
+        <v>218</v>
       </c>
       <c r="F288" s="9" t="s">
         <v>422</v>
@@ -10161,7 +10179,7 @@
         <v>420</v>
       </c>
       <c r="I288" s="10">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
@@ -10172,25 +10190,22 @@
         <v>7</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>137</v>
+        <v>351</v>
       </c>
       <c r="D289" s="5">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>47</v>
+        <v>352</v>
       </c>
       <c r="F289" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H289" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I289" s="10">
-        <v>137</v>
+        <v>91</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
@@ -10201,25 +10216,22 @@
         <v>7</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>138</v>
+        <v>394</v>
       </c>
       <c r="D290" s="5">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>139</v>
+        <v>395</v>
       </c>
       <c r="F290" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G290" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H290" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I290" s="10">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
@@ -10230,13 +10242,13 @@
         <v>7</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D291" s="5">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="F291" s="9" t="s">
         <v>422</v>
@@ -10248,7 +10260,7 @@
         <v>422</v>
       </c>
       <c r="I291" s="10">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
@@ -10259,10 +10271,10 @@
         <v>7</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D292" s="5">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E292" s="9" t="s">
         <v>139</v>
@@ -10277,7 +10289,7 @@
         <v>422</v>
       </c>
       <c r="I292" s="10">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
@@ -10288,13 +10300,13 @@
         <v>7</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="D293" s="5">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="F293" s="9" t="s">
         <v>422</v>
@@ -10303,10 +10315,10 @@
         <v>422</v>
       </c>
       <c r="H293" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I293" s="10">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
@@ -10317,22 +10329,25 @@
         <v>7</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>443</v>
+        <v>142</v>
       </c>
       <c r="D294" s="5">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E294" s="9" t="s">
-        <v>445</v>
+        <v>139</v>
       </c>
       <c r="F294" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G294" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H294" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I294" s="10">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
@@ -10343,22 +10358,25 @@
         <v>7</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="D295" s="5">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E295" s="9" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="F295" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G295" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H295" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I295" s="10">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
@@ -10369,13 +10387,13 @@
         <v>7</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>217</v>
+        <v>443</v>
       </c>
       <c r="D296" s="5">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E296" s="9" t="s">
-        <v>218</v>
+        <v>445</v>
       </c>
       <c r="F296" s="9" t="s">
         <v>422</v>
@@ -10384,7 +10402,7 @@
         <v>420</v>
       </c>
       <c r="I296" s="10">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
@@ -10395,19 +10413,22 @@
         <v>7</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>597</v>
+        <v>196</v>
       </c>
       <c r="D297" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="F297" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G297" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I297" s="10">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
@@ -10415,16 +10436,16 @@
         <v>416</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="D298" s="5">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="F298" s="9" t="s">
         <v>422</v>
@@ -10433,7 +10454,7 @@
         <v>420</v>
       </c>
       <c r="I298" s="10">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
@@ -10441,28 +10462,22 @@
         <v>416</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D299" s="5">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="F299" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G299" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I299" s="10">
-        <v>152</v>
-      </c>
-      <c r="K299" t="s">
-        <v>603</v>
+        <v>105</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -10470,25 +10485,25 @@
         <v>416</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>447</v>
+        <v>305</v>
       </c>
       <c r="D300" s="5">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>446</v>
+        <v>306</v>
       </c>
       <c r="F300" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G300" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I300" s="10">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
@@ -10499,13 +10514,13 @@
         <v>49</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="D301" s="5">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="F301" s="9" t="s">
         <v>422</v>
@@ -10514,7 +10529,10 @@
         <v>420</v>
       </c>
       <c r="I301" s="10">
-        <v>110</v>
+        <v>152</v>
+      </c>
+      <c r="K301" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
@@ -10522,16 +10540,16 @@
         <v>416</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>499</v>
+        <v>447</v>
       </c>
       <c r="D302" s="5">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="F302" s="9" t="s">
         <v>420</v>
@@ -10540,7 +10558,7 @@
         <v>420</v>
       </c>
       <c r="I302" s="10">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
@@ -10548,28 +10566,25 @@
         <v>416</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>100</v>
+        <v>538</v>
       </c>
       <c r="D303" s="5">
-        <v>1997</v>
+        <v>2016</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="F303" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G303" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H303" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I303" s="10">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
@@ -10580,22 +10595,22 @@
         <v>49</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>169</v>
+        <v>499</v>
       </c>
       <c r="D304" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="F304" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G304" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I304" s="10">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -10606,22 +10621,25 @@
         <v>7</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>565</v>
+        <v>100</v>
       </c>
       <c r="D305" s="5">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>446</v>
+        <v>91</v>
       </c>
       <c r="F305" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H305" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I305" s="10">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -10629,28 +10647,25 @@
         <v>416</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D306" s="5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F306" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G306" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H306" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I306" s="10">
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -10661,13 +10676,13 @@
         <v>7</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>56</v>
+        <v>565</v>
       </c>
       <c r="D307" s="5">
-        <v>1980</v>
+        <v>2021</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>55</v>
+        <v>446</v>
       </c>
       <c r="F307" s="9" t="s">
         <v>422</v>
@@ -10676,7 +10691,7 @@
         <v>420</v>
       </c>
       <c r="I307" s="10">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -10687,39 +10702,42 @@
         <v>7</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="D308" s="5">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="F308" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G308" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H308" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I308" s="10">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>553</v>
+        <v>56</v>
       </c>
       <c r="D309" s="5">
-        <v>2016</v>
+        <v>1980</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>557</v>
+        <v>55</v>
       </c>
       <c r="F309" s="9" t="s">
         <v>422</v>
@@ -10728,7 +10746,7 @@
         <v>420</v>
       </c>
       <c r="I309" s="10">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -10736,54 +10754,51 @@
         <v>416</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>323</v>
+        <v>226</v>
       </c>
       <c r="D310" s="5">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="F310" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G310" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I310" s="10">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>425</v>
+        <v>553</v>
       </c>
       <c r="D311" s="5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>214</v>
+        <v>557</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G311" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H311" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I311" s="10">
-        <v>119</v>
+        <v>60</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -10791,16 +10806,16 @@
         <v>416</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D312" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F312" s="9" t="s">
         <v>422</v>
@@ -10809,7 +10824,7 @@
         <v>420</v>
       </c>
       <c r="I312" s="10">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -10820,22 +10835,25 @@
         <v>7</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>262</v>
+        <v>425</v>
       </c>
       <c r="D313" s="5">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="F313" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G313" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H313" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I313" s="10">
-        <v>83</v>
+        <v>119</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -10846,13 +10864,13 @@
         <v>7</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="D314" s="5">
-        <v>1965</v>
+        <v>2017</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="F314" s="9" t="s">
         <v>422</v>
@@ -10861,10 +10879,10 @@
         <v>420</v>
       </c>
       <c r="I314" s="10">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>416</v>
       </c>
@@ -10872,13 +10890,13 @@
         <v>7</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="D315" s="5">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="F315" s="9" t="s">
         <v>422</v>
@@ -10895,16 +10913,16 @@
         <v>416</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>554</v>
+        <v>229</v>
       </c>
       <c r="D316" s="5">
-        <v>2021</v>
+        <v>1965</v>
       </c>
       <c r="E316" s="9" t="s">
-        <v>555</v>
+        <v>230</v>
       </c>
       <c r="F316" s="9" t="s">
         <v>422</v>
@@ -10913,10 +10931,10 @@
         <v>420</v>
       </c>
       <c r="I316" s="10">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>416</v>
       </c>
@@ -10924,13 +10942,13 @@
         <v>7</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="D317" s="5">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="F317" s="9" t="s">
         <v>422</v>
@@ -10939,7 +10957,7 @@
         <v>420</v>
       </c>
       <c r="I317" s="10">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -10947,16 +10965,16 @@
         <v>416</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>426</v>
+        <v>554</v>
       </c>
       <c r="D318" s="5">
-        <v>1998</v>
+        <v>2021</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>429</v>
+        <v>555</v>
       </c>
       <c r="F318" s="9" t="s">
         <v>422</v>
@@ -10965,7 +10983,7 @@
         <v>420</v>
       </c>
       <c r="I318" s="10">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -10976,13 +10994,13 @@
         <v>7</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D319" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F319" s="9" t="s">
         <v>422</v>
@@ -10991,7 +11009,7 @@
         <v>420</v>
       </c>
       <c r="I319" s="10">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -11002,51 +11020,48 @@
         <v>7</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>563</v>
+        <v>426</v>
       </c>
       <c r="D320" s="5">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E320" s="9" t="s">
-        <v>564</v>
+        <v>429</v>
       </c>
       <c r="F320" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G320" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I320" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>118</v>
+        <v>607</v>
       </c>
       <c r="D321" s="5">
         <v>2017</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>119</v>
+        <v>608</v>
       </c>
       <c r="F321" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G321" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H321" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I321" s="10">
-        <v>130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -11054,16 +11069,16 @@
         <v>416</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D322" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E322" s="9" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F322" s="9" t="s">
         <v>422</v>
@@ -11072,7 +11087,7 @@
         <v>420</v>
       </c>
       <c r="I322" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -11083,25 +11098,22 @@
         <v>7</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>77</v>
+        <v>563</v>
       </c>
       <c r="D323" s="5">
-        <v>1986</v>
+        <v>2001</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>78</v>
+        <v>564</v>
       </c>
       <c r="F323" s="9" t="s">
         <v>420</v>
       </c>
       <c r="G323" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H323" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I323" s="10">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -11109,16 +11121,16 @@
         <v>416</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>575</v>
+        <v>118</v>
       </c>
       <c r="D324" s="5">
-        <v>1995</v>
+        <v>2017</v>
       </c>
       <c r="E324" s="9" t="s">
-        <v>576</v>
+        <v>119</v>
       </c>
       <c r="F324" s="9" t="s">
         <v>422</v>
@@ -11130,7 +11142,7 @@
         <v>420</v>
       </c>
       <c r="I324" s="10">
-        <v>78</v>
+        <v>130</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -11138,28 +11150,25 @@
         <v>416</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>574</v>
+        <v>167</v>
       </c>
       <c r="D325" s="5">
-        <v>1999</v>
+        <v>2018</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>576</v>
+        <v>168</v>
       </c>
       <c r="F325" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G325" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H325" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I325" s="10">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -11170,16 +11179,16 @@
         <v>7</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>573</v>
+        <v>77</v>
       </c>
       <c r="D326" s="5">
-        <v>2010</v>
+        <v>1986</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>577</v>
+        <v>78</v>
       </c>
       <c r="F326" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G326" s="10" t="s">
         <v>422</v>
@@ -11188,7 +11197,7 @@
         <v>420</v>
       </c>
       <c r="I326" s="10">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -11199,13 +11208,13 @@
         <v>7</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>261</v>
+        <v>575</v>
       </c>
       <c r="D327" s="5">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>263</v>
+        <v>576</v>
       </c>
       <c r="F327" s="9" t="s">
         <v>422</v>
@@ -11217,7 +11226,7 @@
         <v>420</v>
       </c>
       <c r="I327" s="10">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -11228,22 +11237,25 @@
         <v>7</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>392</v>
+        <v>574</v>
       </c>
       <c r="D328" s="5">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>393</v>
+        <v>576</v>
       </c>
       <c r="F328" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G328" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H328" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I328" s="10">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -11254,13 +11266,13 @@
         <v>7</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>70</v>
+        <v>573</v>
       </c>
       <c r="D329" s="5">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="E329" s="9" t="s">
-        <v>69</v>
+        <v>577</v>
       </c>
       <c r="F329" s="9" t="s">
         <v>422</v>
@@ -11269,10 +11281,10 @@
         <v>422</v>
       </c>
       <c r="H329" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I329" s="10">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -11283,22 +11295,25 @@
         <v>7</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="D330" s="5">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="E330" s="9" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="F330" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G330" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H330" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I330" s="10">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -11309,13 +11324,13 @@
         <v>7</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="D331" s="5">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>67</v>
+        <v>393</v>
       </c>
       <c r="F331" s="9" t="s">
         <v>422</v>
@@ -11324,7 +11339,7 @@
         <v>420</v>
       </c>
       <c r="I331" s="10">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -11335,13 +11350,13 @@
         <v>7</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>361</v>
+        <v>70</v>
       </c>
       <c r="D332" s="5">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="E332" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F332" s="9" t="s">
         <v>422</v>
@@ -11350,10 +11365,10 @@
         <v>422</v>
       </c>
       <c r="H332" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I332" s="10">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -11364,13 +11379,13 @@
         <v>7</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>381</v>
+        <v>215</v>
       </c>
       <c r="D333" s="5">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>382</v>
+        <v>216</v>
       </c>
       <c r="F333" s="9" t="s">
         <v>422</v>
@@ -11379,7 +11394,7 @@
         <v>420</v>
       </c>
       <c r="I333" s="10">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -11390,13 +11405,13 @@
         <v>7</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="D334" s="5">
-        <v>1998</v>
+        <v>2019</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F334" s="9" t="s">
         <v>422</v>
@@ -11405,7 +11420,7 @@
         <v>420</v>
       </c>
       <c r="I334" s="10">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -11413,16 +11428,16 @@
         <v>416</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>517</v>
+        <v>361</v>
       </c>
       <c r="D335" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E335" s="9" t="s">
-        <v>518</v>
+        <v>59</v>
       </c>
       <c r="F335" s="9" t="s">
         <v>422</v>
@@ -11434,24 +11449,24 @@
         <v>420</v>
       </c>
       <c r="I335" s="10">
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B336" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>528</v>
+        <v>381</v>
       </c>
       <c r="D336" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>533</v>
+        <v>382</v>
       </c>
       <c r="F336" s="9" t="s">
         <v>422</v>
@@ -11460,7 +11475,7 @@
         <v>420</v>
       </c>
       <c r="I336" s="10">
-        <v>56</v>
+        <v>129</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -11471,13 +11486,13 @@
         <v>7</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D337" s="5">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="E337" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F337" s="9" t="s">
         <v>422</v>
@@ -11486,7 +11501,7 @@
         <v>420</v>
       </c>
       <c r="I337" s="10">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -11494,42 +11509,45 @@
         <v>416</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="D338" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E338" s="9" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="F338" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G338" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H338" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I338" s="10">
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>233</v>
+        <v>528</v>
       </c>
       <c r="D339" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>234</v>
+        <v>533</v>
       </c>
       <c r="F339" s="9" t="s">
         <v>422</v>
@@ -11538,7 +11556,7 @@
         <v>420</v>
       </c>
       <c r="I339" s="10">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -11549,13 +11567,13 @@
         <v>7</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>418</v>
+        <v>39</v>
       </c>
       <c r="D340" s="5">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E340" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F340" s="9" t="s">
         <v>422</v>
@@ -11564,7 +11582,7 @@
         <v>420</v>
       </c>
       <c r="I340" s="10">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -11575,13 +11593,13 @@
         <v>7</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>75</v>
+        <v>508</v>
       </c>
       <c r="D341" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E341" s="9" t="s">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="F341" s="9" t="s">
         <v>422</v>
@@ -11590,7 +11608,7 @@
         <v>420</v>
       </c>
       <c r="I341" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -11598,16 +11616,16 @@
         <v>416</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>373</v>
+        <v>233</v>
       </c>
       <c r="D342" s="5">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E342" s="9" t="s">
-        <v>374</v>
+        <v>234</v>
       </c>
       <c r="F342" s="9" t="s">
         <v>422</v>
@@ -11616,7 +11634,7 @@
         <v>420</v>
       </c>
       <c r="I342" s="10">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -11624,25 +11642,25 @@
         <v>416</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="D343" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>359</v>
+        <v>32</v>
       </c>
       <c r="F343" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G343" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I343" s="10">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -11653,22 +11671,22 @@
         <v>7</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>566</v>
+        <v>75</v>
       </c>
       <c r="D344" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>567</v>
+        <v>76</v>
       </c>
       <c r="F344" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G344" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I344" s="10">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -11679,25 +11697,22 @@
         <v>7</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="D345" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="F345" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G345" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H345" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I345" s="10">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -11708,25 +11723,22 @@
         <v>49</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>511</v>
+        <v>358</v>
       </c>
       <c r="D346" s="5">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="F346" s="9" t="s">
         <v>420</v>
       </c>
       <c r="G346" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H346" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I346" s="10">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -11737,22 +11749,22 @@
         <v>7</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>62</v>
+        <v>566</v>
       </c>
       <c r="D347" s="5">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E347" s="9" t="s">
-        <v>63</v>
+        <v>567</v>
       </c>
       <c r="F347" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G347" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I347" s="10">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -11763,13 +11775,13 @@
         <v>7</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="D348" s="5">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E348" s="9" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="F348" s="9" t="s">
         <v>422</v>
@@ -11781,7 +11793,7 @@
         <v>422</v>
       </c>
       <c r="I348" s="10">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -11789,19 +11801,19 @@
         <v>416</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>127</v>
+        <v>511</v>
       </c>
       <c r="D349" s="5">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="F349" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G349" s="10" t="s">
         <v>422</v>
@@ -11810,7 +11822,7 @@
         <v>422</v>
       </c>
       <c r="I349" s="10">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -11821,25 +11833,22 @@
         <v>7</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="D350" s="5">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="F350" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G350" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H350" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I350" s="10">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -11850,13 +11859,13 @@
         <v>7</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>479</v>
+        <v>126</v>
       </c>
       <c r="D351" s="5">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>481</v>
+        <v>121</v>
       </c>
       <c r="F351" s="9" t="s">
         <v>422</v>
@@ -11868,7 +11877,7 @@
         <v>422</v>
       </c>
       <c r="I351" s="10">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -11879,10 +11888,10 @@
         <v>7</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D352" s="5">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E352" s="9" t="s">
         <v>121</v>
@@ -11897,7 +11906,7 @@
         <v>422</v>
       </c>
       <c r="I352" s="10">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -11908,13 +11917,13 @@
         <v>7</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D353" s="5">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E353" s="9" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="F353" s="9" t="s">
         <v>422</v>
@@ -11926,7 +11935,7 @@
         <v>422</v>
       </c>
       <c r="I353" s="10">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -11937,13 +11946,13 @@
         <v>7</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>124</v>
+        <v>479</v>
       </c>
       <c r="D354" s="5">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="E354" s="9" t="s">
-        <v>125</v>
+        <v>481</v>
       </c>
       <c r="F354" s="9" t="s">
         <v>422</v>
@@ -11955,7 +11964,7 @@
         <v>422</v>
       </c>
       <c r="I354" s="10">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -11963,25 +11972,28 @@
         <v>416</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>516</v>
+        <v>122</v>
       </c>
       <c r="D355" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E355" s="9" t="s">
-        <v>519</v>
+        <v>121</v>
       </c>
       <c r="F355" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G355" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H355" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I355" s="10">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -11989,25 +12001,28 @@
         <v>416</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>524</v>
+        <v>123</v>
       </c>
       <c r="D356" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E356" s="9" t="s">
-        <v>525</v>
+        <v>84</v>
       </c>
       <c r="F356" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G356" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H356" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I356" s="10">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -12018,13 +12033,13 @@
         <v>7</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D357" s="5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="F357" s="9" t="s">
         <v>422</v>
@@ -12036,7 +12051,7 @@
         <v>422</v>
       </c>
       <c r="I357" s="10">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -12047,25 +12062,22 @@
         <v>49</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>360</v>
+        <v>516</v>
       </c>
       <c r="D358" s="5">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E358" s="9" t="s">
-        <v>59</v>
+        <v>519</v>
       </c>
       <c r="F358" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G358" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H358" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I358" s="10">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -12073,30 +12085,114 @@
         <v>416</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C359" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D359" s="5">
+        <v>2012</v>
+      </c>
+      <c r="E359" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F359" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G359" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I359" s="10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A360" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D360" s="5">
+        <v>2009</v>
+      </c>
+      <c r="E360" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F360" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G360" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H360" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I360" s="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A361" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D361" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E361" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F361" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G361" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H361" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I361" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A362" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B362" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D359" s="5">
+      <c r="D362" s="5">
         <v>2016</v>
       </c>
-      <c r="E359" s="9" t="s">
+      <c r="E362" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F359" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G359" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I359" s="10">
+      <c r="F362" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G362" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I362" s="10">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L359">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L362">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>

--- a/src/data/database.xlsx
+++ b/src/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\DABAD\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4219F8-D270-42F4-8224-D43EF1EDF6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14CF6A2-A014-4C2C-9ECD-04ED258BED16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="616">
   <si>
     <t>Title</t>
   </si>
@@ -1861,6 +1861,21 @@
   </si>
   <si>
     <t>Mike Bartlett</t>
+  </si>
+  <si>
+    <t>Sing 2</t>
+  </si>
+  <si>
+    <t>Trolls World Tour</t>
+  </si>
+  <si>
+    <t>Walt Dohrn, David P. Smith</t>
+  </si>
+  <si>
+    <t>Ticket to Paradise</t>
+  </si>
+  <si>
+    <t>Ol Parker</t>
   </si>
 </sst>
 </file>
@@ -2251,11 +2266,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L362"/>
+  <dimension ref="A1:L365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E363" sqref="E363"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I365" sqref="I365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8511,7 +8526,7 @@
         <v>422</v>
       </c>
       <c r="H228" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I228" s="10">
         <v>104</v>
@@ -8525,22 +8540,25 @@
         <v>7</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>432</v>
+        <v>611</v>
       </c>
       <c r="D229" s="5">
-        <v>1952</v>
+        <v>2021</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>434</v>
+        <v>265</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H229" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I229" s="10">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -8551,25 +8569,22 @@
         <v>7</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="D230" s="5">
-        <v>1992</v>
+        <v>1952</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G230" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H230" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I230" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -8580,13 +8595,13 @@
         <v>7</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D231" s="5">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F231" s="9" t="s">
         <v>422</v>
@@ -8598,7 +8613,7 @@
         <v>422</v>
       </c>
       <c r="I231" s="10">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -8609,25 +8624,25 @@
         <v>7</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D232" s="5">
-        <v>2012</v>
+        <v>1993</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G232" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H232" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I232" s="10">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -8638,10 +8653,10 @@
         <v>7</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D233" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E233" s="9" t="s">
         <v>414</v>
@@ -8656,7 +8671,7 @@
         <v>420</v>
       </c>
       <c r="I233" s="10">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -8667,25 +8682,25 @@
         <v>7</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>107</v>
+        <v>413</v>
       </c>
       <c r="D234" s="5">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>110</v>
+        <v>414</v>
       </c>
       <c r="F234" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G234" s="10" t="s">
         <v>422</v>
       </c>
       <c r="H234" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I234" s="10">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -8696,10 +8711,10 @@
         <v>7</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D235" s="5">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E235" s="9" t="s">
         <v>110</v>
@@ -8714,7 +8729,7 @@
         <v>422</v>
       </c>
       <c r="I235" s="10">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -8725,10 +8740,10 @@
         <v>7</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D236" s="5">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E236" s="9" t="s">
         <v>110</v>
@@ -8743,7 +8758,7 @@
         <v>422</v>
       </c>
       <c r="I236" s="10">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -8754,13 +8769,13 @@
         <v>7</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D237" s="5">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F237" s="9" t="s">
         <v>422</v>
@@ -8769,10 +8784,10 @@
         <v>422</v>
       </c>
       <c r="H237" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I237" s="10">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -8783,13 +8798,13 @@
         <v>7</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>362</v>
+        <v>114</v>
       </c>
       <c r="D238" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>363</v>
+        <v>115</v>
       </c>
       <c r="F238" s="9" t="s">
         <v>422</v>
@@ -8798,10 +8813,10 @@
         <v>422</v>
       </c>
       <c r="H238" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I238" s="10">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -8812,13 +8827,13 @@
         <v>7</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>68</v>
+        <v>362</v>
       </c>
       <c r="D239" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>69</v>
+        <v>363</v>
       </c>
       <c r="F239" s="9" t="s">
         <v>422</v>
@@ -8835,19 +8850,19 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>460</v>
+        <v>68</v>
       </c>
       <c r="D240" s="5">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c r="F240" s="9" t="s">
         <v>422</v>
@@ -8859,7 +8874,7 @@
         <v>422</v>
       </c>
       <c r="I240" s="10">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -8870,10 +8885,10 @@
         <v>7</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D241" s="5">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E241" s="9" t="s">
         <v>313</v>
@@ -8899,10 +8914,10 @@
         <v>7</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D242" s="5">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E242" s="9" t="s">
         <v>313</v>
@@ -8928,10 +8943,10 @@
         <v>7</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D243" s="5">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="E243" s="9" t="s">
         <v>313</v>
@@ -8957,10 +8972,10 @@
         <v>7</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D244" s="5">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>313</v>
@@ -8986,10 +9001,10 @@
         <v>7</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D245" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E245" s="9" t="s">
         <v>313</v>
@@ -9015,10 +9030,10 @@
         <v>7</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D246" s="5">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E246" s="9" t="s">
         <v>313</v>
@@ -9044,10 +9059,10 @@
         <v>7</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D247" s="5">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E247" s="9" t="s">
         <v>313</v>
@@ -9067,19 +9082,19 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D248" s="5">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F248" s="9" t="s">
         <v>422</v>
@@ -9088,10 +9103,10 @@
         <v>422</v>
       </c>
       <c r="H248" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I248" s="10">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -9102,10 +9117,10 @@
         <v>49</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>95</v>
+        <v>483</v>
       </c>
       <c r="D249" s="5">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E249" s="9" t="s">
         <v>96</v>
@@ -9120,7 +9135,7 @@
         <v>420</v>
       </c>
       <c r="I249" s="10">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -9131,13 +9146,13 @@
         <v>49</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D250" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>422</v>
@@ -9149,7 +9164,7 @@
         <v>420</v>
       </c>
       <c r="I250" s="10">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -9157,16 +9172,16 @@
         <v>416</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>458</v>
+        <v>97</v>
       </c>
       <c r="D251" s="5">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>459</v>
+        <v>98</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>422</v>
@@ -9175,10 +9190,10 @@
         <v>422</v>
       </c>
       <c r="H251" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I251" s="10">
-        <v>98</v>
+        <v>152</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -9189,13 +9204,13 @@
         <v>7</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D252" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>284</v>
+        <v>459</v>
       </c>
       <c r="F252" s="9" t="s">
         <v>422</v>
@@ -9218,10 +9233,10 @@
         <v>7</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D253" s="5">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E253" s="9" t="s">
         <v>284</v>
@@ -9236,7 +9251,7 @@
         <v>422</v>
       </c>
       <c r="I253" s="10">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -9247,13 +9262,13 @@
         <v>7</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>231</v>
+        <v>455</v>
       </c>
       <c r="D254" s="5">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>24</v>
+        <v>284</v>
       </c>
       <c r="F254" s="9" t="s">
         <v>422</v>
@@ -9265,7 +9280,7 @@
         <v>422</v>
       </c>
       <c r="I254" s="10">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -9276,77 +9291,80 @@
         <v>7</v>
       </c>
       <c r="C255" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D255" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G255" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H255" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I255" s="10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D255" s="5">
+      <c r="D256" s="5">
         <v>2012</v>
       </c>
-      <c r="E255" s="9" t="s">
+      <c r="E256" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="F255" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G255" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H255" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="I255" s="10">
+      <c r="F256" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G256" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H256" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I256" s="10">
         <v>95</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C256" s="3" t="s">
+    <row r="257" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D256" s="5">
+      <c r="D257" s="5">
         <v>2014</v>
       </c>
-      <c r="E256" s="9" t="s">
+      <c r="E257" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F256" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G256" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I256" s="10">
+      <c r="F257" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G257" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I257" s="10">
         <v>97</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D257" s="5">
-        <v>2017</v>
-      </c>
-      <c r="E257" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F257" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="G257" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I257" s="10">
-        <v>114</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -9357,13 +9375,13 @@
         <v>7</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>497</v>
+        <v>299</v>
       </c>
       <c r="D258" s="5">
         <v>2017</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>498</v>
+        <v>300</v>
       </c>
       <c r="F258" s="9" t="s">
         <v>420</v>
@@ -9372,7 +9390,7 @@
         <v>420</v>
       </c>
       <c r="I258" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -9383,22 +9401,22 @@
         <v>7</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>287</v>
+        <v>497</v>
       </c>
       <c r="D259" s="5">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>288</v>
+        <v>498</v>
       </c>
       <c r="F259" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G259" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I259" s="10">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -9409,22 +9427,22 @@
         <v>7</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="D260" s="5">
-        <v>1941</v>
+        <v>2016</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G260" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I260" s="10">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -9435,22 +9453,22 @@
         <v>7</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="D261" s="5">
-        <v>2015</v>
+        <v>1941</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="F261" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G261" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I261" s="10">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -9461,13 +9479,13 @@
         <v>7</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>495</v>
+        <v>379</v>
       </c>
       <c r="D262" s="5">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="F262" s="9" t="s">
         <v>422</v>
@@ -9476,7 +9494,7 @@
         <v>420</v>
       </c>
       <c r="I262" s="10">
-        <v>144</v>
+        <v>79</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -9487,13 +9505,13 @@
         <v>7</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>73</v>
+        <v>495</v>
       </c>
       <c r="D263" s="5">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="F263" s="9" t="s">
         <v>422</v>
@@ -9502,7 +9520,7 @@
         <v>420</v>
       </c>
       <c r="I263" s="10">
-        <v>91</v>
+        <v>144</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -9513,13 +9531,13 @@
         <v>7</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D264" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F264" s="9" t="s">
         <v>422</v>
@@ -9528,7 +9546,7 @@
         <v>420</v>
       </c>
       <c r="I264" s="10">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -9539,13 +9557,13 @@
         <v>7</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="D265" s="5">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>536</v>
+        <v>80</v>
       </c>
       <c r="F265" s="9" t="s">
         <v>422</v>
@@ -9554,7 +9572,7 @@
         <v>420</v>
       </c>
       <c r="I265" s="10">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -9565,25 +9583,22 @@
         <v>7</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>111</v>
+        <v>532</v>
       </c>
       <c r="D266" s="5">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>112</v>
+        <v>536</v>
       </c>
       <c r="F266" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H266" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I266" s="10">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -9594,10 +9609,10 @@
         <v>7</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D267" s="5">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E267" s="9" t="s">
         <v>112</v>
@@ -9612,7 +9627,7 @@
         <v>422</v>
       </c>
       <c r="I267" s="10">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -9620,25 +9635,28 @@
         <v>416</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>453</v>
+        <v>113</v>
       </c>
       <c r="D268" s="5">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>393</v>
+        <v>112</v>
       </c>
       <c r="F268" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G268" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H268" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I268" s="10">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -9646,16 +9664,16 @@
         <v>416</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>585</v>
+        <v>453</v>
       </c>
       <c r="D269" s="5">
-        <v>1985</v>
+        <v>1998</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="F269" s="9" t="s">
         <v>422</v>
@@ -9664,7 +9682,7 @@
         <v>420</v>
       </c>
       <c r="I269" s="10">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -9675,22 +9693,22 @@
         <v>7</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>531</v>
+        <v>585</v>
       </c>
       <c r="D270" s="5">
-        <v>2009</v>
+        <v>1985</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>188</v>
+        <v>431</v>
       </c>
       <c r="F270" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G270" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I270" s="10">
-        <v>159</v>
+        <v>93</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -9701,25 +9719,22 @@
         <v>7</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="D271" s="5">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="F271" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H271" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I271" s="10">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -9730,13 +9745,13 @@
         <v>7</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>128</v>
+        <v>480</v>
       </c>
       <c r="D272" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="F272" s="9" t="s">
         <v>422</v>
@@ -9745,10 +9760,10 @@
         <v>422</v>
       </c>
       <c r="H272" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I272" s="10">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -9759,10 +9774,10 @@
         <v>7</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D273" s="5">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="E273" s="9" t="s">
         <v>129</v>
@@ -9777,7 +9792,7 @@
         <v>422</v>
       </c>
       <c r="I273" s="10">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -9785,25 +9800,28 @@
         <v>416</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>273</v>
+        <v>130</v>
       </c>
       <c r="D274" s="5">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="F274" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G274" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H274" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I274" s="10">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -9811,16 +9829,16 @@
         <v>416</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="D275" s="5">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>318</v>
+        <v>187</v>
       </c>
       <c r="F275" s="9" t="s">
         <v>422</v>
@@ -9829,7 +9847,7 @@
         <v>420</v>
       </c>
       <c r="I275" s="10">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -9840,13 +9858,13 @@
         <v>7</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>385</v>
+        <v>317</v>
       </c>
       <c r="D276" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="F276" s="9" t="s">
         <v>422</v>
@@ -9855,7 +9873,7 @@
         <v>420</v>
       </c>
       <c r="I276" s="10">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -9863,25 +9881,25 @@
         <v>416</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="D277" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
       <c r="F277" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G277" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I277" s="10">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -9889,54 +9907,51 @@
         <v>416</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="D278" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F278" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G278" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I278" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B279" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="D279" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>584</v>
+        <v>216</v>
       </c>
       <c r="F279" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G279" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H279" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I279" s="10">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -9947,10 +9962,10 @@
         <v>7</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D280" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E280" s="9" t="s">
         <v>584</v>
@@ -9976,10 +9991,10 @@
         <v>7</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D281" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E281" s="9" t="s">
         <v>584</v>
@@ -10005,16 +10020,16 @@
         <v>7</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D282" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E282" s="9" t="s">
         <v>584</v>
       </c>
       <c r="F282" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G282" s="10" t="s">
         <v>422</v>
@@ -10028,28 +10043,31 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>222</v>
+        <v>583</v>
       </c>
       <c r="D283" s="5">
-        <v>1985</v>
+        <v>2019</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>223</v>
+        <v>584</v>
       </c>
       <c r="F283" s="9" t="s">
         <v>420</v>
       </c>
       <c r="G283" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H283" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I283" s="10">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -10057,25 +10075,25 @@
         <v>416</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="D284" s="5">
-        <v>2014</v>
+        <v>1985</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G284" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I284" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -10086,13 +10104,13 @@
         <v>49</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="D285" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="F285" s="9" t="s">
         <v>422</v>
@@ -10101,7 +10119,7 @@
         <v>420</v>
       </c>
       <c r="I285" s="10">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -10109,16 +10127,16 @@
         <v>416</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="D286" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="F286" s="9" t="s">
         <v>422</v>
@@ -10127,7 +10145,7 @@
         <v>420</v>
       </c>
       <c r="I286" s="10">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -10135,25 +10153,25 @@
         <v>416</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>503</v>
+        <v>199</v>
       </c>
       <c r="D287" s="5">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="F287" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G287" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I287" s="10">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -10161,25 +10179,25 @@
         <v>416</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>433</v>
+        <v>503</v>
       </c>
       <c r="D288" s="5">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>218</v>
+        <v>399</v>
       </c>
       <c r="F288" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G288" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I288" s="10">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
@@ -10190,13 +10208,13 @@
         <v>7</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="D289" s="5">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>352</v>
+        <v>218</v>
       </c>
       <c r="F289" s="9" t="s">
         <v>422</v>
@@ -10205,7 +10223,7 @@
         <v>420</v>
       </c>
       <c r="I289" s="10">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
@@ -10216,13 +10234,13 @@
         <v>7</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="D290" s="5">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="F290" s="9" t="s">
         <v>422</v>
@@ -10231,7 +10249,7 @@
         <v>420</v>
       </c>
       <c r="I290" s="10">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
@@ -10242,25 +10260,22 @@
         <v>7</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>137</v>
+        <v>394</v>
       </c>
       <c r="D291" s="5">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>47</v>
+        <v>395</v>
       </c>
       <c r="F291" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G291" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H291" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I291" s="10">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
@@ -10271,13 +10286,13 @@
         <v>7</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D292" s="5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="F292" s="9" t="s">
         <v>422</v>
@@ -10289,7 +10304,7 @@
         <v>422</v>
       </c>
       <c r="I292" s="10">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
@@ -10300,10 +10315,10 @@
         <v>7</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D293" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E293" s="9" t="s">
         <v>139</v>
@@ -10318,7 +10333,7 @@
         <v>422</v>
       </c>
       <c r="I293" s="10">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
@@ -10329,10 +10344,10 @@
         <v>7</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D294" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E294" s="9" t="s">
         <v>139</v>
@@ -10347,7 +10362,7 @@
         <v>422</v>
       </c>
       <c r="I294" s="10">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
@@ -10358,13 +10373,13 @@
         <v>7</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="D295" s="5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E295" s="9" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="F295" s="9" t="s">
         <v>422</v>
@@ -10373,10 +10388,10 @@
         <v>422</v>
       </c>
       <c r="H295" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I295" s="10">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
@@ -10387,22 +10402,25 @@
         <v>7</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>443</v>
+        <v>239</v>
       </c>
       <c r="D296" s="5">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E296" s="9" t="s">
-        <v>445</v>
+        <v>240</v>
       </c>
       <c r="F296" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G296" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H296" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I296" s="10">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
@@ -10413,13 +10431,13 @@
         <v>7</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>196</v>
+        <v>443</v>
       </c>
       <c r="D297" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>172</v>
+        <v>445</v>
       </c>
       <c r="F297" s="9" t="s">
         <v>422</v>
@@ -10428,7 +10446,7 @@
         <v>420</v>
       </c>
       <c r="I297" s="10">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
@@ -10439,13 +10457,13 @@
         <v>7</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D298" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="F298" s="9" t="s">
         <v>422</v>
@@ -10454,7 +10472,7 @@
         <v>420</v>
       </c>
       <c r="I298" s="10">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
@@ -10465,19 +10483,22 @@
         <v>7</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>597</v>
+        <v>217</v>
       </c>
       <c r="D299" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>440</v>
+        <v>218</v>
       </c>
       <c r="F299" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G299" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I299" s="10">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -10485,25 +10506,22 @@
         <v>416</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>305</v>
+        <v>597</v>
       </c>
       <c r="D300" s="5">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>306</v>
+        <v>440</v>
       </c>
       <c r="F300" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G300" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I300" s="10">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
@@ -10514,13 +10532,13 @@
         <v>49</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>602</v>
+        <v>305</v>
       </c>
       <c r="D301" s="5">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>170</v>
+        <v>306</v>
       </c>
       <c r="F301" s="9" t="s">
         <v>422</v>
@@ -10529,10 +10547,7 @@
         <v>420</v>
       </c>
       <c r="I301" s="10">
-        <v>152</v>
-      </c>
-      <c r="K301" t="s">
-        <v>603</v>
+        <v>140</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
@@ -10540,25 +10555,28 @@
         <v>416</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>447</v>
+        <v>602</v>
       </c>
       <c r="D302" s="5">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>446</v>
+        <v>170</v>
       </c>
       <c r="F302" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G302" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I302" s="10">
-        <v>118</v>
+        <v>152</v>
+      </c>
+      <c r="K302" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
@@ -10566,25 +10584,25 @@
         <v>416</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>538</v>
+        <v>447</v>
       </c>
       <c r="D303" s="5">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>153</v>
+        <v>446</v>
       </c>
       <c r="F303" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G303" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I303" s="10">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
@@ -10595,22 +10613,22 @@
         <v>49</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="D304" s="5">
         <v>2016</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>500</v>
+        <v>153</v>
       </c>
       <c r="F304" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G304" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I304" s="10">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -10618,28 +10636,25 @@
         <v>416</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>100</v>
+        <v>499</v>
       </c>
       <c r="D305" s="5">
-        <v>1997</v>
+        <v>2016</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>91</v>
+        <v>500</v>
       </c>
       <c r="F305" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H305" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I305" s="10">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -10647,25 +10662,28 @@
         <v>416</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="D306" s="5">
-        <v>2015</v>
+        <v>1997</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="F306" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G306" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H306" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I306" s="10">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -10673,16 +10691,16 @@
         <v>416</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>565</v>
+        <v>169</v>
       </c>
       <c r="D307" s="5">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>446</v>
+        <v>170</v>
       </c>
       <c r="F307" s="9" t="s">
         <v>422</v>
@@ -10691,7 +10709,7 @@
         <v>420</v>
       </c>
       <c r="I307" s="10">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -10702,25 +10720,22 @@
         <v>7</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>165</v>
+        <v>565</v>
       </c>
       <c r="D308" s="5">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>166</v>
+        <v>446</v>
       </c>
       <c r="F308" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G308" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H308" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I308" s="10">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -10731,22 +10746,25 @@
         <v>7</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="D309" s="5">
-        <v>1980</v>
+        <v>2014</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="F309" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G309" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H309" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I309" s="10">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -10757,65 +10775,65 @@
         <v>7</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="D310" s="5">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="F310" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G310" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I310" s="10">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>553</v>
+        <v>226</v>
       </c>
       <c r="D311" s="5">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>557</v>
+        <v>227</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G311" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I311" s="10">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>323</v>
+        <v>553</v>
       </c>
       <c r="D312" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>324</v>
+        <v>557</v>
       </c>
       <c r="F312" s="9" t="s">
         <v>422</v>
@@ -10824,7 +10842,7 @@
         <v>420</v>
       </c>
       <c r="I312" s="10">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -10832,28 +10850,25 @@
         <v>416</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>425</v>
+        <v>323</v>
       </c>
       <c r="D313" s="5">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>214</v>
+        <v>324</v>
       </c>
       <c r="F313" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G313" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H313" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I313" s="10">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -10864,22 +10879,25 @@
         <v>7</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="D314" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>316</v>
+        <v>214</v>
       </c>
       <c r="F314" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G314" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H314" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I314" s="10">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -10890,13 +10908,13 @@
         <v>7</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="D315" s="5">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="F315" s="9" t="s">
         <v>422</v>
@@ -10905,7 +10923,7 @@
         <v>420</v>
       </c>
       <c r="I315" s="10">
-        <v>83</v>
+        <v>118</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -10916,74 +10934,74 @@
         <v>7</v>
       </c>
       <c r="C316" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D316" s="5">
+        <v>2007</v>
+      </c>
+      <c r="E316" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F316" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G316" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I316" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D317" s="5">
         <v>1965</v>
       </c>
-      <c r="E316" s="9" t="s">
+      <c r="E317" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="F316" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G316" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I316" s="10">
+      <c r="F317" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G317" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I317" s="10">
         <v>168</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A317" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B317" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C317" s="3" t="s">
+    <row r="318" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D317" s="5">
+      <c r="D318" s="5">
         <v>2004</v>
       </c>
-      <c r="E317" s="9" t="s">
+      <c r="E318" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="F317" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G317" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I317" s="10">
+      <c r="F318" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G318" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I318" s="10">
         <v>83</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A318" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B318" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D318" s="5">
-        <v>2021</v>
-      </c>
-      <c r="E318" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="F318" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G318" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I318" s="10">
-        <v>132</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -10991,16 +11009,16 @@
         <v>416</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>195</v>
+        <v>554</v>
       </c>
       <c r="D319" s="5">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>194</v>
+        <v>555</v>
       </c>
       <c r="F319" s="9" t="s">
         <v>422</v>
@@ -11009,7 +11027,7 @@
         <v>420</v>
       </c>
       <c r="I319" s="10">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -11020,13 +11038,13 @@
         <v>7</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>426</v>
+        <v>195</v>
       </c>
       <c r="D320" s="5">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="E320" s="9" t="s">
-        <v>429</v>
+        <v>194</v>
       </c>
       <c r="F320" s="9" t="s">
         <v>422</v>
@@ -11035,24 +11053,24 @@
         <v>420</v>
       </c>
       <c r="I320" s="10">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B321" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>607</v>
+        <v>426</v>
       </c>
       <c r="D321" s="5">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>608</v>
+        <v>429</v>
       </c>
       <c r="F321" s="9" t="s">
         <v>422</v>
@@ -11061,24 +11079,24 @@
         <v>420</v>
       </c>
       <c r="I321" s="10">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B322" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>189</v>
+        <v>607</v>
       </c>
       <c r="D322" s="5">
         <v>2017</v>
       </c>
       <c r="E322" s="9" t="s">
-        <v>190</v>
+        <v>608</v>
       </c>
       <c r="F322" s="9" t="s">
         <v>422</v>
@@ -11087,7 +11105,7 @@
         <v>420</v>
       </c>
       <c r="I322" s="10">
-        <v>122</v>
+        <v>60</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -11098,22 +11116,22 @@
         <v>7</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>563</v>
+        <v>189</v>
       </c>
       <c r="D323" s="5">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>564</v>
+        <v>190</v>
       </c>
       <c r="F323" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G323" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I323" s="10">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -11121,28 +11139,25 @@
         <v>416</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>118</v>
+        <v>563</v>
       </c>
       <c r="D324" s="5">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="E324" s="9" t="s">
-        <v>119</v>
+        <v>564</v>
       </c>
       <c r="F324" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G324" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H324" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I324" s="10">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -11153,22 +11168,25 @@
         <v>49</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="D325" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="F325" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G325" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H325" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I325" s="10">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -11179,25 +11197,22 @@
         <v>7</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>77</v>
+        <v>614</v>
       </c>
       <c r="D326" s="5">
-        <v>1986</v>
+        <v>2022</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>78</v>
+        <v>615</v>
       </c>
       <c r="F326" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G326" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H326" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I326" s="10">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -11205,28 +11220,25 @@
         <v>416</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>575</v>
+        <v>167</v>
       </c>
       <c r="D327" s="5">
-        <v>1995</v>
+        <v>2018</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>576</v>
+        <v>168</v>
       </c>
       <c r="F327" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G327" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H327" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I327" s="10">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -11237,16 +11249,16 @@
         <v>7</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>574</v>
+        <v>77</v>
       </c>
       <c r="D328" s="5">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>576</v>
+        <v>78</v>
       </c>
       <c r="F328" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G328" s="10" t="s">
         <v>422</v>
@@ -11255,7 +11267,7 @@
         <v>420</v>
       </c>
       <c r="I328" s="10">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -11266,13 +11278,13 @@
         <v>7</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D329" s="5">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="E329" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F329" s="9" t="s">
         <v>422</v>
@@ -11284,7 +11296,7 @@
         <v>420</v>
       </c>
       <c r="I329" s="10">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -11295,13 +11307,13 @@
         <v>7</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>261</v>
+        <v>574</v>
       </c>
       <c r="D330" s="5">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="E330" s="9" t="s">
-        <v>263</v>
+        <v>576</v>
       </c>
       <c r="F330" s="9" t="s">
         <v>422</v>
@@ -11313,7 +11325,7 @@
         <v>420</v>
       </c>
       <c r="I330" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -11324,22 +11336,25 @@
         <v>7</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>392</v>
+        <v>573</v>
       </c>
       <c r="D331" s="5">
         <v>2010</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>393</v>
+        <v>577</v>
       </c>
       <c r="F331" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G331" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H331" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I331" s="10">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -11350,13 +11365,13 @@
         <v>7</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="D332" s="5">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="E332" s="9" t="s">
-        <v>69</v>
+        <v>263</v>
       </c>
       <c r="F332" s="9" t="s">
         <v>422</v>
@@ -11365,10 +11380,10 @@
         <v>422</v>
       </c>
       <c r="H332" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I332" s="10">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -11379,22 +11394,25 @@
         <v>7</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>215</v>
+        <v>612</v>
       </c>
       <c r="D333" s="5">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>216</v>
+        <v>613</v>
       </c>
       <c r="F333" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G333" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H333" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I333" s="10">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -11405,13 +11423,13 @@
         <v>7</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="D334" s="5">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>67</v>
+        <v>393</v>
       </c>
       <c r="F334" s="9" t="s">
         <v>422</v>
@@ -11420,7 +11438,7 @@
         <v>420</v>
       </c>
       <c r="I334" s="10">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -11431,13 +11449,13 @@
         <v>7</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>361</v>
+        <v>70</v>
       </c>
       <c r="D335" s="5">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="E335" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F335" s="9" t="s">
         <v>422</v>
@@ -11446,10 +11464,10 @@
         <v>422</v>
       </c>
       <c r="H335" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I335" s="10">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -11460,13 +11478,13 @@
         <v>7</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>381</v>
+        <v>215</v>
       </c>
       <c r="D336" s="5">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>382</v>
+        <v>216</v>
       </c>
       <c r="F336" s="9" t="s">
         <v>422</v>
@@ -11475,7 +11493,7 @@
         <v>420</v>
       </c>
       <c r="I336" s="10">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -11486,13 +11504,13 @@
         <v>7</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="D337" s="5">
-        <v>1998</v>
+        <v>2019</v>
       </c>
       <c r="E337" s="9" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F337" s="9" t="s">
         <v>422</v>
@@ -11501,7 +11519,7 @@
         <v>420</v>
       </c>
       <c r="I337" s="10">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -11509,16 +11527,16 @@
         <v>416</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>517</v>
+        <v>361</v>
       </c>
       <c r="D338" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E338" s="9" t="s">
-        <v>518</v>
+        <v>59</v>
       </c>
       <c r="F338" s="9" t="s">
         <v>422</v>
@@ -11530,24 +11548,24 @@
         <v>420</v>
       </c>
       <c r="I338" s="10">
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B339" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>528</v>
+        <v>381</v>
       </c>
       <c r="D339" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>533</v>
+        <v>382</v>
       </c>
       <c r="F339" s="9" t="s">
         <v>422</v>
@@ -11556,7 +11574,7 @@
         <v>420</v>
       </c>
       <c r="I339" s="10">
-        <v>56</v>
+        <v>129</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -11567,13 +11585,13 @@
         <v>7</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D340" s="5">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="E340" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F340" s="9" t="s">
         <v>422</v>
@@ -11582,7 +11600,7 @@
         <v>420</v>
       </c>
       <c r="I340" s="10">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -11590,42 +11608,45 @@
         <v>416</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="D341" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E341" s="9" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="F341" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G341" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H341" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I341" s="10">
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>233</v>
+        <v>528</v>
       </c>
       <c r="D342" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E342" s="9" t="s">
-        <v>234</v>
+        <v>533</v>
       </c>
       <c r="F342" s="9" t="s">
         <v>422</v>
@@ -11634,7 +11655,7 @@
         <v>420</v>
       </c>
       <c r="I342" s="10">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -11645,13 +11666,13 @@
         <v>7</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>418</v>
+        <v>39</v>
       </c>
       <c r="D343" s="5">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F343" s="9" t="s">
         <v>422</v>
@@ -11660,7 +11681,7 @@
         <v>420</v>
       </c>
       <c r="I343" s="10">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -11671,13 +11692,13 @@
         <v>7</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>75</v>
+        <v>508</v>
       </c>
       <c r="D344" s="5">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="F344" s="9" t="s">
         <v>422</v>
@@ -11686,7 +11707,7 @@
         <v>420</v>
       </c>
       <c r="I344" s="10">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -11694,16 +11715,16 @@
         <v>416</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>373</v>
+        <v>233</v>
       </c>
       <c r="D345" s="5">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>374</v>
+        <v>234</v>
       </c>
       <c r="F345" s="9" t="s">
         <v>422</v>
@@ -11712,7 +11733,7 @@
         <v>420</v>
       </c>
       <c r="I345" s="10">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -11720,25 +11741,25 @@
         <v>416</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="D346" s="5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>359</v>
+        <v>32</v>
       </c>
       <c r="F346" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G346" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I346" s="10">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -11749,22 +11770,22 @@
         <v>7</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>566</v>
+        <v>75</v>
       </c>
       <c r="D347" s="5">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E347" s="9" t="s">
-        <v>567</v>
+        <v>76</v>
       </c>
       <c r="F347" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G347" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I347" s="10">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -11775,25 +11796,22 @@
         <v>7</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="D348" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E348" s="9" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="F348" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G348" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H348" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I348" s="10">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -11804,25 +11822,22 @@
         <v>49</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>511</v>
+        <v>358</v>
       </c>
       <c r="D349" s="5">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="F349" s="9" t="s">
         <v>420</v>
       </c>
       <c r="G349" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H349" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I349" s="10">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -11833,22 +11848,22 @@
         <v>7</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>62</v>
+        <v>566</v>
       </c>
       <c r="D350" s="5">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>63</v>
+        <v>567</v>
       </c>
       <c r="F350" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G350" s="10" t="s">
         <v>420</v>
       </c>
       <c r="I350" s="10">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -11859,13 +11874,13 @@
         <v>7</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="D351" s="5">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="F351" s="9" t="s">
         <v>422</v>
@@ -11877,7 +11892,7 @@
         <v>422</v>
       </c>
       <c r="I351" s="10">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -11885,19 +11900,19 @@
         <v>416</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>127</v>
+        <v>511</v>
       </c>
       <c r="D352" s="5">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="E352" s="9" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="F352" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G352" s="10" t="s">
         <v>422</v>
@@ -11906,7 +11921,7 @@
         <v>422</v>
       </c>
       <c r="I352" s="10">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -11917,25 +11932,22 @@
         <v>7</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="D353" s="5">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E353" s="9" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="F353" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G353" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H353" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I353" s="10">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -11946,13 +11958,13 @@
         <v>7</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>479</v>
+        <v>126</v>
       </c>
       <c r="D354" s="5">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="E354" s="9" t="s">
-        <v>481</v>
+        <v>121</v>
       </c>
       <c r="F354" s="9" t="s">
         <v>422</v>
@@ -11964,7 +11976,7 @@
         <v>422</v>
       </c>
       <c r="I354" s="10">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -11975,10 +11987,10 @@
         <v>7</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D355" s="5">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E355" s="9" t="s">
         <v>121</v>
@@ -11993,7 +12005,7 @@
         <v>422</v>
       </c>
       <c r="I355" s="10">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -12004,13 +12016,13 @@
         <v>7</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D356" s="5">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E356" s="9" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="F356" s="9" t="s">
         <v>422</v>
@@ -12022,7 +12034,7 @@
         <v>422</v>
       </c>
       <c r="I356" s="10">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -12033,13 +12045,13 @@
         <v>7</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>124</v>
+        <v>479</v>
       </c>
       <c r="D357" s="5">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>125</v>
+        <v>481</v>
       </c>
       <c r="F357" s="9" t="s">
         <v>422</v>
@@ -12051,7 +12063,7 @@
         <v>422</v>
       </c>
       <c r="I357" s="10">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -12059,25 +12071,28 @@
         <v>416</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>516</v>
+        <v>122</v>
       </c>
       <c r="D358" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E358" s="9" t="s">
-        <v>519</v>
+        <v>121</v>
       </c>
       <c r="F358" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G358" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H358" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I358" s="10">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -12085,25 +12100,28 @@
         <v>416</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>524</v>
+        <v>123</v>
       </c>
       <c r="D359" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E359" s="9" t="s">
-        <v>525</v>
+        <v>84</v>
       </c>
       <c r="F359" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G359" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H359" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="I359" s="10">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -12114,13 +12132,13 @@
         <v>7</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D360" s="5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E360" s="9" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="F360" s="9" t="s">
         <v>422</v>
@@ -12132,7 +12150,7 @@
         <v>422</v>
       </c>
       <c r="I360" s="10">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -12143,25 +12161,22 @@
         <v>49</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>360</v>
+        <v>516</v>
       </c>
       <c r="D361" s="5">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>59</v>
+        <v>519</v>
       </c>
       <c r="F361" s="9" t="s">
         <v>422</v>
       </c>
       <c r="G361" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="H361" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I361" s="10">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -12169,30 +12184,114 @@
         <v>416</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C362" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D362" s="5">
+        <v>2012</v>
+      </c>
+      <c r="E362" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F362" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G362" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I362" s="10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A363" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D363" s="5">
+        <v>2009</v>
+      </c>
+      <c r="E363" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F363" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G363" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H363" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I363" s="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A364" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D364" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E364" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F364" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G364" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H364" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I364" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A365" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D362" s="5">
+      <c r="D365" s="5">
         <v>2016</v>
       </c>
-      <c r="E362" s="9" t="s">
+      <c r="E365" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F362" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G362" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I362" s="10">
+      <c r="F365" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G365" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I365" s="10">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L362">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L365">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>

--- a/src/data/database.xlsx
+++ b/src/data/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\DABAD\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC0E2BF-BD1B-4D63-A6B9-71C33CD0DB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F5108C-41A7-41D5-BF84-1658C95B0042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="752">
   <si>
     <t>Title</t>
   </si>
@@ -2248,6 +2248,42 @@
   </si>
   <si>
     <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>The Reader</t>
+  </si>
+  <si>
+    <t>Stephen Daldry</t>
+  </si>
+  <si>
+    <t>National Theatre Live: Prima Facie</t>
+  </si>
+  <si>
+    <t>Justin Martin</t>
+  </si>
+  <si>
+    <t>Succession [Season 1]</t>
+  </si>
+  <si>
+    <t>Jesse Armstrong</t>
+  </si>
+  <si>
+    <t>Succession [Season 2], Succession [Season 3], Succession [Season 4]</t>
+  </si>
+  <si>
+    <t>Sharp Objects</t>
+  </si>
+  <si>
+    <t>Marti Noxon</t>
+  </si>
+  <si>
+    <t>The End We Start From</t>
+  </si>
+  <si>
+    <t>Mahalia Belo</t>
   </si>
 </sst>
 </file>
@@ -2291,7 +2327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2327,6 +2363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2641,11 +2678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P370"/>
+  <dimension ref="A1:P375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A375" sqref="A375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13551,6 +13588,143 @@
         <v>104</v>
       </c>
     </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D371" s="3">
+        <v>2008</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G371" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="K371" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D372" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G372" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="K372" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A373" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="D373" s="11">
+        <v>2018</v>
+      </c>
+      <c r="E373" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="F373" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="G373" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="H373" s="12"/>
+      <c r="I373" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="J373" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="K373" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D374" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G374" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="K374" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D375" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G375" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="K375" s="6">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P370" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P370">
